--- a/GATEWAY/A1#111ELIOSSUITEXX/eliossuite/0012023/3/report-checklist.xlsx
+++ b/GATEWAY/A1#111ELIOSSUITEXX/eliossuite/0012023/3/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\FSE2\TEST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\FSE2\TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6319A0A-3190-44F5-8DA7-ABC72BFE0D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C822377-E600-4682-902A-118CD7B35B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2760,15 +2760,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>2023-06-29T15:08:27:00Z</t>
-  </si>
-  <si>
-    <t>b559f52dce68c5df</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.675355a049^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Si</t>
   </si>
   <si>
@@ -2900,6 +2891,15 @@
   </si>
   <si>
     <t>Sezione opzionale non gestita nel CDA</t>
+  </si>
+  <si>
+    <t>2023-07-04T10:39:16:00Z</t>
+  </si>
+  <si>
+    <t>87aae40f4cbb3401</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.1e943af217^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -5825,10 +5825,10 @@
   <dimension ref="A1:T830"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A221" sqref="A221"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6131,19 +6131,19 @@
         <v>55</v>
       </c>
       <c r="F11" s="33" t="s">
+        <v>564</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>564</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>565</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>566</v>
+      </c>
+      <c r="J11" s="35" t="s">
         <v>520</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>520</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>521</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>522</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>523</v>
       </c>
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
@@ -6175,19 +6175,19 @@
         <v>57</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="J12" s="35" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -6226,7 +6226,7 @@
         <v>518</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
@@ -6264,7 +6264,7 @@
         <v>518</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
@@ -6399,19 +6399,19 @@
         <v>76</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="J18" s="35" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K18" s="25"/>
       <c r="L18" s="25" t="s">
@@ -6421,13 +6421,13 @@
         <v>73</v>
       </c>
       <c r="N18" s="34" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="O18" s="35" t="s">
         <v>518</v>
       </c>
       <c r="P18" s="35" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="Q18" s="25"/>
       <c r="R18" s="26"/>
@@ -6453,19 +6453,19 @@
         <v>78</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K19" s="25"/>
       <c r="L19" s="35" t="s">
@@ -6475,13 +6475,13 @@
         <v>73</v>
       </c>
       <c r="N19" s="35" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="O19" s="35" t="s">
         <v>518</v>
       </c>
       <c r="P19" s="35" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="Q19" s="25"/>
       <c r="R19" s="26"/>
@@ -6507,16 +6507,16 @@
         <v>80</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="J20" s="35" t="s">
         <v>73</v>
@@ -6529,13 +6529,13 @@
         <v>73</v>
       </c>
       <c r="N20" s="35" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="O20" s="35" t="s">
         <v>518</v>
       </c>
       <c r="P20" s="35" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="Q20" s="25"/>
       <c r="R20" s="26"/>
@@ -6561,16 +6561,16 @@
         <v>82</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H21" s="34" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="J21" s="35" t="s">
         <v>73</v>
@@ -6583,13 +6583,13 @@
         <v>73</v>
       </c>
       <c r="N21" s="35" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="O21" s="35" t="s">
         <v>518</v>
       </c>
       <c r="P21" s="35" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="Q21" s="25"/>
       <c r="R21" s="26"/>
@@ -6615,16 +6615,16 @@
         <v>84</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J22" s="35" t="s">
         <v>73</v>
@@ -6637,13 +6637,13 @@
         <v>73</v>
       </c>
       <c r="N22" s="35" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="O22" s="35" t="s">
         <v>518</v>
       </c>
       <c r="P22" s="35" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="Q22" s="25"/>
       <c r="R22" s="26"/>
@@ -6669,16 +6669,16 @@
         <v>86</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H23" s="34" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J23" s="35" t="s">
         <v>73</v>
@@ -6691,13 +6691,13 @@
         <v>73</v>
       </c>
       <c r="N23" s="35" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="O23" s="35" t="s">
         <v>518</v>
       </c>
       <c r="P23" s="35" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="Q23" s="25"/>
       <c r="R23" s="26"/>
@@ -6730,7 +6730,7 @@
         <v>518</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
@@ -6768,7 +6768,7 @@
         <v>518</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
@@ -6799,16 +6799,16 @@
         <v>92</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J26" s="35" t="s">
         <v>73</v>
@@ -6821,13 +6821,13 @@
         <v>73</v>
       </c>
       <c r="N26" s="34" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="O26" s="35" t="s">
         <v>518</v>
       </c>
       <c r="P26" s="35" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="Q26" s="25"/>
       <c r="R26" s="26"/>
@@ -6853,16 +6853,16 @@
         <v>94</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="I27" s="34" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="J27" s="35" t="s">
         <v>73</v>
@@ -6875,13 +6875,13 @@
         <v>73</v>
       </c>
       <c r="N27" s="34" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="O27" s="35" t="s">
         <v>518</v>
       </c>
       <c r="P27" s="35" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="Q27" s="25"/>
       <c r="R27" s="26"/>
@@ -6907,16 +6907,16 @@
         <v>96</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J28" s="35" t="s">
         <v>73</v>
@@ -6929,13 +6929,13 @@
         <v>73</v>
       </c>
       <c r="N28" s="34" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="O28" s="35" t="s">
         <v>518</v>
       </c>
       <c r="P28" s="35" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="Q28" s="25"/>
       <c r="R28" s="26"/>
@@ -6968,7 +6968,7 @@
         <v>518</v>
       </c>
       <c r="K29" s="25" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="L29" s="25"/>
       <c r="M29" s="25"/>
@@ -7006,7 +7006,7 @@
         <v>518</v>
       </c>
       <c r="K30" s="25" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="L30" s="25"/>
       <c r="M30" s="25"/>
@@ -7041,10 +7041,10 @@
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
       <c r="J31" s="25" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="K31" s="25" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
@@ -7082,7 +7082,7 @@
         <v>518</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
@@ -7117,10 +7117,10 @@
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
       <c r="J33" s="25" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="K33" s="25" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
@@ -7155,10 +7155,10 @@
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
       <c r="J34" s="25" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="K34" s="25" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="L34" s="25"/>
       <c r="M34" s="25"/>
@@ -7196,7 +7196,7 @@
         <v>518</v>
       </c>
       <c r="K35" s="25" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
@@ -7234,7 +7234,7 @@
         <v>518</v>
       </c>
       <c r="K36" s="25" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="L36" s="25"/>
       <c r="M36" s="25"/>
@@ -13249,16 +13249,16 @@
         <v>464</v>
       </c>
       <c r="F213" s="33" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G213" s="33" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H213" s="34" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I213" s="34" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="J213" s="25" t="s">
         <v>73</v>

--- a/GATEWAY/A1#111ELIOSSUITEXX/eliossuite/0012023/3/report-checklist.xlsx
+++ b/GATEWAY/A1#111ELIOSSUITEXX/eliossuite/0012023/3/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\FSE2\TEST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fse_git\it-fse-accreditamento\GATEWAY\A1#111ELIOSSUITEXX\eliossuite\0012023\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C822377-E600-4682-902A-118CD7B35B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7D2FE4-F99B-4514-885E-3ECE79BB55B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="576">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2901,6 +2901,33 @@
   <si>
     <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.1e943af217^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
+  <si>
+    <t>2023-07-04T17:16:51:00Z</t>
+  </si>
+  <si>
+    <t>8f8e796d00250a1d</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>2023-07-04T17:24:05:00Z</t>
+  </si>
+  <si>
+    <t>1c3e4c1fb46d7a33</t>
+  </si>
+  <si>
+    <t>Errore JWT</t>
+  </si>
+  <si>
+    <t>Errore Timeout</t>
+  </si>
+  <si>
+    <t>Viene mostrato un messaggio di errore all'operatore invitandolo a riprovare le operazioni</t>
+  </si>
+  <si>
+    <t>Il sistema attende un numero di millisecondi configurabile (default 30000) Dopo tale tempo viene mostrato un messaggio di errore all'operatore invitandolo a riprovare</t>
+  </si>
 </sst>
 </file>
 
@@ -2909,11 +2936,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3236,138 +3270,144 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale 2" xfId="1" xr:uid="{623A807D-3875-4C37-9C2C-4B1DEE1F1503}"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -5828,7 +5868,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6294,17 +6334,37 @@
       <c r="E15" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
+      <c r="F15" s="50" t="s">
+        <v>567</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>567</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>568</v>
+      </c>
+      <c r="I15" s="51" t="s">
+        <v>569</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
+      <c r="L15" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>574</v>
+      </c>
       <c r="Q15" s="25"/>
       <c r="R15" s="26"/>
       <c r="S15" s="27"/>
@@ -6328,17 +6388,37 @@
       <c r="E16" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
+      <c r="F16" s="50" t="s">
+        <v>570</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>570</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>571</v>
+      </c>
+      <c r="I16" s="51" t="s">
+        <v>569</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
+      <c r="L16" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>574</v>
+      </c>
       <c r="Q16" s="25"/>
       <c r="R16" s="26"/>
       <c r="S16" s="27"/>
@@ -6366,13 +6446,25 @@
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
+      <c r="J17" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
+      <c r="L17" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" s="25" t="s">
+        <v>575</v>
+      </c>
       <c r="Q17" s="25"/>
       <c r="R17" s="26" t="s">
         <v>73</v>

--- a/GATEWAY/A1#111ELIOSSUITEXX/eliossuite/0012023/3/report-checklist.xlsx
+++ b/GATEWAY/A1#111ELIOSSUITEXX/eliossuite/0012023/3/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fse_git\it-fse-accreditamento\GATEWAY\A1#111ELIOSSUITEXX\eliossuite\0012023\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7D2FE4-F99B-4514-885E-3ECE79BB55B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6E0A3D-05FC-4368-9011-90B0E8214C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="687">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2928,6 +2928,477 @@
   <si>
     <t>Il sistema attende un numero di millisecondi configurabile (default 30000) Dopo tale tempo viene mostrato un messaggio di errore all'operatore invitandolo a riprovare</t>
   </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT13_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-07-05T10:06:05:00Z</t>
+  </si>
+  <si>
+    <t>138889c3c182bd62</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.d380d520ad^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>CONTROLLO DATI IMPEGNATIVA</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT14_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-07-05T10:16:08:00Z</t>
+  </si>
+  <si>
+    <t>f5aeef2dcc198113</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.c3c7118c1f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>CONTROLLO DATI ACCETTAZIONE</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT15_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-07-05T10:28:52:00Z</t>
+  </si>
+  <si>
+    <t>cb6c11afffbb4a1b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.affa2ae713^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>CONTROLLO DATI REFERTO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT16_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non vengono gestite le sezioni opzionali
+</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT17_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-07-05T10:41:27:00Z</t>
+  </si>
+  <si>
+    <t>1683e3d5243c1c38</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.ff06e4484b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT18_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Non vengono gestite le sezioni opzionali</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT19_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Non vegono gestite le sezioni opzionali</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT20_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT21_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT22_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT23_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-07-05T11:07:08:00Z</t>
+  </si>
+  <si>
+    <t>9f0746b530ac781e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.238792032b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>2023-07-04T15:55:52:00Z</t>
+  </si>
+  <si>
+    <t>820f59536abf211a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.55c3f0b06d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Precondizioni:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Descrizione di Business del caso di test: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
+    </r>
+  </si>
+  <si>
+    <t>2023-07-05T09:43:23:00Z</t>
+  </si>
+  <si>
+    <t>c3b143ca5d2def78</t>
+  </si>
+  <si>
+    <t>Viene mostrato un messaggio di errore all'operatore invitandolo a riprovare</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Precondizioni:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Descrizione di Business del caso di test: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
+    </r>
+  </si>
+  <si>
+    <t>2023-07-05T09:48:23:00Z</t>
+  </si>
+  <si>
+    <t>63479f442596822e</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_RSA_TIMEOUT</t>
+  </si>
+  <si>
+    <t>2023-07-05T09:50:51:00Z</t>
+  </si>
+  <si>
+    <t>Il sistema attende un numero di millisecondi configurabile (default 30000) Dopo tale tempo viene mostrato un messaggio di errore all'operatore</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>2023-07-04T16:23:57:00Z</t>
+  </si>
+  <si>
+    <t>0382c62350971b72</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.a57a9a347e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT5_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-07-04T16:39:05:00Z</t>
+  </si>
+  <si>
+    <t>edf8873b71d676d0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.aea1f56074^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT6_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-07-05T09:39:06:00Z</t>
+  </si>
+  <si>
+    <t>729a2b41f3416931</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.de62b01962^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>CONTROLLO DATI PAZIENTE</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT7_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-07-04T16:54:17:00Z</t>
+  </si>
+  <si>
+    <t>62785cd829a818d6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.92307bf471^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT8_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-07-04T16:52:36:00Z</t>
+  </si>
+  <si>
+    <t>90b9147625b7603e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.9542d6449d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT9_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-07-04T16:56:07:00Z</t>
+  </si>
+  <si>
+    <t>9f3e4f402015d790</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.58e4b5fbfd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT10_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-07-04T16:58:48:00Z</t>
+  </si>
+  <si>
+    <t>3195085b02eb3cc7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.3764cfb079^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Errore terminologico</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT11_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non viene gestita la tipologia di accesso a livello di CDA
+</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT12_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-07-05T10:02:05:00Z</t>
+  </si>
+  <si>
+    <t>8f0790d7021c465b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.848b1e8ead^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
 </sst>
 </file>
 
@@ -2936,7 +3407,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3011,6 +3482,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3274,7 +3753,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3400,9 +3879,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5865,10 +6361,10 @@
   <dimension ref="A1:T830"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="O10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomRight" activeCell="G239" sqref="G239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5878,7 +6374,9 @@
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="63.85546875" customWidth="1"/>
     <col min="5" max="5" width="104.85546875" customWidth="1"/>
-    <col min="6" max="8" width="33.140625" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" customWidth="1"/>
     <col min="9" max="9" width="141.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
     <col min="11" max="15" width="36.42578125" customWidth="1"/>
@@ -6334,16 +6832,16 @@
       <c r="E15" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="33" t="s">
         <v>567</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="33" t="s">
         <v>567</v>
       </c>
-      <c r="H15" s="51" t="s">
+      <c r="H15" s="34" t="s">
         <v>568</v>
       </c>
-      <c r="I15" s="51" t="s">
+      <c r="I15" s="34" t="s">
         <v>569</v>
       </c>
       <c r="J15" s="25" t="s">
@@ -6388,16 +6886,16 @@
       <c r="E16" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="33" t="s">
         <v>570</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="33" t="s">
         <v>570</v>
       </c>
-      <c r="H16" s="51" t="s">
+      <c r="H16" s="34" t="s">
         <v>571</v>
       </c>
-      <c r="I16" s="51" t="s">
+      <c r="I16" s="34" t="s">
         <v>569</v>
       </c>
       <c r="J16" s="25" t="s">
@@ -13324,7 +13822,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="14.25" customHeight="1">
+    <row r="213" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A213" s="20">
         <v>370</v>
       </c>
@@ -13368,464 +13866,1271 @@
         <v>51</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F214" s="12"/>
-      <c r="G214" s="12"/>
-      <c r="H214" s="12"/>
-      <c r="I214" s="12"/>
-      <c r="J214" s="13"/>
-      <c r="K214" s="13"/>
-      <c r="L214" s="13"/>
-      <c r="M214" s="13"/>
-      <c r="N214" s="13"/>
-      <c r="O214" s="13"/>
-      <c r="P214" s="13"/>
-      <c r="Q214" s="13"/>
-      <c r="R214" s="14"/>
-      <c r="S214" s="2"/>
-      <c r="T214" s="15"/>
-    </row>
-    <row r="215" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F215" s="12"/>
-      <c r="G215" s="12"/>
-      <c r="H215" s="12"/>
-      <c r="I215" s="12"/>
-      <c r="J215" s="13"/>
-      <c r="K215" s="13"/>
-      <c r="L215" s="13"/>
-      <c r="M215" s="13"/>
-      <c r="N215" s="13"/>
-      <c r="O215" s="13"/>
-      <c r="P215" s="13"/>
-      <c r="Q215" s="13"/>
-      <c r="R215" s="14"/>
-      <c r="S215" s="2"/>
-      <c r="T215" s="15"/>
-    </row>
-    <row r="216" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F216" s="12"/>
-      <c r="G216" s="12"/>
-      <c r="H216" s="12"/>
-      <c r="I216" s="12"/>
-      <c r="J216" s="13"/>
-      <c r="K216" s="13"/>
-      <c r="L216" s="13"/>
-      <c r="M216" s="13"/>
-      <c r="N216" s="13"/>
-      <c r="O216" s="13"/>
-      <c r="P216" s="13"/>
-      <c r="Q216" s="13"/>
-      <c r="R216" s="14"/>
-      <c r="S216" s="2"/>
-      <c r="T216" s="15"/>
-    </row>
-    <row r="217" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F217" s="12"/>
-      <c r="G217" s="12"/>
-      <c r="H217" s="12"/>
-      <c r="I217" s="12"/>
-      <c r="J217" s="13"/>
-      <c r="K217" s="13"/>
-      <c r="L217" s="13"/>
-      <c r="M217" s="13"/>
-      <c r="N217" s="13"/>
-      <c r="O217" s="13"/>
-      <c r="P217" s="13"/>
-      <c r="Q217" s="13"/>
-      <c r="R217" s="14"/>
-      <c r="S217" s="2"/>
-      <c r="T217" s="15"/>
-    </row>
-    <row r="218" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F218" s="12"/>
-      <c r="G218" s="12"/>
-      <c r="H218" s="12"/>
-      <c r="I218" s="12"/>
-      <c r="J218" s="13"/>
-      <c r="K218" s="13"/>
-      <c r="L218" s="13"/>
-      <c r="M218" s="13"/>
-      <c r="N218" s="13"/>
-      <c r="O218" s="13"/>
-      <c r="P218" s="13"/>
-      <c r="Q218" s="13"/>
-      <c r="R218" s="14"/>
-      <c r="S218" s="2"/>
-      <c r="T218" s="15"/>
-    </row>
-    <row r="219" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F219" s="12"/>
-      <c r="G219" s="12"/>
-      <c r="H219" s="12"/>
-      <c r="I219" s="12"/>
-      <c r="J219" s="13"/>
-      <c r="K219" s="13"/>
-      <c r="L219" s="13"/>
-      <c r="M219" s="13"/>
-      <c r="N219" s="13"/>
-      <c r="O219" s="13"/>
-      <c r="P219" s="13"/>
-      <c r="Q219" s="13"/>
-      <c r="R219" s="14"/>
-      <c r="S219" s="2"/>
-      <c r="T219" s="15"/>
-    </row>
-    <row r="220" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F220" s="12"/>
-      <c r="G220" s="12"/>
-      <c r="H220" s="12"/>
-      <c r="I220" s="12"/>
-      <c r="J220" s="13"/>
-      <c r="K220" s="13"/>
-      <c r="L220" s="13"/>
-      <c r="M220" s="13"/>
-      <c r="N220" s="13"/>
-      <c r="O220" s="13"/>
-      <c r="P220" s="13"/>
-      <c r="Q220" s="13"/>
-      <c r="R220" s="14"/>
-      <c r="S220" s="2"/>
-      <c r="T220" s="15"/>
-    </row>
-    <row r="221" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F221" s="12"/>
-      <c r="G221" s="12"/>
-      <c r="H221" s="12"/>
-      <c r="I221" s="12"/>
-      <c r="J221" s="13"/>
-      <c r="K221" s="13"/>
-      <c r="L221" s="13"/>
-      <c r="M221" s="13"/>
-      <c r="N221" s="13"/>
-      <c r="O221" s="13"/>
-      <c r="P221" s="13"/>
-      <c r="Q221" s="13"/>
-      <c r="R221" s="14"/>
-      <c r="S221" s="2"/>
-      <c r="T221" s="15"/>
-    </row>
-    <row r="222" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F222" s="12"/>
-      <c r="G222" s="12"/>
-      <c r="H222" s="12"/>
-      <c r="I222" s="12"/>
-      <c r="J222" s="13"/>
-      <c r="K222" s="13"/>
-      <c r="L222" s="13"/>
-      <c r="M222" s="13"/>
-      <c r="N222" s="13"/>
-      <c r="O222" s="13"/>
-      <c r="P222" s="13"/>
-      <c r="Q222" s="13"/>
-      <c r="R222" s="14"/>
-      <c r="S222" s="2"/>
-      <c r="T222" s="15"/>
-    </row>
-    <row r="223" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F223" s="12"/>
-      <c r="G223" s="12"/>
-      <c r="H223" s="12"/>
-      <c r="I223" s="12"/>
-      <c r="J223" s="13"/>
-      <c r="K223" s="13"/>
-      <c r="L223" s="13"/>
-      <c r="M223" s="13"/>
-      <c r="N223" s="13"/>
-      <c r="O223" s="13"/>
-      <c r="P223" s="13"/>
-      <c r="Q223" s="13"/>
-      <c r="R223" s="14"/>
-      <c r="S223" s="2"/>
-      <c r="T223" s="15"/>
-    </row>
-    <row r="224" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F224" s="12"/>
-      <c r="G224" s="12"/>
-      <c r="H224" s="12"/>
-      <c r="I224" s="12"/>
-      <c r="J224" s="13"/>
-      <c r="K224" s="13"/>
-      <c r="L224" s="13"/>
-      <c r="M224" s="13"/>
-      <c r="N224" s="13"/>
-      <c r="O224" s="13"/>
-      <c r="P224" s="13"/>
-      <c r="Q224" s="13"/>
-      <c r="R224" s="14"/>
-      <c r="S224" s="2"/>
-      <c r="T224" s="15"/>
-    </row>
-    <row r="225" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F225" s="12"/>
-      <c r="G225" s="12"/>
-      <c r="H225" s="12"/>
-      <c r="I225" s="12"/>
-      <c r="J225" s="13"/>
-      <c r="K225" s="13"/>
-      <c r="L225" s="13"/>
-      <c r="M225" s="13"/>
-      <c r="N225" s="13"/>
-      <c r="O225" s="13"/>
-      <c r="P225" s="13"/>
-      <c r="Q225" s="13"/>
-      <c r="R225" s="14"/>
-      <c r="S225" s="2"/>
-      <c r="T225" s="15"/>
-    </row>
-    <row r="226" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F226" s="12"/>
-      <c r="G226" s="12"/>
-      <c r="H226" s="12"/>
-      <c r="I226" s="12"/>
-      <c r="J226" s="13"/>
-      <c r="K226" s="13"/>
-      <c r="L226" s="13"/>
-      <c r="M226" s="13"/>
-      <c r="N226" s="13"/>
-      <c r="O226" s="13"/>
-      <c r="P226" s="13"/>
-      <c r="Q226" s="13"/>
-      <c r="R226" s="14"/>
-      <c r="S226" s="2"/>
-      <c r="T226" s="15"/>
-    </row>
-    <row r="227" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F227" s="12"/>
-      <c r="G227" s="12"/>
-      <c r="H227" s="12"/>
-      <c r="I227" s="12"/>
-      <c r="J227" s="13"/>
-      <c r="K227" s="13"/>
-      <c r="L227" s="13"/>
-      <c r="M227" s="13"/>
-      <c r="N227" s="13"/>
-      <c r="O227" s="13"/>
-      <c r="P227" s="13"/>
-      <c r="Q227" s="13"/>
-      <c r="R227" s="14"/>
-      <c r="S227" s="2"/>
-      <c r="T227" s="15"/>
-    </row>
-    <row r="228" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F228" s="12"/>
-      <c r="G228" s="12"/>
-      <c r="H228" s="12"/>
-      <c r="I228" s="12"/>
-      <c r="J228" s="13"/>
-      <c r="K228" s="13"/>
-      <c r="L228" s="13"/>
-      <c r="M228" s="13"/>
-      <c r="N228" s="13"/>
-      <c r="O228" s="13"/>
-      <c r="P228" s="13"/>
-      <c r="Q228" s="13"/>
-      <c r="R228" s="14"/>
-      <c r="S228" s="2"/>
-      <c r="T228" s="15"/>
-    </row>
-    <row r="229" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F229" s="12"/>
-      <c r="G229" s="12"/>
-      <c r="H229" s="12"/>
-      <c r="I229" s="12"/>
-      <c r="J229" s="13"/>
-      <c r="K229" s="13"/>
-      <c r="L229" s="13"/>
-      <c r="M229" s="13"/>
-      <c r="N229" s="13"/>
-      <c r="O229" s="13"/>
-      <c r="P229" s="13"/>
-      <c r="Q229" s="13"/>
-      <c r="R229" s="14"/>
-      <c r="S229" s="2"/>
-      <c r="T229" s="15"/>
-    </row>
-    <row r="230" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F230" s="12"/>
-      <c r="G230" s="12"/>
-      <c r="H230" s="12"/>
-      <c r="I230" s="12"/>
-      <c r="J230" s="13"/>
-      <c r="K230" s="13"/>
-      <c r="L230" s="13"/>
-      <c r="M230" s="13"/>
-      <c r="N230" s="13"/>
-      <c r="O230" s="13"/>
-      <c r="P230" s="13"/>
-      <c r="Q230" s="13"/>
-      <c r="R230" s="14"/>
-      <c r="S230" s="2"/>
-      <c r="T230" s="15"/>
-    </row>
-    <row r="231" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F231" s="12"/>
-      <c r="G231" s="12"/>
-      <c r="H231" s="12"/>
-      <c r="I231" s="12"/>
-      <c r="J231" s="13"/>
-      <c r="K231" s="13"/>
-      <c r="L231" s="13"/>
-      <c r="M231" s="13"/>
-      <c r="N231" s="13"/>
-      <c r="O231" s="13"/>
-      <c r="P231" s="13"/>
-      <c r="Q231" s="13"/>
-      <c r="R231" s="14"/>
-      <c r="S231" s="2"/>
-      <c r="T231" s="15"/>
-    </row>
-    <row r="232" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F232" s="12"/>
-      <c r="G232" s="12"/>
-      <c r="H232" s="12"/>
-      <c r="I232" s="12"/>
-      <c r="J232" s="13"/>
-      <c r="K232" s="13"/>
-      <c r="L232" s="13"/>
-      <c r="M232" s="13"/>
-      <c r="N232" s="13"/>
-      <c r="O232" s="13"/>
-      <c r="P232" s="13"/>
-      <c r="Q232" s="13"/>
-      <c r="R232" s="14"/>
-      <c r="S232" s="2"/>
-      <c r="T232" s="15"/>
-    </row>
-    <row r="233" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F233" s="12"/>
-      <c r="G233" s="12"/>
-      <c r="H233" s="12"/>
-      <c r="I233" s="12"/>
-      <c r="J233" s="13"/>
-      <c r="K233" s="13"/>
-      <c r="L233" s="13"/>
-      <c r="M233" s="13"/>
-      <c r="N233" s="13"/>
-      <c r="O233" s="13"/>
-      <c r="P233" s="13"/>
-      <c r="Q233" s="13"/>
-      <c r="R233" s="14"/>
-      <c r="S233" s="2"/>
-      <c r="T233" s="15"/>
-    </row>
-    <row r="234" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F234" s="12"/>
-      <c r="G234" s="12"/>
-      <c r="H234" s="12"/>
-      <c r="I234" s="12"/>
-      <c r="J234" s="13"/>
-      <c r="K234" s="13"/>
-      <c r="L234" s="13"/>
-      <c r="M234" s="13"/>
-      <c r="N234" s="13"/>
-      <c r="O234" s="13"/>
-      <c r="P234" s="13"/>
-      <c r="Q234" s="13"/>
-      <c r="R234" s="14"/>
-      <c r="S234" s="2"/>
-      <c r="T234" s="15"/>
-    </row>
-    <row r="235" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F235" s="12"/>
-      <c r="G235" s="12"/>
-      <c r="H235" s="12"/>
-      <c r="I235" s="12"/>
-      <c r="J235" s="13"/>
-      <c r="K235" s="13"/>
-      <c r="L235" s="13"/>
-      <c r="M235" s="13"/>
-      <c r="N235" s="13"/>
-      <c r="O235" s="13"/>
-      <c r="P235" s="13"/>
-      <c r="Q235" s="13"/>
-      <c r="R235" s="14"/>
-      <c r="S235" s="2"/>
-      <c r="T235" s="15"/>
-    </row>
-    <row r="236" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F236" s="12"/>
-      <c r="G236" s="12"/>
-      <c r="H236" s="12"/>
-      <c r="I236" s="12"/>
-      <c r="J236" s="13"/>
-      <c r="K236" s="13"/>
-      <c r="L236" s="13"/>
-      <c r="M236" s="13"/>
-      <c r="N236" s="13"/>
-      <c r="O236" s="13"/>
-      <c r="P236" s="13"/>
-      <c r="Q236" s="13"/>
-      <c r="R236" s="14"/>
-      <c r="S236" s="2"/>
-      <c r="T236" s="15"/>
-    </row>
-    <row r="237" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F237" s="12"/>
-      <c r="G237" s="12"/>
-      <c r="H237" s="12"/>
-      <c r="I237" s="12"/>
-      <c r="J237" s="13"/>
-      <c r="K237" s="13"/>
-      <c r="L237" s="13"/>
-      <c r="M237" s="13"/>
-      <c r="N237" s="13"/>
-      <c r="O237" s="13"/>
-      <c r="P237" s="13"/>
-      <c r="Q237" s="13"/>
-      <c r="R237" s="14"/>
-      <c r="S237" s="2"/>
-      <c r="T237" s="15"/>
-    </row>
-    <row r="238" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F238" s="12"/>
-      <c r="G238" s="12"/>
-      <c r="H238" s="12"/>
-      <c r="I238" s="12"/>
-      <c r="J238" s="13"/>
-      <c r="K238" s="13"/>
-      <c r="L238" s="13"/>
-      <c r="M238" s="13"/>
-      <c r="N238" s="13"/>
-      <c r="O238" s="13"/>
-      <c r="P238" s="13"/>
-      <c r="Q238" s="13"/>
-      <c r="R238" s="14"/>
-      <c r="S238" s="2"/>
-      <c r="T238" s="15"/>
-    </row>
-    <row r="239" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F239" s="12"/>
-      <c r="G239" s="12"/>
-      <c r="H239" s="12"/>
-      <c r="I239" s="12"/>
-      <c r="J239" s="13"/>
-      <c r="K239" s="13"/>
-      <c r="L239" s="13"/>
-      <c r="M239" s="13"/>
-      <c r="N239" s="13"/>
-      <c r="O239" s="13"/>
-      <c r="P239" s="13"/>
-      <c r="Q239" s="13"/>
-      <c r="R239" s="14"/>
-      <c r="S239" s="2"/>
-      <c r="T239" s="15"/>
-    </row>
-    <row r="240" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F240" s="12"/>
-      <c r="G240" s="12"/>
-      <c r="H240" s="12"/>
-      <c r="I240" s="12"/>
-      <c r="J240" s="13"/>
-      <c r="K240" s="13"/>
-      <c r="L240" s="13"/>
-      <c r="M240" s="13"/>
-      <c r="N240" s="13"/>
-      <c r="O240" s="13"/>
-      <c r="P240" s="13"/>
-      <c r="Q240" s="13"/>
-      <c r="R240" s="14"/>
-      <c r="S240" s="2"/>
-      <c r="T240" s="15"/>
+    <row r="214" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A214" s="50">
+        <v>32</v>
+      </c>
+      <c r="B214" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C214" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D214" s="51" t="s">
+        <v>624</v>
+      </c>
+      <c r="E214" s="52" t="s">
+        <v>625</v>
+      </c>
+      <c r="F214" s="33" t="s">
+        <v>626</v>
+      </c>
+      <c r="G214" s="33" t="s">
+        <v>626</v>
+      </c>
+      <c r="H214" s="34" t="s">
+        <v>627</v>
+      </c>
+      <c r="I214" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="J214" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K214" s="35"/>
+      <c r="L214" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M214" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N214" s="35" t="s">
+        <v>572</v>
+      </c>
+      <c r="O214" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="P214" s="35" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q214" s="35"/>
+      <c r="R214" s="53"/>
+      <c r="S214" s="54"/>
+      <c r="T214" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A215" s="50">
+        <v>40</v>
+      </c>
+      <c r="B215" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C215" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D215" s="51" t="s">
+        <v>629</v>
+      </c>
+      <c r="E215" s="52" t="s">
+        <v>630</v>
+      </c>
+      <c r="F215" s="33" t="s">
+        <v>631</v>
+      </c>
+      <c r="G215" s="33" t="s">
+        <v>631</v>
+      </c>
+      <c r="H215" s="34" t="s">
+        <v>632</v>
+      </c>
+      <c r="I215" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="J215" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K215" s="35"/>
+      <c r="L215" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M215" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N215" s="35" t="s">
+        <v>572</v>
+      </c>
+      <c r="O215" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="P215" s="35" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q215" s="35"/>
+      <c r="R215" s="53"/>
+      <c r="S215" s="54"/>
+      <c r="T215" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A216" s="50">
+        <v>48</v>
+      </c>
+      <c r="B216" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C216" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D216" s="51" t="s">
+        <v>633</v>
+      </c>
+      <c r="E216" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="F216" s="33" t="s">
+        <v>634</v>
+      </c>
+      <c r="G216" s="33" t="s">
+        <v>634</v>
+      </c>
+      <c r="H216" s="37"/>
+      <c r="I216" s="37"/>
+      <c r="J216" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K216" s="35"/>
+      <c r="L216" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M216" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N216" s="35" t="s">
+        <v>573</v>
+      </c>
+      <c r="O216" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="P216" s="35" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q216" s="35"/>
+      <c r="R216" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S216" s="54"/>
+      <c r="T216" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A217" s="50">
+        <v>147</v>
+      </c>
+      <c r="B217" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C217" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D217" s="51" t="s">
+        <v>636</v>
+      </c>
+      <c r="E217" s="52" t="s">
+        <v>637</v>
+      </c>
+      <c r="F217" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="G217" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="H217" s="34" t="s">
+        <v>639</v>
+      </c>
+      <c r="I217" s="34" t="s">
+        <v>640</v>
+      </c>
+      <c r="J217" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K217" s="35"/>
+      <c r="L217" s="35"/>
+      <c r="M217" s="35"/>
+      <c r="N217" s="35"/>
+      <c r="O217" s="35"/>
+      <c r="P217" s="35"/>
+      <c r="Q217" s="35"/>
+      <c r="R217" s="53"/>
+      <c r="S217" s="54"/>
+      <c r="T217" s="55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A218" s="50">
+        <v>148</v>
+      </c>
+      <c r="B218" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C218" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D218" s="51" t="s">
+        <v>641</v>
+      </c>
+      <c r="E218" s="52" t="s">
+        <v>642</v>
+      </c>
+      <c r="F218" s="56"/>
+      <c r="G218" s="37"/>
+      <c r="H218" s="37"/>
+      <c r="I218" s="37"/>
+      <c r="J218" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="K218" s="36" t="s">
+        <v>536</v>
+      </c>
+      <c r="L218" s="35"/>
+      <c r="M218" s="35"/>
+      <c r="N218" s="35"/>
+      <c r="O218" s="35"/>
+      <c r="P218" s="35"/>
+      <c r="Q218" s="35"/>
+      <c r="R218" s="53"/>
+      <c r="S218" s="54"/>
+      <c r="T218" s="55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A219" s="50">
+        <v>149</v>
+      </c>
+      <c r="B219" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C219" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D219" s="51" t="s">
+        <v>643</v>
+      </c>
+      <c r="E219" s="52" t="s">
+        <v>644</v>
+      </c>
+      <c r="F219" s="56"/>
+      <c r="G219" s="37"/>
+      <c r="H219" s="37"/>
+      <c r="I219" s="37"/>
+      <c r="J219" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="K219" s="36" t="s">
+        <v>536</v>
+      </c>
+      <c r="L219" s="35"/>
+      <c r="M219" s="35"/>
+      <c r="N219" s="35"/>
+      <c r="O219" s="35"/>
+      <c r="P219" s="35"/>
+      <c r="Q219" s="35"/>
+      <c r="R219" s="53"/>
+      <c r="S219" s="54"/>
+      <c r="T219" s="55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A220" s="50">
+        <v>150</v>
+      </c>
+      <c r="B220" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C220" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D220" s="51" t="s">
+        <v>645</v>
+      </c>
+      <c r="E220" s="52" t="s">
+        <v>646</v>
+      </c>
+      <c r="F220" s="56"/>
+      <c r="G220" s="37"/>
+      <c r="H220" s="37"/>
+      <c r="I220" s="37"/>
+      <c r="J220" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="K220" s="36" t="s">
+        <v>536</v>
+      </c>
+      <c r="L220" s="35"/>
+      <c r="M220" s="35"/>
+      <c r="N220" s="35"/>
+      <c r="O220" s="35"/>
+      <c r="P220" s="35"/>
+      <c r="Q220" s="35"/>
+      <c r="R220" s="53"/>
+      <c r="S220" s="54"/>
+      <c r="T220" s="55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A221" s="50">
+        <v>151</v>
+      </c>
+      <c r="B221" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C221" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D221" s="51" t="s">
+        <v>647</v>
+      </c>
+      <c r="E221" s="52" t="s">
+        <v>648</v>
+      </c>
+      <c r="F221" s="33" t="s">
+        <v>649</v>
+      </c>
+      <c r="G221" s="33" t="s">
+        <v>649</v>
+      </c>
+      <c r="H221" s="34" t="s">
+        <v>650</v>
+      </c>
+      <c r="I221" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="J221" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K221" s="35"/>
+      <c r="L221" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M221" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N221" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="O221" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="P221" s="35" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q221" s="35"/>
+      <c r="R221" s="53"/>
+      <c r="S221" s="54"/>
+      <c r="T221" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A222" s="50">
+        <v>152</v>
+      </c>
+      <c r="B222" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C222" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D222" s="51" t="s">
+        <v>652</v>
+      </c>
+      <c r="E222" s="52" t="s">
+        <v>653</v>
+      </c>
+      <c r="F222" s="33" t="s">
+        <v>654</v>
+      </c>
+      <c r="G222" s="33" t="s">
+        <v>654</v>
+      </c>
+      <c r="H222" s="34" t="s">
+        <v>655</v>
+      </c>
+      <c r="I222" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="J222" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K222" s="35"/>
+      <c r="L222" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M222" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N222" s="35" t="s">
+        <v>535</v>
+      </c>
+      <c r="O222" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="P222" s="35" t="s">
+        <v>657</v>
+      </c>
+      <c r="Q222" s="35"/>
+      <c r="R222" s="53"/>
+      <c r="S222" s="54"/>
+      <c r="T222" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A223" s="50">
+        <v>153</v>
+      </c>
+      <c r="B223" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C223" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D223" s="51" t="s">
+        <v>658</v>
+      </c>
+      <c r="E223" s="52" t="s">
+        <v>659</v>
+      </c>
+      <c r="F223" s="33" t="s">
+        <v>660</v>
+      </c>
+      <c r="G223" s="33" t="s">
+        <v>660</v>
+      </c>
+      <c r="H223" s="34" t="s">
+        <v>661</v>
+      </c>
+      <c r="I223" s="34" t="s">
+        <v>662</v>
+      </c>
+      <c r="J223" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K223" s="35"/>
+      <c r="L223" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M223" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N223" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="O223" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="P223" s="35" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q223" s="35"/>
+      <c r="R223" s="53"/>
+      <c r="S223" s="54"/>
+      <c r="T223" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A224" s="50">
+        <v>154</v>
+      </c>
+      <c r="B224" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C224" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D224" s="51" t="s">
+        <v>663</v>
+      </c>
+      <c r="E224" s="52" t="s">
+        <v>664</v>
+      </c>
+      <c r="F224" s="33" t="s">
+        <v>665</v>
+      </c>
+      <c r="G224" s="33" t="s">
+        <v>665</v>
+      </c>
+      <c r="H224" s="34" t="s">
+        <v>666</v>
+      </c>
+      <c r="I224" s="34" t="s">
+        <v>667</v>
+      </c>
+      <c r="J224" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K224" s="35"/>
+      <c r="L224" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M224" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N224" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="O224" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="P224" s="35" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q224" s="35"/>
+      <c r="R224" s="53"/>
+      <c r="S224" s="54"/>
+      <c r="T224" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A225" s="50">
+        <v>155</v>
+      </c>
+      <c r="B225" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C225" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D225" s="51" t="s">
+        <v>668</v>
+      </c>
+      <c r="E225" s="52" t="s">
+        <v>669</v>
+      </c>
+      <c r="F225" s="33" t="s">
+        <v>670</v>
+      </c>
+      <c r="G225" s="33" t="s">
+        <v>670</v>
+      </c>
+      <c r="H225" s="34" t="s">
+        <v>671</v>
+      </c>
+      <c r="I225" s="34" t="s">
+        <v>672</v>
+      </c>
+      <c r="J225" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K225" s="35"/>
+      <c r="L225" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M225" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N225" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="O225" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="P225" s="35" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q225" s="35"/>
+      <c r="R225" s="53"/>
+      <c r="S225" s="54"/>
+      <c r="T225" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A226" s="50">
+        <v>156</v>
+      </c>
+      <c r="B226" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C226" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D226" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="E226" s="52" t="s">
+        <v>674</v>
+      </c>
+      <c r="F226" s="33" t="s">
+        <v>675</v>
+      </c>
+      <c r="G226" s="33" t="s">
+        <v>675</v>
+      </c>
+      <c r="H226" s="34" t="s">
+        <v>676</v>
+      </c>
+      <c r="I226" s="34" t="s">
+        <v>677</v>
+      </c>
+      <c r="J226" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K226" s="35"/>
+      <c r="L226" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M226" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N226" s="35" t="s">
+        <v>678</v>
+      </c>
+      <c r="O226" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="P226" s="35" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q226" s="35"/>
+      <c r="R226" s="53"/>
+      <c r="S226" s="54"/>
+      <c r="T226" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A227" s="50">
+        <v>157</v>
+      </c>
+      <c r="B227" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C227" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D227" s="51" t="s">
+        <v>679</v>
+      </c>
+      <c r="E227" s="52" t="s">
+        <v>680</v>
+      </c>
+      <c r="F227" s="56"/>
+      <c r="G227" s="37"/>
+      <c r="H227" s="37"/>
+      <c r="I227" s="37"/>
+      <c r="J227" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="K227" s="35" t="s">
+        <v>681</v>
+      </c>
+      <c r="L227" s="35"/>
+      <c r="M227" s="35"/>
+      <c r="N227" s="35"/>
+      <c r="O227" s="35"/>
+      <c r="P227" s="35"/>
+      <c r="Q227" s="35"/>
+      <c r="R227" s="53"/>
+      <c r="S227" s="54"/>
+      <c r="T227" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A228" s="50">
+        <v>158</v>
+      </c>
+      <c r="B228" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C228" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D228" s="51" t="s">
+        <v>682</v>
+      </c>
+      <c r="E228" s="52" t="s">
+        <v>683</v>
+      </c>
+      <c r="F228" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="G228" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="H228" s="34" t="s">
+        <v>685</v>
+      </c>
+      <c r="I228" s="34" t="s">
+        <v>686</v>
+      </c>
+      <c r="J228" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K228" s="35"/>
+      <c r="L228" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M228" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N228" s="35" t="s">
+        <v>535</v>
+      </c>
+      <c r="O228" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="P228" s="35" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q228" s="35"/>
+      <c r="R228" s="53"/>
+      <c r="S228" s="54"/>
+      <c r="T228" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A229" s="50">
+        <v>159</v>
+      </c>
+      <c r="B229" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C229" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D229" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="E229" s="52" t="s">
+        <v>577</v>
+      </c>
+      <c r="F229" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="G229" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="H229" s="34" t="s">
+        <v>579</v>
+      </c>
+      <c r="I229" s="34" t="s">
+        <v>580</v>
+      </c>
+      <c r="J229" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K229" s="35"/>
+      <c r="L229" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M229" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N229" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="O229" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="P229" s="35" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q229" s="35"/>
+      <c r="R229" s="53"/>
+      <c r="S229" s="54"/>
+      <c r="T229" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A230" s="50">
+        <v>160</v>
+      </c>
+      <c r="B230" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C230" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D230" s="51" t="s">
+        <v>582</v>
+      </c>
+      <c r="E230" s="52" t="s">
+        <v>583</v>
+      </c>
+      <c r="F230" s="33" t="s">
+        <v>584</v>
+      </c>
+      <c r="G230" s="33" t="s">
+        <v>584</v>
+      </c>
+      <c r="H230" s="34" t="s">
+        <v>585</v>
+      </c>
+      <c r="I230" s="34" t="s">
+        <v>586</v>
+      </c>
+      <c r="J230" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K230" s="35"/>
+      <c r="L230" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M230" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N230" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="O230" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="P230" s="35" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q230" s="35"/>
+      <c r="R230" s="53"/>
+      <c r="S230" s="54"/>
+      <c r="T230" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A231" s="50">
+        <v>161</v>
+      </c>
+      <c r="B231" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C231" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D231" s="51" t="s">
+        <v>588</v>
+      </c>
+      <c r="E231" s="52" t="s">
+        <v>589</v>
+      </c>
+      <c r="F231" s="33" t="s">
+        <v>590</v>
+      </c>
+      <c r="G231" s="33" t="s">
+        <v>590</v>
+      </c>
+      <c r="H231" s="34" t="s">
+        <v>591</v>
+      </c>
+      <c r="I231" s="34" t="s">
+        <v>592</v>
+      </c>
+      <c r="J231" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K231" s="35"/>
+      <c r="L231" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M231" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N231" s="35" t="s">
+        <v>535</v>
+      </c>
+      <c r="O231" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="P231" s="35" t="s">
+        <v>593</v>
+      </c>
+      <c r="Q231" s="35"/>
+      <c r="R231" s="53"/>
+      <c r="S231" s="54"/>
+      <c r="T231" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A232" s="50">
+        <v>162</v>
+      </c>
+      <c r="B232" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C232" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D232" s="51" t="s">
+        <v>594</v>
+      </c>
+      <c r="E232" s="52" t="s">
+        <v>595</v>
+      </c>
+      <c r="F232" s="56"/>
+      <c r="G232" s="37"/>
+      <c r="H232" s="37"/>
+      <c r="I232" s="37"/>
+      <c r="J232" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="K232" s="35" t="s">
+        <v>596</v>
+      </c>
+      <c r="L232" s="35"/>
+      <c r="M232" s="35"/>
+      <c r="N232" s="35"/>
+      <c r="O232" s="35"/>
+      <c r="P232" s="35"/>
+      <c r="Q232" s="35"/>
+      <c r="R232" s="53"/>
+      <c r="S232" s="54"/>
+      <c r="T232" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A233" s="50">
+        <v>163</v>
+      </c>
+      <c r="B233" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C233" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D233" s="51" t="s">
+        <v>597</v>
+      </c>
+      <c r="E233" s="52" t="s">
+        <v>598</v>
+      </c>
+      <c r="F233" s="33" t="s">
+        <v>599</v>
+      </c>
+      <c r="G233" s="33" t="s">
+        <v>599</v>
+      </c>
+      <c r="H233" s="34" t="s">
+        <v>600</v>
+      </c>
+      <c r="I233" s="34" t="s">
+        <v>601</v>
+      </c>
+      <c r="J233" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K233" s="35"/>
+      <c r="L233" s="35"/>
+      <c r="M233" s="35"/>
+      <c r="N233" s="35"/>
+      <c r="O233" s="35"/>
+      <c r="P233" s="35"/>
+      <c r="Q233" s="35"/>
+      <c r="R233" s="53"/>
+      <c r="S233" s="54"/>
+      <c r="T233" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A234" s="50">
+        <v>164</v>
+      </c>
+      <c r="B234" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C234" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D234" s="51" t="s">
+        <v>602</v>
+      </c>
+      <c r="E234" s="52" t="s">
+        <v>603</v>
+      </c>
+      <c r="F234" s="56"/>
+      <c r="G234" s="37"/>
+      <c r="H234" s="37"/>
+      <c r="I234" s="37"/>
+      <c r="J234" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="K234" s="35" t="s">
+        <v>604</v>
+      </c>
+      <c r="L234" s="35"/>
+      <c r="M234" s="35"/>
+      <c r="N234" s="35"/>
+      <c r="O234" s="35"/>
+      <c r="P234" s="35"/>
+      <c r="Q234" s="35"/>
+      <c r="R234" s="53"/>
+      <c r="S234" s="54"/>
+      <c r="T234" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A235" s="50">
+        <v>165</v>
+      </c>
+      <c r="B235" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C235" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D235" s="51" t="s">
+        <v>605</v>
+      </c>
+      <c r="E235" s="52" t="s">
+        <v>606</v>
+      </c>
+      <c r="F235" s="56"/>
+      <c r="G235" s="37"/>
+      <c r="H235" s="37"/>
+      <c r="I235" s="37"/>
+      <c r="J235" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="K235" s="35" t="s">
+        <v>607</v>
+      </c>
+      <c r="L235" s="35"/>
+      <c r="M235" s="35"/>
+      <c r="N235" s="35"/>
+      <c r="O235" s="35"/>
+      <c r="P235" s="35"/>
+      <c r="Q235" s="35"/>
+      <c r="R235" s="53"/>
+      <c r="S235" s="54"/>
+      <c r="T235" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A236" s="50">
+        <v>166</v>
+      </c>
+      <c r="B236" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C236" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D236" s="51" t="s">
+        <v>608</v>
+      </c>
+      <c r="E236" s="52" t="s">
+        <v>609</v>
+      </c>
+      <c r="F236" s="56"/>
+      <c r="G236" s="37"/>
+      <c r="H236" s="37"/>
+      <c r="I236" s="37"/>
+      <c r="J236" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="K236" s="35" t="s">
+        <v>607</v>
+      </c>
+      <c r="L236" s="35"/>
+      <c r="M236" s="35"/>
+      <c r="N236" s="35"/>
+      <c r="O236" s="35"/>
+      <c r="P236" s="35"/>
+      <c r="Q236" s="35"/>
+      <c r="R236" s="53"/>
+      <c r="S236" s="54"/>
+      <c r="T236" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A237" s="50">
+        <v>167</v>
+      </c>
+      <c r="B237" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C237" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D237" s="51" t="s">
+        <v>610</v>
+      </c>
+      <c r="E237" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="F237" s="56"/>
+      <c r="G237" s="37"/>
+      <c r="H237" s="37"/>
+      <c r="I237" s="37"/>
+      <c r="J237" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="K237" s="35" t="s">
+        <v>604</v>
+      </c>
+      <c r="L237" s="35"/>
+      <c r="M237" s="35"/>
+      <c r="N237" s="35"/>
+      <c r="O237" s="35"/>
+      <c r="P237" s="35"/>
+      <c r="Q237" s="35"/>
+      <c r="R237" s="53"/>
+      <c r="S237" s="54"/>
+      <c r="T237" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A238" s="50">
+        <v>168</v>
+      </c>
+      <c r="B238" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C238" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D238" s="51" t="s">
+        <v>612</v>
+      </c>
+      <c r="E238" s="52" t="s">
+        <v>613</v>
+      </c>
+      <c r="F238" s="56"/>
+      <c r="G238" s="37"/>
+      <c r="H238" s="37"/>
+      <c r="I238" s="37"/>
+      <c r="J238" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="K238" s="35" t="s">
+        <v>604</v>
+      </c>
+      <c r="L238" s="35"/>
+      <c r="M238" s="35"/>
+      <c r="N238" s="35"/>
+      <c r="O238" s="35"/>
+      <c r="P238" s="35"/>
+      <c r="Q238" s="35"/>
+      <c r="R238" s="53"/>
+      <c r="S238" s="54"/>
+      <c r="T238" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A239" s="50">
+        <v>169</v>
+      </c>
+      <c r="B239" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C239" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D239" s="51" t="s">
+        <v>614</v>
+      </c>
+      <c r="E239" s="52" t="s">
+        <v>615</v>
+      </c>
+      <c r="F239" s="33" t="s">
+        <v>616</v>
+      </c>
+      <c r="G239" s="33" t="s">
+        <v>616</v>
+      </c>
+      <c r="H239" s="34" t="s">
+        <v>617</v>
+      </c>
+      <c r="I239" s="34" t="s">
+        <v>618</v>
+      </c>
+      <c r="J239" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K239" s="35"/>
+      <c r="L239" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M239" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N239" s="35" t="s">
+        <v>535</v>
+      </c>
+      <c r="O239" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="P239" s="35" t="s">
+        <v>593</v>
+      </c>
+      <c r="Q239" s="35"/>
+      <c r="R239" s="53"/>
+      <c r="S239" s="54"/>
+      <c r="T239" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A240" s="50">
+        <v>374</v>
+      </c>
+      <c r="B240" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C240" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D240" s="51" t="s">
+        <v>619</v>
+      </c>
+      <c r="E240" s="52" t="s">
+        <v>620</v>
+      </c>
+      <c r="F240" s="33" t="s">
+        <v>621</v>
+      </c>
+      <c r="G240" s="33" t="s">
+        <v>621</v>
+      </c>
+      <c r="H240" s="34" t="s">
+        <v>622</v>
+      </c>
+      <c r="I240" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="J240" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K240" s="35"/>
+      <c r="L240" s="35"/>
+      <c r="M240" s="35"/>
+      <c r="N240" s="35"/>
+      <c r="O240" s="35"/>
+      <c r="P240" s="35"/>
+      <c r="Q240" s="35"/>
+      <c r="R240" s="53"/>
+      <c r="S240" s="54"/>
+      <c r="T240" s="55" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="241" spans="6:20" ht="14.25" customHeight="1">
       <c r="F241" s="12"/>

--- a/GATEWAY/A1#111ELIOSSUITEXX/eliossuite/0012023/3/report-checklist.xlsx
+++ b/GATEWAY/A1#111ELIOSSUITEXX/eliossuite/0012023/3/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fse_git\it-fse-accreditamento\GATEWAY\A1#111ELIOSSUITEXX\eliossuite\0012023\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6E0A3D-05FC-4368-9011-90B0E8214C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EB65F0-0024-4C21-9E8A-2D809BEC6182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,6 +39,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="688">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -79,6 +80,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>3) Se il test è applicabile la colonna APPLICABILITA' deve essere compilata con SI e dovranno essere valorizzate:
     DATA ESECUZIONE, 
@@ -91,6 +93,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>o il WORKFLOWINSTANCEID puo' essere lasciato blank)</t>
     </r>
@@ -99,6 +102,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, 
     ERRORE BLOCCANTE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) ,
@@ -137,6 +141,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Obiettivo</t>
     </r>
@@ -145,6 +150,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: In questo foglio si riportano i pre requisiti/assunzioni necessari all'accreditamento del software dei </t>
     </r>
@@ -154,6 +160,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>client</t>
     </r>
@@ -162,6 +169,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> che ne hanno fatto richiesta, e utili alla compilazione della presente Checklist.</t>
     </r>
@@ -188,6 +196,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>I file CDA2 necessari all'esecuzione dei test di accreditamento devono essere costruiti secondo le specifiche nazionali HL7 - http://www.hl7italia.it/hl7italia_D7/node/2359 e coerentemente ai casi di test descritti.</t>
     </r>
@@ -196,6 +205,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -363,2741 +373,6 @@
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_RAD_KO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Precondizioni:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Descrizione di Business del caso di test: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
-    </r>
-  </si>
-  <si>
-    <t>RSA</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RAD_KO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Precondizioni:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Descrizione di Business del caso di test: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
-    </r>
-  </si>
-  <si>
-    <t>Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
-"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", "GESTIONE ERRORE".</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_RAD_TIMEOUT</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT5_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT6_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT7_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT8_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT9_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT10_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT11_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT12_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.  
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT13_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT14_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT15_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT16_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT17_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT18_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT19_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT20_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT21_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT22_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT23_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento e la corretta valorizzazione dei metadati con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento  "SIGNED_LAB1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪per comporre i metadati contenente la RequestBody utilizzare il json "LAB - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_LAB_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisiti: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da sostituire
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione del documento e la corretta valorizzazione dei metadati. L'invocazione dovrà tornare un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato per la sostituzione, è possibile:
-▪utilizzare il documento "SIGNED_LAB2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪per comporre i metadati contenente la RequestBody utilizzare il json "LAB - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc". 
-Per tutti gli utenti il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT1).</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_LAB_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT1
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT1).</t>
-  </si>
-  <si>
-    <t>ELIMINAZIONE</t>
-  </si>
-  <si>
-    <t>ELIMINAZIONE_CDA2_LAB_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT1
-Viene richiamato il servizio di Eliminazione Documento "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;" al fine di testare la cancellazione di un documento CDA2  precedentemente pubblicato. La corretta invocazione del servizio comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT1)</t>
-  </si>
-  <si>
-    <t>OSCURAMENTO</t>
-  </si>
-  <si>
-    <t>OSCURAMENTO_CDA2_LAB_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT1
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT1).</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT2_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, non deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione con esito KO (status code 400) di un documento non validato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento, è possibile:
-▪utilizzare il documento "SIGNED_LAB1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT3_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento fornendo un hash nel JWT non conforme con esito KO (status code 400), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_LAB1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; 
-Per tutti gli utenti (in grado di validare o non) è necessario generare il JWT con il campo attachment_hash="HASH_ERRATO".</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT4_KO</t>
-  </si>
-  <si>
-    <t>Prerequisiti: eseguire il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione (status code 201) fornendo un identificativoDoc già utilizzato in una precedente pubblicazione creazione, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_LAB1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  in particolare sarà necessario valorizzare il campo identificativoDoc con il prefisso SKIP_VALIDATION_  concatenato all'ID del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT1).</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT5_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare il timeout della pubblicazione con esito KO (status code 504), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_LAB1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_TIMEOUT_".</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT6_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso INI (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_LAB1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_INI_".
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT7_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_LAB1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_EDS_".
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT8_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la gestione di un messaggio da parte di EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_LAB1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_WF_EDS_".
-</t>
-  </si>
-  <si>
-    <t>ELIMINAZIONE_CDA2_LAB_CT2_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di Eliminazione Documento "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;" al fine di testare la cancellazione di un documento CDA2  NON precedentemente pubblicato. L'invocazione del servizio comporterà un esito KO (status code 404), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_LAB_CT2_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento NON creato in precedenza. La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404)
-Per  la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_LAB_CT2_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  Per tutti i fornitori non deve essere stata chiamata precedentemente la pubblicazione creazione per il documento in esame.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione (status code 404) fornendo un documento NON precedentemente pubblicato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
-▪utilizzare il documento "SIGNED_LAB2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-</t>
-  </si>
-  <si>
-    <t>OSCURAMENTO_CDA2_LAB_CT2_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  NON precedentemente pubblicato.  La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404).
-Per la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento e la corretta valorizzazione dei metadati con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento  "SIGNED_LDO1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪per comporre i metadati contenente la RequestBody utilizzare il json "LDO - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_LDO_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisiti: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da sostituire
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione del documento e la corretta valorizzazione dei metadati. L'invocazione dovrà tornare un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato per la sostituzione, è possibile:
-▪utilizzare il documento "SIGNED_LDO2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪per comporre i metadati contenente la RequestBody utilizzare il json "LDO - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc". 
-Per tutti gli utenti il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT1).</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_LDO_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT1
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT1).</t>
-  </si>
-  <si>
-    <t>ELIMINAZIONE_CDA2_LDO_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT1
-Viene richiamato il servizio di Eliminazione Documento "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;" al fine di testare la cancellazione di un documento CDA2  precedentemente pubblicato. La corretta invocazione del servizio comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT1)</t>
-  </si>
-  <si>
-    <t>OSCURAMENTO_CDA2_LDO_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT1
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT1).</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT2_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, non deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione con esito KO (status code 400) di un documento non validato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento, è possibile:
-▪utilizzare il documento "SIGNED_LDO1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT3_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento fornendo un hash nel JWT non conforme con esito KO (status code 400), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_LDO1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; 
-Per tutti gli utenti (in grado di validare o non) è necessario generare il JWT con il campo attachment_hash="HASH_ERRATO".</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT4_KO</t>
-  </si>
-  <si>
-    <t>Prerequisiti: eseguire il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione (status code 201) fornendo un identificativoDoc già utilizzato in una precedente pubblicazione creazione, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_LDO1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  in particolare sarà necessario valorizzare il campo identificativoDoc con il prefisso SKIP_VALIDATION_  concatenato all'ID del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT1).</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT5_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare il timeout della pubblicazione con esito KO (status code 504), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_LDO1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_TIMEOUT_".</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT6_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso INI (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_LDO1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_INI_".
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT7_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_LDO1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_EDS_".
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT8_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la gestione di un messaggio da parte di EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_LDO1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_WF_EDS_".
-</t>
-  </si>
-  <si>
-    <t>ELIMINAZIONE_CDA2_LDO_CT2_KO</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_LDO_CT2_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento NON creato in precedenza. La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404)
-Per  la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_LDO_CT2_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  Per tutti i fornitori non deve essere stata chiamata precedentemente la pubblicazione creazione per il documento in esame.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione (status code 404) fornendo un documento NON precedentemente pubblicato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
-▪utilizzare il documento "SIGNED_LDO2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-</t>
-  </si>
-  <si>
-    <t>OSCURAMENTO_CDA2_LDO_CT2_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  NON precedentemente pubblicato.  La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404).
-Per la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento e la corretta valorizzazione dei metadati con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento  "SIGNED_RAD1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪per comporre i metadati contenente la RequestBody utilizzare il json "RAD - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_RAD_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisiti: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da sostituire
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione del documento e la corretta valorizzazione dei metadati. L'invocazione dovrà tornare un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato per la sostituzione, è possibile:
-▪utilizzare il documento "SIGNED_RAD2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪per comporre i metadati contenente la RequestBody utilizzare il json "RAD - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc". 
-Per tutti gli utenti il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1).</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_RAD_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1).</t>
-  </si>
-  <si>
-    <t>ELIMINAZIONE_CDA2_RAD_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1
-Viene richiamato il servizio di Eliminazione Documento "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;" al fine di testare la cancellazione di un documento CDA2  precedentemente pubblicato. La corretta invocazione del servizio comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1)</t>
-  </si>
-  <si>
-    <t>OSCURAMENTO_CDA2_RAD_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1).</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT2_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, non deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione con esito KO (status code 400) di un documento non validato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento, è possibile:
-▪utilizzare il documento "SIGNED_RAD1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT3_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento fornendo un hash nel JWT non conforme con esito KO (status code 400), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_RAD1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; 
-Per tutti gli utenti (in grado di validare o non) è necessario generare il JWT con il campo attachment_hash="HASH_ERRATO".</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT4_KO</t>
-  </si>
-  <si>
-    <t>Prerequisiti: eseguire il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione (status code 201) fornendo un identificativoDoc già utilizzato in una precedente pubblicazione creazione, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_RAD1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  in particolare sarà necessario valorizzare il campo identificativoDoc con il prefisso SKIP_VALIDATION_  concatenato all'ID del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1).</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT5_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare il timeout della pubblicazione con esito KO (status code 504), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_RAD1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_TIMEOUT_".</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT6_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso INI (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_RAD1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_INI_".
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT7_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_RAD1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_EDS_".
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT8_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la gestione di un messaggio da parte di EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_RAD1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_WF_EDS_".
-</t>
-  </si>
-  <si>
-    <t>ELIMINAZIONE_CDA2_RAD_CT2_KO</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_RAD_CT2_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento NON creato in precedenza. La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404)
-Per  la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_RAD_CT2_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  Per tutti i fornitori non deve essere stata chiamata precedentemente la pubblicazione creazione per il documento in esame.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione (status code 404) fornendo un documento NON precedentemente pubblicato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
-▪utilizzare il documento "SIGNED_RAD2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-</t>
-  </si>
-  <si>
-    <t>OSCURAMENTO_CDA2_RAD_CT2_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  NON precedentemente pubblicato.  La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404).
-Per la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento e la corretta valorizzazione dei metadati con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento  "SIGNED_CERT_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪per comporre i metadati contenente la RequestBody utilizzare il json "CERT_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_CERT_VACC_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisiti: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da sostituire
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione del documento e la corretta valorizzazione dei metadati. L'invocazione dovrà tornare un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato per la sostituzione, è possibile:
-▪utilizzare il documento "SIGNED_CERT_VACC2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪per comporre i metadati contenente la RequestBody utilizzare il json "CERT_VACC - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc". 
-Per tutti gli utenti il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT1).</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_CERT_VACC_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT1
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT1).</t>
-  </si>
-  <si>
-    <t>ELIMINAZIONE_CDA2_CERT_VACC_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT1
-Viene richiamato il servizio di Eliminazione Documento "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;" al fine di testare la cancellazione di un documento CDA2  precedentemente pubblicato. La corretta invocazione del servizio comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT1)</t>
-  </si>
-  <si>
-    <t>OSCURAMENTO_CDA2_CERT_VACC_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT1
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT1).</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT2_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, non deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione con esito KO (status code 400) di un documento non validato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento, è possibile:
-▪utilizzare il documento "SIGNED_CERT_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT3_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento fornendo un hash nel JWT non conforme con esito KO (status code 400), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_CERT_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; 
-Per tutti gli utenti (in grado di validare o non) è necessario generare il JWT con il campo attachment_hash="HASH_ERRATO".</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT4_KO</t>
-  </si>
-  <si>
-    <t>Prerequisiti: eseguire il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione (status code 201) fornendo un identificativoDoc già utilizzato in una precedente pubblicazione creazione, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_CERT_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  in particolare sarà necessario valorizzare il campo identificativoDoc con il prefisso SKIP_VALIDATION_  concatenato all'ID del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT1).</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT5_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare il timeout della pubblicazione con esito KO (status code 504), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_CERT_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_TIMEOUT_".</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT6_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso INI (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_CERT_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_INI_".
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT7_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_CERT_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_EDS_".
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT8_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la gestione di un messaggio da parte di EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_CERT_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_WF_EDS_".
-</t>
-  </si>
-  <si>
-    <t>ELIMINAZIONE_CDA2_CERT_VACC_CT2_KO</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_CERT_VACC_CT2_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento NON creato in precedenza. La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404)
-Per  la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_CERT_VACC_CT2_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  Per tutti i fornitori non deve essere stata chiamata precedentemente la pubblicazione creazione per il documento in esame.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione (status code 404) fornendo un documento NON precedentemente pubblicato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
-▪utilizzare il documento "SIGNED_CERT_VACC2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-</t>
-  </si>
-  <si>
-    <t>OSCURAMENTO_CDA2_CERT_VACC_CT2_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  NON precedentemente pubblicato.  La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404).
-Per la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento e la corretta valorizzazione dei metadati con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento  "SIGNED_SING_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪per comporre i metadati contenente la RequestBody utilizzare il json "SING_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_SING_VACC_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisiti: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da sostituire
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione del documento e la corretta valorizzazione dei metadati. L'invocazione dovrà tornare un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato per la sostituzione, è possibile:
-▪utilizzare il documento "SIGNED_SING_VACC2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪per comporre i metadati contenente la RequestBody utilizzare il json "SING_VACC - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc". 
-Per tutti gli utenti il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT1).</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_SING_VACC_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT1
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT1).</t>
-  </si>
-  <si>
-    <t>ELIMINAZIONE_CDA2_SING_VACC_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT1
-Viene richiamato il servizio di Eliminazione Documento "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;" al fine di testare la cancellazione di un documento CDA2  precedentemente pubblicato. La corretta invocazione del servizio comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT1)</t>
-  </si>
-  <si>
-    <t>OSCURAMENTO_CDA2_SING_VACC_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT1
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT1).</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT2_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, non deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione con esito KO (status code 400) di un documento non validato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento, è possibile:
-▪utilizzare il documento "SIGNED_SING_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT3_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento fornendo un hash nel JWT non conforme con esito KO (status code 400), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_SING_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; 
-Per tutti gli utenti (in grado di validare o non) è necessario generare il JWT con il campo attachment_hash="HASH_ERRATO".</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT4_KO</t>
-  </si>
-  <si>
-    <t>Prerequisiti: eseguire il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione (status code 201) fornendo un identificativoDoc già utilizzato in una precedente pubblicazione creazione, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_SING_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  in particolare sarà necessario valorizzare il campo identificativoDoc con il prefisso SKIP_VALIDATION_  concatenato all'ID del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT1).</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT5_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare il timeout della pubblicazione con esito KO (status code 504), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_SING_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_TIMEOUT_".</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT6_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso INI (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_SING_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_INI_".
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT7_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_SING_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_EDS_".
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT8_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la gestione di un messaggio da parte di EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_SING_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_WF_EDS_".
-</t>
-  </si>
-  <si>
-    <t>ELIMINAZIONE_CDA2_SING_VACC_CT2_KO</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_SING_VACC_CT2_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento NON creato in precedenza. La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404)
-Per  la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_SING_VACC_CT2_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  Per tutti i fornitori non deve essere stata chiamata precedentemente la pubblicazione creazione per il documento in esame.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione (status code 404) fornendo un documento NON precedentemente pubblicato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
-▪utilizzare il documento "SIGNED_SING_VACC2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-</t>
-  </si>
-  <si>
-    <t>OSCURAMENTO_CDA2_SING_VACC_CT2_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  NON precedentemente pubblicato.  La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404).
-Per la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento e la corretta valorizzazione dei metadati con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento  "SIGNED_VPS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪per comporre i metadati contenente la RequestBody utilizzare il json "VPS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_VPS_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisiti: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da sostituire
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione del documento e la corretta valorizzazione dei metadati. L'invocazione dovrà tornare un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato per la sostituzione, è possibile:
-▪utilizzare il documento "SIGNED_VPS2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪per comporre i metadati contenente la RequestBody utilizzare il json "VPS - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc". 
-Per tutti gli utenti il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT1).</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_VPS_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT1
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT1).</t>
-  </si>
-  <si>
-    <t>ELIMINAZIONE_CDA2_VPS_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT1
-Viene richiamato il servizio di Eliminazione Documento "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;" al fine di testare la cancellazione di un documento CDA2  precedentemente pubblicato. La corretta invocazione del servizio comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT1)</t>
-  </si>
-  <si>
-    <t>OSCURAMENTO_CDA2_VPS_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT1
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT1).</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT2_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, non deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione con esito KO (status code 400) di un documento non validato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento, è possibile:
-▪utilizzare il documento "SIGNED_VPS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT3_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento fornendo un hash nel JWT non conforme con esito KO (status code 400), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_VPS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; 
-Per tutti gli utenti (in grado di validare o non) è necessario generare il JWT con il campo attachment_hash="HASH_ERRATO".</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT4_KO</t>
-  </si>
-  <si>
-    <t>Prerequisiti: eseguire il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione (status code 201) fornendo un identificativoDoc già utilizzato in una precedente pubblicazione creazione, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_VPS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  in particolare sarà necessario valorizzare il campo identificativoDoc con il prefisso SKIP_VALIDATION_  concatenato all'ID del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT1).</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT5_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare il timeout della pubblicazione con esito KO (status code 504), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_VPS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_TIMEOUT_".</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT6_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso INI (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_VPS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_INI_".
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT7_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_VPS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_EDS_".
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT8_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la gestione di un messaggio da parte di EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_VPS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_WF_EDS_".
-</t>
-  </si>
-  <si>
-    <t>ELIMINAZIONE_CDA2_VPS_CT2_KO</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_VPS_CT2_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento NON creato in precedenza. La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404)
-Per  la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_VPS_CT2_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  Per tutti i fornitori non deve essere stata chiamata precedentemente la pubblicazione creazione per il documento in esame.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione (status code 404) fornendo un documento NON precedentemente pubblicato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
-▪utilizzare il documento "SIGNED_VPS2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-</t>
-  </si>
-  <si>
-    <t>OSCURAMENTO_CDA2_VPS_CT2_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  NON precedentemente pubblicato.  La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404).
-Per la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento e la corretta valorizzazione dei metadati con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento  "SIGNED_RSA1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪per comporre i metadati contenente la RequestBody utilizzare il json "RSA - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_RSA_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisiti: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da sostituire
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione del documento e la corretta valorizzazione dei metadati. L'invocazione dovrà tornare un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato per la sostituzione, è possibile:
-▪utilizzare il documento "SIGNED_RSA2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪per comporre i metadati contenente la RequestBody utilizzare il json "RSA - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc". 
-Per tutti gli utenti il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1).</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_RSA_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1).</t>
-  </si>
-  <si>
-    <t>ELIMINAZIONE_CDA2_RSA_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1
-Viene richiamato il servizio di Eliminazione Documento "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;" al fine di testare la cancellazione di un documento CDA2  precedentemente pubblicato. La corretta invocazione del servizio comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1)</t>
-  </si>
-  <si>
-    <t>OSCURAMENTO_CDA2_RSA_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1).</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT2_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, non deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione con esito KO (status code 400) di un documento non validato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento, è possibile:
-▪utilizzare il documento "SIGNED_RSA1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT3_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento fornendo un hash nel JWT non conforme con esito KO (status code 400), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_RSA1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; 
-Per tutti gli utenti (in grado di validare o non) è necessario generare il JWT con il campo attachment_hash="HASH_ERRATO".</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT4_KO</t>
-  </si>
-  <si>
-    <t>Prerequisiti: eseguire il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione (status code 201) fornendo un identificativoDoc già utilizzato in una precedente pubblicazione creazione, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_RSA1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  in particolare sarà necessario valorizzare il campo identificativoDoc con il prefisso SKIP_VALIDATION_  concatenato all'ID del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1).</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT5_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare il timeout della pubblicazione con esito KO (status code 504), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_RSA1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_TIMEOUT_".</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT6_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso INI (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_RSA1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_INI_".
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT7_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_RSA1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_EDS_".
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT8_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la gestione di un messaggio da parte di EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_RSA1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_WF_EDS_".
-</t>
-  </si>
-  <si>
-    <t>ELIMINAZIONE_CDA2_RSA_CT2_KO</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_RSA_CT2_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento NON creato in precedenza. La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404)
-Per  la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_RSA_CT2_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  Per tutti i fornitori non deve essere stata chiamata precedentemente la pubblicazione creazione per il documento in esame.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione (status code 404) fornendo un documento NON precedentemente pubblicato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
-▪utilizzare il documento "SIGNED_RSA2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-</t>
-  </si>
-  <si>
-    <t>OSCURAMENTO_CDA2_RSA_CT2_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  NON precedentemente pubblicato.  La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404).
-Per la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento e la corretta valorizzazione dei metadati con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento  "SIGNED_PSS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪per comporre i metadati contenente la RequestBody utilizzare il json "PSS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_PSS_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisiti: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da sostituire
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione del documento e la corretta valorizzazione dei metadati. L'invocazione dovrà tornare un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato per la sostituzione, è possibile:
-▪utilizzare il documento "SIGNED_PSS2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪per comporre i metadati contenente la RequestBody utilizzare il json "PSS - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc". 
-Per tutti gli utenti il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT1).</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_PSS_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT1
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT1).</t>
-  </si>
-  <si>
-    <t>ELIMINAZIONE_CDA2_PSS_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT1
-Viene richiamato il servizio di Eliminazione Documento "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;" al fine di testare la cancellazione di un documento CDA2  precedentemente pubblicato. La corretta invocazione del servizio comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT1)</t>
-  </si>
-  <si>
-    <t>OSCURAMENTO_CDA2_PSS_CT1</t>
-  </si>
-  <si>
-    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT1
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT1).</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT2_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, non deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione con esito KO (status code 400) di un documento non validato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento, è possibile:
-▪utilizzare il documento "SIGNED_PSS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT3_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento fornendo un hash nel JWT non conforme con esito KO (status code 400), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_PSS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; 
-Per tutti gli utenti (in grado di validare o non) è necessario generare il JWT con il campo attachment_hash="HASH_ERRATO".</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT4_KO</t>
-  </si>
-  <si>
-    <t>Prerequisiti: eseguire il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione (status code 201) fornendo un identificativoDoc già utilizzato in una precedente pubblicazione creazione, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_PSS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  in particolare sarà necessario valorizzare il campo identificativoDoc con il prefisso SKIP_VALIDATION_  concatenato all'ID del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT1).</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT5_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare il timeout della pubblicazione con esito KO (status code 504), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_PSS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_TIMEOUT_".</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT6_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso INI (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_PSS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_INI_".
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT7_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_PSS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_EDS_".
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT8_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la gestione di un messaggio da parte di EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_PSS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
-Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_WF_EDS_".
-</t>
-  </si>
-  <si>
-    <t>ELIMINAZIONE_CDA2_PSS_CT2_KO</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_PSS_CT2_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento NON creato in precedenza. La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404)
-Per  la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_PSS_CT2_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  Per tutti i fornitori non deve essere stata chiamata precedentemente la pubblicazione creazione per il documento in esame.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione (status code 404) fornendo un documento NON precedentemente pubblicato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
-▪utilizzare il documento "SIGNED_PSS2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-</t>
-  </si>
-  <si>
-    <t>OSCURAMENTO_CDA2_PSS_CT2_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  NON precedentemente pubblicato.  La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404).
-Per la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT10_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_LAB1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
-"attiCliniciRegoleAccesso":[
-        "XXX"
-    ]
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT11_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_LAB1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
-  "dataInizioPrestazione": "2022:05:09-07:30+00"
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_LAB_CT3_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare. 
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
-▪utilizzare il documento "SIGNED_LAB2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
-"attiCliniciRegoleAccesso":[
-        "XXX"
-    ]</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_LAB_CT5_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
-▪utilizzare il documento "SIGNED_LAB2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
-  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT10_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_LDO1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
-"attiCliniciRegoleAccesso":[
-        "XXX"
-    ]
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT11_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_LDO1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
-  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_LDO_CT3_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare. 
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
-▪utilizzare il documento "SIGNED_LDO2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
-"attiCliniciRegoleAccesso":[
-        "XXX"
-    ]</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_LDO_CT5_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare. 
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
-▪utilizzare il documento "SIGNED_LDO2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
-  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT10_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_RAD1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
-"attiCliniciRegoleAccesso":[
-        "XXX"
-    ]
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT11_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_RAD1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
-  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_RAD_CT3_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare. 
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
-▪utilizzare il documento "SIGNED_RAD2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
-"attiCliniciRegoleAccesso":[
-        "XXX"
-    ]</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_RAD_CT5_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare. 
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
-▪utilizzare il documento "SIGNED_RAD2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
-  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT10_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_CERT_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
-"attiCliniciRegoleAccesso":[
-        "XXX"
-    ]
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT11_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_CERT_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
-  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_CERT_VACC_CT3_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare. 
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
-▪utilizzare il documento "SIGNED_CERT_VACC2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
-"attiCliniciRegoleAccesso":[
-        "XXX"
-    ]</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_CERT_VACC_CT5_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
-▪utilizzare il documento "SIGNED_CERT_VACC2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
-  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT10_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_SING_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
-"attiCliniciRegoleAccesso":[
-        "XXX"
-    ]
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT11_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_SING_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
-  "dataInizioPrestazione": "2022:05:09-07:30+00"
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_SING_VACC_CT3_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare. 
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
-▪utilizzare il documento "SIGNED_SING_VACC2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
-"attiCliniciRegoleAccesso":[
-        "XXX"
-    ]</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_SING_VACC_CT5_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
-▪utilizzare il documento "SIGNED_SING_VACC2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
-  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT10_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_VPS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
-"attiCliniciRegoleAccesso":[
-        "XXX"
-    ]
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT11_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_VPS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
-  "dataInizioPrestazione": "2022:05:09-07:30+00"
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_VPS_CT3_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare. .
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
-▪utilizzare il documento "SIGNED_VPS2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
-"attiCliniciRegoleAccesso":[
-        "XXX"
-    ]</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_VPS_CT5_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
-▪utilizzare il documento "SIGNED_VPS2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
-  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT10_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_RSA1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
-"attiCliniciRegoleAccesso":[
-        "XXX"
-    ]
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT11_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_RSA1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
-  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_RSA_CT3_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare. 
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
-▪utilizzare il documento "SIGNED_RSA2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
-"attiCliniciRegoleAccesso":[
-        "XXX"
-    ]</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_RSA_CT5_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare. 
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
-▪utilizzare il documento "SIGNED_RSA2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
-  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT10_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_PSS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
-"attiCliniciRegoleAccesso":[
-        "XXX"
-    ]
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT11_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
-▪utilizzare il documento "SIGNED_PSS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
-  "dataInizioPrestazione": "2022:05:09-07:30+00"
-</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_PSS_CT3_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare. 
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
-▪utilizzare il documento "SIGNED_PSS2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
-"attiCliniciRegoleAccesso":[
-        "XXX"
-    ]</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_PSS_CT5_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare. 
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
-▪utilizzare il documento "SIGNED_PSS2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
-  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_LAB_CT4_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per  la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
-"attiCliniciRegoleAccesso":[
-        "XXX"
-    ]</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_LAB_CT5_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per  la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti i fornitori è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
-  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_LDO_CT4_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per  la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
-"attiCliniciRegoleAccesso":[
-        "XXX"
-    ]</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_LDO_CT5_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per  la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti i fornitori è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
-  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_RAD_CT4_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per  la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
-"attiCliniciRegoleAccesso":[
-        "XXX"
-    ]</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_RAD_CT5_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per  la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti i fornitori è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
-  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_CERT_VACC_CT4_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per  la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
-"attiCliniciRegoleAccesso":[
-        "XXX"
-    ]</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_CERT_VACC_CT5_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per  la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti i fornitori è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
-  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_SING_VACC_CT4_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per  la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
-"attiCliniciRegoleAccesso":[
-        "XXX"
-    ]</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_SING_VACC_CT5_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per  la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti i fornitori è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
-  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_VPS_CT4_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per  la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
-"attiCliniciRegoleAccesso":[
-        "XXX"
-    ]</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_VPS_CT5_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per  la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti i fornitori è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
-  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_RSA_CT4_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per  la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
-"attiCliniciRegoleAccesso":[
-        "XXX"
-    ]</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_RSA_CT5_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per  la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti i fornitori è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
-  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_PSS_CT4_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per  la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
-"attiCliniciRegoleAccesso":[
-        "XXX"
-    ]</t>
-  </si>
-  <si>
-    <t>AGGIORNAMENTO_METADATI_CDA2_PSS_CT5_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per  la richiesta è necessario:
-▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
-▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
-Per tutti i fornitori è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
-  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>ID TEST CASE OK</t>
-  </si>
-  <si>
-    <t>ID TEST CASE KO</t>
-  </si>
-  <si>
-    <t>Validazione</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,368</t>
-  </si>
-  <si>
-    <t>28,36,44,52,53,54,55,56,57,58,59,60,61,62</t>
-  </si>
-  <si>
-    <t>6,7,8,9,369</t>
-  </si>
-  <si>
-    <t>29,37,45,63,64,65,66,67,68,69,70,71,72,73,74</t>
-  </si>
-  <si>
-    <t>11,12,13,14,370</t>
-  </si>
-  <si>
-    <t>31,39,47,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93</t>
-  </si>
-  <si>
-    <t>16,17,18,19,371</t>
-  </si>
-  <si>
-    <t>33,41,49,94,95,96,97,98,99,100,101,102,103,104,105,106</t>
-  </si>
-  <si>
-    <t>20,21,22,23,372</t>
-  </si>
-  <si>
-    <t>34,42,50,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121</t>
-  </si>
-  <si>
-    <t>24,25,26,27,373</t>
-  </si>
-  <si>
-    <t>35,43,51,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146</t>
-  </si>
-  <si>
-    <t>147,148,149,150,374</t>
-  </si>
-  <si>
-    <t>32,40,48,151,152,153,154,155,156,157,158,159,160,161,162,163,164,165,166,167,168,169</t>
-  </si>
-  <si>
-    <t>170,171,172,173,375</t>
-  </si>
-  <si>
-    <t>30,38,46,174,175,176,177,178,179,180,181,182,183,184,185,186,187,188,189,190</t>
-  </si>
-  <si>
-    <t>LAB - TRASF</t>
-  </si>
-  <si>
-    <t>191,376 più ove possibile fare riferimento agli "ID TEST CASE OK" del Tipo "LAB"</t>
-  </si>
-  <si>
-    <t>Fare riferimento agli "ID TEST CASE KO" del Tipo "LAB"</t>
-  </si>
-  <si>
-    <t>Pubblicazione Creazione</t>
-  </si>
-  <si>
-    <t>197,198,199,200,201,202,203,320,321</t>
-  </si>
-  <si>
-    <t>213,214,215,216,217,218,219,324,325</t>
-  </si>
-  <si>
-    <t>229,230,231,232,233,234,235,328,329</t>
-  </si>
-  <si>
-    <t>245,246,247,248,249,250,251,332,333</t>
-  </si>
-  <si>
-    <t>261,262,263,264,265,266,267,336,337</t>
-  </si>
-  <si>
-    <t>277,278,279,280,281,282,283,340,341</t>
-  </si>
-  <si>
-    <t>293,294,295,296,297,298,299,344,345</t>
-  </si>
-  <si>
-    <t>309,310,311,312,313,314,315,348,349</t>
-  </si>
-  <si>
-    <t>Pubblicazione Sostituizione</t>
-  </si>
-  <si>
-    <t>206,322,323</t>
-  </si>
-  <si>
-    <t>222,326,327</t>
-  </si>
-  <si>
-    <t>238,330,331</t>
-  </si>
-  <si>
-    <t>254,334,335</t>
-  </si>
-  <si>
-    <t>270,338,339</t>
-  </si>
-  <si>
-    <t>286,342,343</t>
-  </si>
-  <si>
-    <t>302,346,347</t>
-  </si>
-  <si>
-    <t>318,350,351</t>
-  </si>
-  <si>
-    <t>Aggiornamento Metadati</t>
-  </si>
-  <si>
-    <t>205,352,353</t>
-  </si>
-  <si>
-    <t>221,354,355</t>
-  </si>
-  <si>
-    <t>237,356,357</t>
-  </si>
-  <si>
-    <t>253,358,359</t>
-  </si>
-  <si>
-    <t>269,360,361</t>
-  </si>
-  <si>
-    <t>285,362,363</t>
-  </si>
-  <si>
-    <t>301,364,365</t>
-  </si>
-  <si>
-    <t>317,366,367</t>
-  </si>
-  <si>
-    <t>Eliminazione</t>
-  </si>
-  <si>
-    <t>Oscuramento</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>2023-06-29T16:56:48:00Z</t>
-  </si>
-  <si>
-    <t>9e1a3d2e7f57228d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.1d10d704bc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-06-29T17:21:18:00Z</t>
-  </si>
-  <si>
-    <t>a006374681df4de5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.e53b815358^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-06-30T09:46:59:00Z</t>
-  </si>
-  <si>
-    <t>e1f99255514f436e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.612492e171^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Errore di sintassi</t>
-  </si>
-  <si>
-    <t>CONTROLLO SINTASSI DOCUMENTO</t>
-  </si>
-  <si>
-    <t>2023-06-30T10:09:31:00Z</t>
-  </si>
-  <si>
-    <t>4feae1ca886dd190</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.2aa0b2c29c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Errore semantico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non vengono gestite le sezioni opzionali.
-</t>
-  </si>
-  <si>
-    <t>2023-06-30T10:24:21:00Z</t>
-  </si>
-  <si>
-    <t>55d3d97cb5d478dd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.6870c8e117^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-06-30T10:29:30:00Z</t>
-  </si>
-  <si>
-    <t>07796017452ef57d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.89873defeb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>CONTROLLO ANAGRAFiCA PAZIENTE</t>
-  </si>
-  <si>
-    <t>2023-06-30T10:33:22:00Z</t>
-  </si>
-  <si>
-    <t>804f5b1cfe6b5c71</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.0de13279e1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-06-30T10:37:34:00Z</t>
-  </si>
-  <si>
-    <t>c4a2a3440da704e6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.12470852e2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>opzionale, non gestito da applicativo</t>
-  </si>
-  <si>
-    <t>2023-06-30T10:44:59:00Z</t>
-  </si>
-  <si>
-    <t>7902c75a1629a718</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.3fe7604a40^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-06-30T10:51:01:00Z</t>
-  </si>
-  <si>
-    <t>11bc201a2672a4ea</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.f3bf19cbba^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-06-30T10:53:50:00Z</t>
-  </si>
-  <si>
-    <t>52a6a1ed465a5016</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.ec98ce7dd5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Sezione non gestita da applicativo</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Sezione opzionale non gestita nel CDA</t>
-  </si>
-  <si>
-    <t>2023-07-04T10:39:16:00Z</t>
-  </si>
-  <si>
-    <t>87aae40f4cbb3401</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.1e943af217^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-07-04T17:16:51:00Z</t>
-  </si>
-  <si>
-    <t>8f8e796d00250a1d</t>
-  </si>
-  <si>
-    <t>UNKNOWN_WORKFLOW_ID</t>
-  </si>
-  <si>
-    <t>2023-07-04T17:24:05:00Z</t>
-  </si>
-  <si>
-    <t>1c3e4c1fb46d7a33</t>
-  </si>
-  <si>
-    <t>Errore JWT</t>
-  </si>
-  <si>
-    <t>Errore Timeout</t>
-  </si>
-  <si>
-    <t>Viene mostrato un messaggio di errore all'operatore invitandolo a riprovare le operazioni</t>
-  </si>
-  <si>
-    <t>Il sistema attende un numero di millisecondi configurabile (default 30000) Dopo tale tempo viene mostrato un messaggio di errore all'operatore invitandolo a riprovare</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT13_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>2023-07-05T10:06:05:00Z</t>
-  </si>
-  <si>
-    <t>138889c3c182bd62</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.d380d520ad^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>CONTROLLO DATI IMPEGNATIVA</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT14_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>2023-07-05T10:16:08:00Z</t>
-  </si>
-  <si>
-    <t>f5aeef2dcc198113</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.c3c7118c1f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>CONTROLLO DATI ACCETTAZIONE</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT15_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>2023-07-05T10:28:52:00Z</t>
-  </si>
-  <si>
-    <t>cb6c11afffbb4a1b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.affa2ae713^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>CONTROLLO DATI REFERTO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT16_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non vengono gestite le sezioni opzionali
-</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT17_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>2023-07-05T10:41:27:00Z</t>
-  </si>
-  <si>
-    <t>1683e3d5243c1c38</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.ff06e4484b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT18_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Non vengono gestite le sezioni opzionali</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT19_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Non vegono gestite le sezioni opzionali</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT20_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT21_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT22_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT23_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>2023-07-05T11:07:08:00Z</t>
-  </si>
-  <si>
-    <t>9f0746b530ac781e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.238792032b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>2023-07-04T15:55:52:00Z</t>
-  </si>
-  <si>
-    <t>820f59536abf211a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.55c3f0b06d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
   </si>
   <si>
     <r>
@@ -3146,16 +421,10 @@
     </r>
   </si>
   <si>
-    <t>2023-07-05T09:43:23:00Z</t>
-  </si>
-  <si>
-    <t>c3b143ca5d2def78</t>
-  </si>
-  <si>
-    <t>Viene mostrato un messaggio di errore all'operatore invitandolo a riprovare</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
+    <t>RSA</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RAD_KO</t>
   </si>
   <si>
     <r>
@@ -3204,6 +473,2755 @@
     </r>
   </si>
   <si>
+    <t>Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
+"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", "GESTIONE ERRORE".</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_RAD_TIMEOUT</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT5_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT6_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT7_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT8_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT9_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT10_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT11_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT12_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.  
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT13_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT14_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT15_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT16_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT17_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT18_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT19_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT20_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT21_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT22_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT23_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento e la corretta valorizzazione dei metadati con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento  "SIGNED_LAB1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪per comporre i metadati contenente la RequestBody utilizzare il json "LAB - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_LAB_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisiti: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da sostituire
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione del documento e la corretta valorizzazione dei metadati. L'invocazione dovrà tornare un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato per la sostituzione, è possibile:
+▪utilizzare il documento "SIGNED_LAB2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪per comporre i metadati contenente la RequestBody utilizzare il json "LAB - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc". 
+Per tutti gli utenti il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT1).</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_LAB_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT1
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT1).</t>
+  </si>
+  <si>
+    <t>ELIMINAZIONE</t>
+  </si>
+  <si>
+    <t>ELIMINAZIONE_CDA2_LAB_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT1
+Viene richiamato il servizio di Eliminazione Documento "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;" al fine di testare la cancellazione di un documento CDA2  precedentemente pubblicato. La corretta invocazione del servizio comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT1)</t>
+  </si>
+  <si>
+    <t>OSCURAMENTO</t>
+  </si>
+  <si>
+    <t>OSCURAMENTO_CDA2_LAB_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT1
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT1).</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT2_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, non deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione con esito KO (status code 400) di un documento non validato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento, è possibile:
+▪utilizzare il documento "SIGNED_LAB1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT3_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento fornendo un hash nel JWT non conforme con esito KO (status code 400), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_LAB1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; 
+Per tutti gli utenti (in grado di validare o non) è necessario generare il JWT con il campo attachment_hash="HASH_ERRATO".</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT4_KO</t>
+  </si>
+  <si>
+    <t>Prerequisiti: eseguire il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione (status code 201) fornendo un identificativoDoc già utilizzato in una precedente pubblicazione creazione, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_LAB1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  in particolare sarà necessario valorizzare il campo identificativoDoc con il prefisso SKIP_VALIDATION_  concatenato all'ID del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT1).</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT5_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare il timeout della pubblicazione con esito KO (status code 504), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_LAB1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_TIMEOUT_".</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT6_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso INI (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_LAB1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_INI_".
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT7_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_LAB1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_EDS_".
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT8_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la gestione di un messaggio da parte di EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_LAB1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_WF_EDS_".
+</t>
+  </si>
+  <si>
+    <t>ELIMINAZIONE_CDA2_LAB_CT2_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di Eliminazione Documento "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;" al fine di testare la cancellazione di un documento CDA2  NON precedentemente pubblicato. L'invocazione del servizio comporterà un esito KO (status code 404), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_LAB_CT2_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento NON creato in precedenza. La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404)
+Per  la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_LAB_CT2_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  Per tutti i fornitori non deve essere stata chiamata precedentemente la pubblicazione creazione per il documento in esame.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione (status code 404) fornendo un documento NON precedentemente pubblicato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
+▪utilizzare il documento "SIGNED_LAB2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+</t>
+  </si>
+  <si>
+    <t>OSCURAMENTO_CDA2_LAB_CT2_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  NON precedentemente pubblicato.  La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404).
+Per la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento e la corretta valorizzazione dei metadati con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento  "SIGNED_LDO1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪per comporre i metadati contenente la RequestBody utilizzare il json "LDO - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_LDO_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisiti: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da sostituire
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione del documento e la corretta valorizzazione dei metadati. L'invocazione dovrà tornare un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato per la sostituzione, è possibile:
+▪utilizzare il documento "SIGNED_LDO2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪per comporre i metadati contenente la RequestBody utilizzare il json "LDO - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc". 
+Per tutti gli utenti il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT1).</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_LDO_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT1
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT1).</t>
+  </si>
+  <si>
+    <t>ELIMINAZIONE_CDA2_LDO_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT1
+Viene richiamato il servizio di Eliminazione Documento "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;" al fine di testare la cancellazione di un documento CDA2  precedentemente pubblicato. La corretta invocazione del servizio comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT1)</t>
+  </si>
+  <si>
+    <t>OSCURAMENTO_CDA2_LDO_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT1
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT1).</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT2_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, non deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione con esito KO (status code 400) di un documento non validato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento, è possibile:
+▪utilizzare il documento "SIGNED_LDO1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT3_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento fornendo un hash nel JWT non conforme con esito KO (status code 400), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_LDO1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; 
+Per tutti gli utenti (in grado di validare o non) è necessario generare il JWT con il campo attachment_hash="HASH_ERRATO".</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT4_KO</t>
+  </si>
+  <si>
+    <t>Prerequisiti: eseguire il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione (status code 201) fornendo un identificativoDoc già utilizzato in una precedente pubblicazione creazione, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_LDO1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  in particolare sarà necessario valorizzare il campo identificativoDoc con il prefisso SKIP_VALIDATION_  concatenato all'ID del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT1).</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT5_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare il timeout della pubblicazione con esito KO (status code 504), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_LDO1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_TIMEOUT_".</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT6_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso INI (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_LDO1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_INI_".
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT7_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_LDO1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_EDS_".
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT8_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la gestione di un messaggio da parte di EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_LDO1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_WF_EDS_".
+</t>
+  </si>
+  <si>
+    <t>ELIMINAZIONE_CDA2_LDO_CT2_KO</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_LDO_CT2_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento NON creato in precedenza. La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404)
+Per  la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_LDO_CT2_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  Per tutti i fornitori non deve essere stata chiamata precedentemente la pubblicazione creazione per il documento in esame.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione (status code 404) fornendo un documento NON precedentemente pubblicato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
+▪utilizzare il documento "SIGNED_LDO2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+</t>
+  </si>
+  <si>
+    <t>OSCURAMENTO_CDA2_LDO_CT2_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  NON precedentemente pubblicato.  La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404).
+Per la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento e la corretta valorizzazione dei metadati con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento  "SIGNED_RAD1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪per comporre i metadati contenente la RequestBody utilizzare il json "RAD - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_RAD_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisiti: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da sostituire
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione del documento e la corretta valorizzazione dei metadati. L'invocazione dovrà tornare un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato per la sostituzione, è possibile:
+▪utilizzare il documento "SIGNED_RAD2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪per comporre i metadati contenente la RequestBody utilizzare il json "RAD - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc". 
+Per tutti gli utenti il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1).</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_RAD_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1).</t>
+  </si>
+  <si>
+    <t>ELIMINAZIONE_CDA2_RAD_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1
+Viene richiamato il servizio di Eliminazione Documento "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;" al fine di testare la cancellazione di un documento CDA2  precedentemente pubblicato. La corretta invocazione del servizio comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1)</t>
+  </si>
+  <si>
+    <t>OSCURAMENTO_CDA2_RAD_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1).</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT2_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, non deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione con esito KO (status code 400) di un documento non validato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento, è possibile:
+▪utilizzare il documento "SIGNED_RAD1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT3_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento fornendo un hash nel JWT non conforme con esito KO (status code 400), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_RAD1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; 
+Per tutti gli utenti (in grado di validare o non) è necessario generare il JWT con il campo attachment_hash="HASH_ERRATO".</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT4_KO</t>
+  </si>
+  <si>
+    <t>Prerequisiti: eseguire il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione (status code 201) fornendo un identificativoDoc già utilizzato in una precedente pubblicazione creazione, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_RAD1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  in particolare sarà necessario valorizzare il campo identificativoDoc con il prefisso SKIP_VALIDATION_  concatenato all'ID del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT1).</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT5_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare il timeout della pubblicazione con esito KO (status code 504), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_RAD1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_TIMEOUT_".</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT6_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso INI (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_RAD1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_INI_".
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT7_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_RAD1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_EDS_".
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT8_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la gestione di un messaggio da parte di EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_RAD1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_WF_EDS_".
+</t>
+  </si>
+  <si>
+    <t>ELIMINAZIONE_CDA2_RAD_CT2_KO</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_RAD_CT2_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento NON creato in precedenza. La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404)
+Per  la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_RAD_CT2_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  Per tutti i fornitori non deve essere stata chiamata precedentemente la pubblicazione creazione per il documento in esame.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione (status code 404) fornendo un documento NON precedentemente pubblicato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
+▪utilizzare il documento "SIGNED_RAD2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+</t>
+  </si>
+  <si>
+    <t>OSCURAMENTO_CDA2_RAD_CT2_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  NON precedentemente pubblicato.  La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404).
+Per la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento e la corretta valorizzazione dei metadati con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento  "SIGNED_CERT_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪per comporre i metadati contenente la RequestBody utilizzare il json "CERT_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_CERT_VACC_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisiti: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da sostituire
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione del documento e la corretta valorizzazione dei metadati. L'invocazione dovrà tornare un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato per la sostituzione, è possibile:
+▪utilizzare il documento "SIGNED_CERT_VACC2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪per comporre i metadati contenente la RequestBody utilizzare il json "CERT_VACC - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc". 
+Per tutti gli utenti il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT1).</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_CERT_VACC_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT1
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT1).</t>
+  </si>
+  <si>
+    <t>ELIMINAZIONE_CDA2_CERT_VACC_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT1
+Viene richiamato il servizio di Eliminazione Documento "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;" al fine di testare la cancellazione di un documento CDA2  precedentemente pubblicato. La corretta invocazione del servizio comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT1)</t>
+  </si>
+  <si>
+    <t>OSCURAMENTO_CDA2_CERT_VACC_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT1
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT1).</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT2_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, non deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione con esito KO (status code 400) di un documento non validato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento, è possibile:
+▪utilizzare il documento "SIGNED_CERT_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT3_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento fornendo un hash nel JWT non conforme con esito KO (status code 400), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_CERT_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; 
+Per tutti gli utenti (in grado di validare o non) è necessario generare il JWT con il campo attachment_hash="HASH_ERRATO".</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT4_KO</t>
+  </si>
+  <si>
+    <t>Prerequisiti: eseguire il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione (status code 201) fornendo un identificativoDoc già utilizzato in una precedente pubblicazione creazione, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_CERT_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  in particolare sarà necessario valorizzare il campo identificativoDoc con il prefisso SKIP_VALIDATION_  concatenato all'ID del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT1).</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT5_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare il timeout della pubblicazione con esito KO (status code 504), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_CERT_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_TIMEOUT_".</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT6_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso INI (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_CERT_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_INI_".
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT7_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_CERT_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_EDS_".
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT8_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la gestione di un messaggio da parte di EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_CERT_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_WF_EDS_".
+</t>
+  </si>
+  <si>
+    <t>ELIMINAZIONE_CDA2_CERT_VACC_CT2_KO</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_CERT_VACC_CT2_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento NON creato in precedenza. La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404)
+Per  la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_CERT_VACC_CT2_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  Per tutti i fornitori non deve essere stata chiamata precedentemente la pubblicazione creazione per il documento in esame.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione (status code 404) fornendo un documento NON precedentemente pubblicato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
+▪utilizzare il documento "SIGNED_CERT_VACC2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+</t>
+  </si>
+  <si>
+    <t>OSCURAMENTO_CDA2_CERT_VACC_CT2_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  NON precedentemente pubblicato.  La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404).
+Per la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento e la corretta valorizzazione dei metadati con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento  "SIGNED_SING_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪per comporre i metadati contenente la RequestBody utilizzare il json "SING_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_SING_VACC_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisiti: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da sostituire
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione del documento e la corretta valorizzazione dei metadati. L'invocazione dovrà tornare un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato per la sostituzione, è possibile:
+▪utilizzare il documento "SIGNED_SING_VACC2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪per comporre i metadati contenente la RequestBody utilizzare il json "SING_VACC - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc". 
+Per tutti gli utenti il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT1).</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_SING_VACC_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT1
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT1).</t>
+  </si>
+  <si>
+    <t>ELIMINAZIONE_CDA2_SING_VACC_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT1
+Viene richiamato il servizio di Eliminazione Documento "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;" al fine di testare la cancellazione di un documento CDA2  precedentemente pubblicato. La corretta invocazione del servizio comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT1)</t>
+  </si>
+  <si>
+    <t>OSCURAMENTO_CDA2_SING_VACC_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT1
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT1).</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT2_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, non deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione con esito KO (status code 400) di un documento non validato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento, è possibile:
+▪utilizzare il documento "SIGNED_SING_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT3_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento fornendo un hash nel JWT non conforme con esito KO (status code 400), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_SING_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; 
+Per tutti gli utenti (in grado di validare o non) è necessario generare il JWT con il campo attachment_hash="HASH_ERRATO".</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT4_KO</t>
+  </si>
+  <si>
+    <t>Prerequisiti: eseguire il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione (status code 201) fornendo un identificativoDoc già utilizzato in una precedente pubblicazione creazione, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_SING_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  in particolare sarà necessario valorizzare il campo identificativoDoc con il prefisso SKIP_VALIDATION_  concatenato all'ID del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT1).</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT5_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare il timeout della pubblicazione con esito KO (status code 504), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_SING_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_TIMEOUT_".</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT6_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso INI (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_SING_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_INI_".
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT7_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_SING_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_EDS_".
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT8_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la gestione di un messaggio da parte di EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_SING_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_WF_EDS_".
+</t>
+  </si>
+  <si>
+    <t>ELIMINAZIONE_CDA2_SING_VACC_CT2_KO</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_SING_VACC_CT2_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento NON creato in precedenza. La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404)
+Per  la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_SING_VACC_CT2_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  Per tutti i fornitori non deve essere stata chiamata precedentemente la pubblicazione creazione per il documento in esame.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione (status code 404) fornendo un documento NON precedentemente pubblicato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
+▪utilizzare il documento "SIGNED_SING_VACC2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+</t>
+  </si>
+  <si>
+    <t>OSCURAMENTO_CDA2_SING_VACC_CT2_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  NON precedentemente pubblicato.  La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404).
+Per la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento e la corretta valorizzazione dei metadati con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento  "SIGNED_VPS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪per comporre i metadati contenente la RequestBody utilizzare il json "VPS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_VPS_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisiti: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da sostituire
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione del documento e la corretta valorizzazione dei metadati. L'invocazione dovrà tornare un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato per la sostituzione, è possibile:
+▪utilizzare il documento "SIGNED_VPS2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪per comporre i metadati contenente la RequestBody utilizzare il json "VPS - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc". 
+Per tutti gli utenti il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT1).</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_VPS_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT1
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT1).</t>
+  </si>
+  <si>
+    <t>ELIMINAZIONE_CDA2_VPS_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT1
+Viene richiamato il servizio di Eliminazione Documento "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;" al fine di testare la cancellazione di un documento CDA2  precedentemente pubblicato. La corretta invocazione del servizio comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT1)</t>
+  </si>
+  <si>
+    <t>OSCURAMENTO_CDA2_VPS_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT1
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT1).</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT2_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, non deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione con esito KO (status code 400) di un documento non validato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento, è possibile:
+▪utilizzare il documento "SIGNED_VPS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT3_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento fornendo un hash nel JWT non conforme con esito KO (status code 400), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_VPS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; 
+Per tutti gli utenti (in grado di validare o non) è necessario generare il JWT con il campo attachment_hash="HASH_ERRATO".</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT4_KO</t>
+  </si>
+  <si>
+    <t>Prerequisiti: eseguire il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione (status code 201) fornendo un identificativoDoc già utilizzato in una precedente pubblicazione creazione, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_VPS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  in particolare sarà necessario valorizzare il campo identificativoDoc con il prefisso SKIP_VALIDATION_  concatenato all'ID del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT1).</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT5_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare il timeout della pubblicazione con esito KO (status code 504), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_VPS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_TIMEOUT_".</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT6_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso INI (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_VPS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_INI_".
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT7_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_VPS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_EDS_".
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT8_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la gestione di un messaggio da parte di EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_VPS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_WF_EDS_".
+</t>
+  </si>
+  <si>
+    <t>ELIMINAZIONE_CDA2_VPS_CT2_KO</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_VPS_CT2_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento NON creato in precedenza. La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404)
+Per  la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_VPS_CT2_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  Per tutti i fornitori non deve essere stata chiamata precedentemente la pubblicazione creazione per il documento in esame.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione (status code 404) fornendo un documento NON precedentemente pubblicato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
+▪utilizzare il documento "SIGNED_VPS2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+</t>
+  </si>
+  <si>
+    <t>OSCURAMENTO_CDA2_VPS_CT2_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  NON precedentemente pubblicato.  La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404).
+Per la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento e la corretta valorizzazione dei metadati con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento  "SIGNED_RSA1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪per comporre i metadati contenente la RequestBody utilizzare il json "RSA - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_RSA_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisiti: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da sostituire
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione del documento e la corretta valorizzazione dei metadati. L'invocazione dovrà tornare un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato per la sostituzione, è possibile:
+▪utilizzare il documento "SIGNED_RSA2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪per comporre i metadati contenente la RequestBody utilizzare il json "RSA - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc". 
+Per tutti gli utenti il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1).</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_RSA_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1).</t>
+  </si>
+  <si>
+    <t>ELIMINAZIONE_CDA2_RSA_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1
+Viene richiamato il servizio di Eliminazione Documento "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;" al fine di testare la cancellazione di un documento CDA2  precedentemente pubblicato. La corretta invocazione del servizio comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1)</t>
+  </si>
+  <si>
+    <t>OSCURAMENTO_CDA2_RSA_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1).</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT2_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, non deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione con esito KO (status code 400) di un documento non validato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento, è possibile:
+▪utilizzare il documento "SIGNED_RSA1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT3_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento fornendo un hash nel JWT non conforme con esito KO (status code 400), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_RSA1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; 
+Per tutti gli utenti (in grado di validare o non) è necessario generare il JWT con il campo attachment_hash="HASH_ERRATO".</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT4_KO</t>
+  </si>
+  <si>
+    <t>Prerequisiti: eseguire il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione (status code 201) fornendo un identificativoDoc già utilizzato in una precedente pubblicazione creazione, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_RSA1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  in particolare sarà necessario valorizzare il campo identificativoDoc con il prefisso SKIP_VALIDATION_  concatenato all'ID del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT1).</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT5_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare il timeout della pubblicazione con esito KO (status code 504), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_RSA1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_TIMEOUT_".</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT6_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso INI (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_RSA1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_INI_".
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT7_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_RSA1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_EDS_".
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT8_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la gestione di un messaggio da parte di EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_RSA1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_WF_EDS_".
+</t>
+  </si>
+  <si>
+    <t>ELIMINAZIONE_CDA2_RSA_CT2_KO</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_RSA_CT2_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento NON creato in precedenza. La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404)
+Per  la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_RSA_CT2_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  Per tutti i fornitori non deve essere stata chiamata precedentemente la pubblicazione creazione per il documento in esame.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione (status code 404) fornendo un documento NON precedentemente pubblicato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
+▪utilizzare il documento "SIGNED_RSA2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+</t>
+  </si>
+  <si>
+    <t>OSCURAMENTO_CDA2_RSA_CT2_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  NON precedentemente pubblicato.  La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404).
+Per la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento e la corretta valorizzazione dei metadati con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento  "SIGNED_PSS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪per comporre i metadati contenente la RequestBody utilizzare il json "PSS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_PSS_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisiti: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da sostituire
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione del documento e la corretta valorizzazione dei metadati. L'invocazione dovrà tornare un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato per la sostituzione, è possibile:
+▪utilizzare il documento "SIGNED_PSS2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪per comporre i metadati contenente la RequestBody utilizzare il json "PSS - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc". 
+Per tutti gli utenti il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT1).</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_PSS_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT1
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT1).</t>
+  </si>
+  <si>
+    <t>ELIMINAZIONE_CDA2_PSS_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT1
+Viene richiamato il servizio di Eliminazione Documento "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;" al fine di testare la cancellazione di un documento CDA2  precedentemente pubblicato. La corretta invocazione del servizio comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il campo "idDoc" da passare nell'endpoint dovrà essere valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT1)</t>
+  </si>
+  <si>
+    <t>OSCURAMENTO_CDA2_PSS_CT1</t>
+  </si>
+  <si>
+    <t>Prerequisito: si esegue con esito positivo il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT1
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  precedentemente pubblicato. La corretta valorizzazione dei metadati comporterà un esito positivo (status code 200), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT1).</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT2_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, non deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione con esito KO (status code 400) di un documento non validato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento, è possibile:
+▪utilizzare il documento "SIGNED_PSS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT3_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione del documento fornendo un hash nel JWT non conforme con esito KO (status code 400), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_PSS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; 
+Per tutti gli utenti (in grado di validare o non) è necessario generare il JWT con il campo attachment_hash="HASH_ERRATO".</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT4_KO</t>
+  </si>
+  <si>
+    <t>Prerequisiti: eseguire il caso di test PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT1. Per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione creazione (status code 201) fornendo un identificativoDoc già utilizzato in una precedente pubblicazione creazione, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_PSS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  in particolare sarà necessario valorizzare il campo identificativoDoc con il prefisso SKIP_VALIDATION_  concatenato all'ID del documento precedentemente pubblicato (caso di test PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT1).</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT5_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare il timeout della pubblicazione con esito KO (status code 504), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_PSS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";  
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_TIMEOUT_".</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT6_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso INI (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_PSS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_INI_".
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT7_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la trasmissione verso EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_PSS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_EDS_".
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT8_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con  errore durante la gestione di un messaggio da parte di EDS (status code 201), con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_PSS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento";
+Per tutti gli utenti (in grado di validare o non) è necessario valorizzare il campo identificativoDoc con il prefisso "CRASH_WF_EDS_".
+</t>
+  </si>
+  <si>
+    <t>ELIMINAZIONE_CDA2_PSS_CT2_KO</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_PSS_CT2_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati di un documento NON creato in precedenza. La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404)
+Per  la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti il campo "idDoc"da passare nell'endpoint dovrà essere valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_PSS_CT2_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  Per tutti i fornitori non deve essere stata chiamata precedentemente la pubblicazione creazione per il documento in esame.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione (status code 404) fornendo un documento NON precedentemente pubblicato, con la corretta valorizzazione dei metadati, secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
+▪utilizzare il documento "SIGNED_PSS2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+</t>
+  </si>
+  <si>
+    <t>OSCURAMENTO_CDA2_PSS_CT2_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata"al fine di testare l'aggiornamento dei metadati ("attiCliniciRegoleAccesso"), in particolare l'oscuramento di un documento CDA2  NON precedentemente pubblicato.  La valorizzazione dei metadati , secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway, e l'utilizzo di un valore inesistente per il campo idDoc comporterà un esito KO (status code 404).
+Per la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Oscuramento" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti gli utenti è necessario che il campo "idDoc"da passare nell'endpoint sia valorizzato con l'identificativo di un documento NON precedentemente pubblicato.</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT10_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_LAB1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
+"attiCliniciRegoleAccesso":[
+        "XXX"
+    ]
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LAB_CT11_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_LAB1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
+  "dataInizioPrestazione": "2022:05:09-07:30+00"
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_LAB_CT3_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare. 
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
+▪utilizzare il documento "SIGNED_LAB2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
+"attiCliniciRegoleAccesso":[
+        "XXX"
+    ]</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_LAB_CT5_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
+▪utilizzare il documento "SIGNED_LAB2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
+  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT10_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_LDO1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
+"attiCliniciRegoleAccesso":[
+        "XXX"
+    ]
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_LDO_CT11_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_LDO1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
+  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_LDO_CT3_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare. 
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
+▪utilizzare il documento "SIGNED_LDO2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
+"attiCliniciRegoleAccesso":[
+        "XXX"
+    ]</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_LDO_CT5_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare. 
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
+▪utilizzare il documento "SIGNED_LDO2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
+  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT10_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_RAD1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
+"attiCliniciRegoleAccesso":[
+        "XXX"
+    ]
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RAD_CT11_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_RAD1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
+  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_RAD_CT3_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare. 
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
+▪utilizzare il documento "SIGNED_RAD2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
+"attiCliniciRegoleAccesso":[
+        "XXX"
+    ]</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_RAD_CT5_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare. 
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
+▪utilizzare il documento "SIGNED_RAD2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
+  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT10_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_CERT_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
+"attiCliniciRegoleAccesso":[
+        "XXX"
+    ]
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_CERT_VACC_CT11_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_CERT_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
+  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_CERT_VACC_CT3_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare. 
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
+▪utilizzare il documento "SIGNED_CERT_VACC2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
+"attiCliniciRegoleAccesso":[
+        "XXX"
+    ]</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_CERT_VACC_CT5_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
+▪utilizzare il documento "SIGNED_CERT_VACC2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
+  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT10_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_SING_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
+"attiCliniciRegoleAccesso":[
+        "XXX"
+    ]
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_SING_VACC_CT11_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_SING_VACC1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
+  "dataInizioPrestazione": "2022:05:09-07:30+00"
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_SING_VACC_CT3_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare. 
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
+▪utilizzare il documento "SIGNED_SING_VACC2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
+"attiCliniciRegoleAccesso":[
+        "XXX"
+    ]</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_SING_VACC_CT5_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
+▪utilizzare il documento "SIGNED_SING_VACC2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
+  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT10_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_VPS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
+"attiCliniciRegoleAccesso":[
+        "XXX"
+    ]
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_VPS_CT11_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_VPS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
+  "dataInizioPrestazione": "2022:05:09-07:30+00"
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_VPS_CT3_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare. .
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
+▪utilizzare il documento "SIGNED_VPS2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
+"attiCliniciRegoleAccesso":[
+        "XXX"
+    ]</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_VPS_CT5_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
+▪utilizzare il documento "SIGNED_VPS2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
+  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT10_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_RSA1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
+"attiCliniciRegoleAccesso":[
+        "XXX"
+    ]
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_RSA_CT11_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_RSA1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
+  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_RSA_CT3_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare. 
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
+▪utilizzare il documento "SIGNED_RSA2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
+"attiCliniciRegoleAccesso":[
+        "XXX"
+    ]</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_RSA_CT5_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare. 
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
+▪utilizzare il documento "SIGNED_RSA2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
+  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT10_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_PSS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
+"attiCliniciRegoleAccesso":[
+        "XXX"
+    ]
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_CREAZIONE_CDA2_PSS_CT11_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare.  
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents" al fine di testare la pubblicazione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato, è possibile:
+▪utilizzare il documento "SIGNED_PSS1.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Create" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
+  "dataInizioPrestazione": "2022:05:09-07:30+00"
+</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_PSS_CT3_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare. 
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
+▪utilizzare il documento "SIGNED_PSS2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
+"attiCliniciRegoleAccesso":[
+        "XXX"
+    ]</t>
+  </si>
+  <si>
+    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_PSS_CT5_KO</t>
+  </si>
+  <si>
+    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare. 
+Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{idDoc}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
+▪utilizzare il documento "SIGNED_PSS2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
+▪comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
+Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
+  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_LAB_CT4_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per  la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
+"attiCliniciRegoleAccesso":[
+        "XXX"
+    ]</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_LAB_CT5_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per  la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "LAB - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti i fornitori è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
+  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_LDO_CT4_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per  la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
+"attiCliniciRegoleAccesso":[
+        "XXX"
+    ]</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_LDO_CT5_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per  la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "LDO - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti i fornitori è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
+  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_RAD_CT4_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per  la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
+"attiCliniciRegoleAccesso":[
+        "XXX"
+    ]</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_RAD_CT5_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per  la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "RAD - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti i fornitori è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
+  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_CERT_VACC_CT4_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per  la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
+"attiCliniciRegoleAccesso":[
+        "XXX"
+    ]</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_CERT_VACC_CT5_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per  la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "CERT_VACC - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti i fornitori è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
+  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_SING_VACC_CT4_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per  la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
+"attiCliniciRegoleAccesso":[
+        "XXX"
+    ]</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_SING_VACC_CT5_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per  la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "SING_VACC - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti i fornitori è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
+  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_VPS_CT4_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per  la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
+"attiCliniciRegoleAccesso":[
+        "XXX"
+    ]</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_VPS_CT5_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per  la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "VPS - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti i fornitori è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
+  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_RSA_CT4_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per  la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
+"attiCliniciRegoleAccesso":[
+        "XXX"
+    ]</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_RSA_CT5_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per  la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti i fornitori è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
+  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_PSS_CT4_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per  la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti i fornitori è necessario valorizzare nel json il campo attiCliniciRegoleAccesso con il seguente valore non ammesso da Affinity Domain v2.4.1:
+"attiCliniciRegoleAccesso":[
+        "XXX"
+    ]</t>
+  </si>
+  <si>
+    <t>AGGIORNAMENTO_METADATI_CDA2_PSS_CT5_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di Aggiornamento Metadati "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/&lt;idDoc&gt;/metadata" al fine di testare l'aggiornamento dei metadati con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
+Per  la richiesta è necessario:
+▪per l'utente che è in grado di procedere in autonomia, comporre i metadati della RequestBody conformemente a quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway;
+▪per l'utente che non è in grado di procedere in autonomia, comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Update" presente al path "https://github.com/ministero-salute/it-fse-accreditamento".
+Per tutti i fornitori è necessario valorizzare nel json il campo dataInizioPrestazione con il seguente valore (formato non ammesso):
+  "dataInizioPrestazione": "2022:05:09-07:30+00"</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>ID TEST CASE OK</t>
+  </si>
+  <si>
+    <t>ID TEST CASE KO</t>
+  </si>
+  <si>
+    <t>Validazione</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,368</t>
+  </si>
+  <si>
+    <t>28,36,44,52,53,54,55,56,57,58,59,60,61,62</t>
+  </si>
+  <si>
+    <t>6,7,8,9,369</t>
+  </si>
+  <si>
+    <t>29,37,45,63,64,65,66,67,68,69,70,71,72,73,74</t>
+  </si>
+  <si>
+    <t>11,12,13,14,370</t>
+  </si>
+  <si>
+    <t>31,39,47,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93</t>
+  </si>
+  <si>
+    <t>16,17,18,19,371</t>
+  </si>
+  <si>
+    <t>33,41,49,94,95,96,97,98,99,100,101,102,103,104,105,106</t>
+  </si>
+  <si>
+    <t>20,21,22,23,372</t>
+  </si>
+  <si>
+    <t>34,42,50,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121</t>
+  </si>
+  <si>
+    <t>24,25,26,27,373</t>
+  </si>
+  <si>
+    <t>35,43,51,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146</t>
+  </si>
+  <si>
+    <t>147,148,149,150,374</t>
+  </si>
+  <si>
+    <t>32,40,48,151,152,153,154,155,156,157,158,159,160,161,162,163,164,165,166,167,168,169</t>
+  </si>
+  <si>
+    <t>170,171,172,173,375</t>
+  </si>
+  <si>
+    <t>30,38,46,174,175,176,177,178,179,180,181,182,183,184,185,186,187,188,189,190</t>
+  </si>
+  <si>
+    <t>LAB - TRASF</t>
+  </si>
+  <si>
+    <t>191,376 più ove possibile fare riferimento agli "ID TEST CASE OK" del Tipo "LAB"</t>
+  </si>
+  <si>
+    <t>Fare riferimento agli "ID TEST CASE KO" del Tipo "LAB"</t>
+  </si>
+  <si>
+    <t>Pubblicazione Creazione</t>
+  </si>
+  <si>
+    <t>197,198,199,200,201,202,203,320,321</t>
+  </si>
+  <si>
+    <t>213,214,215,216,217,218,219,324,325</t>
+  </si>
+  <si>
+    <t>229,230,231,232,233,234,235,328,329</t>
+  </si>
+  <si>
+    <t>245,246,247,248,249,250,251,332,333</t>
+  </si>
+  <si>
+    <t>261,262,263,264,265,266,267,336,337</t>
+  </si>
+  <si>
+    <t>277,278,279,280,281,282,283,340,341</t>
+  </si>
+  <si>
+    <t>293,294,295,296,297,298,299,344,345</t>
+  </si>
+  <si>
+    <t>309,310,311,312,313,314,315,348,349</t>
+  </si>
+  <si>
+    <t>Pubblicazione Sostituizione</t>
+  </si>
+  <si>
+    <t>206,322,323</t>
+  </si>
+  <si>
+    <t>222,326,327</t>
+  </si>
+  <si>
+    <t>238,330,331</t>
+  </si>
+  <si>
+    <t>254,334,335</t>
+  </si>
+  <si>
+    <t>270,338,339</t>
+  </si>
+  <si>
+    <t>286,342,343</t>
+  </si>
+  <si>
+    <t>302,346,347</t>
+  </si>
+  <si>
+    <t>318,350,351</t>
+  </si>
+  <si>
+    <t>Aggiornamento Metadati</t>
+  </si>
+  <si>
+    <t>205,352,353</t>
+  </si>
+  <si>
+    <t>221,354,355</t>
+  </si>
+  <si>
+    <t>237,356,357</t>
+  </si>
+  <si>
+    <t>253,358,359</t>
+  </si>
+  <si>
+    <t>269,360,361</t>
+  </si>
+  <si>
+    <t>285,362,363</t>
+  </si>
+  <si>
+    <t>301,364,365</t>
+  </si>
+  <si>
+    <t>317,366,367</t>
+  </si>
+  <si>
+    <t>Eliminazione</t>
+  </si>
+  <si>
+    <t>Oscuramento</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>2023-06-29T16:56:48:00Z</t>
+  </si>
+  <si>
+    <t>9e1a3d2e7f57228d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.1d10d704bc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-06-29T17:21:18:00Z</t>
+  </si>
+  <si>
+    <t>a006374681df4de5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.e53b815358^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-06-30T09:46:59:00Z</t>
+  </si>
+  <si>
+    <t>e1f99255514f436e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.612492e171^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Errore di sintassi</t>
+  </si>
+  <si>
+    <t>CONTROLLO SINTASSI DOCUMENTO</t>
+  </si>
+  <si>
+    <t>2023-06-30T10:09:31:00Z</t>
+  </si>
+  <si>
+    <t>4feae1ca886dd190</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.2aa0b2c29c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Errore semantico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non vengono gestite le sezioni opzionali.
+</t>
+  </si>
+  <si>
+    <t>2023-06-30T10:24:21:00Z</t>
+  </si>
+  <si>
+    <t>55d3d97cb5d478dd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.6870c8e117^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-06-30T10:29:30:00Z</t>
+  </si>
+  <si>
+    <t>07796017452ef57d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.89873defeb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>CONTROLLO ANAGRAFiCA PAZIENTE</t>
+  </si>
+  <si>
+    <t>2023-06-30T10:33:22:00Z</t>
+  </si>
+  <si>
+    <t>804f5b1cfe6b5c71</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.0de13279e1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-06-30T10:37:34:00Z</t>
+  </si>
+  <si>
+    <t>c4a2a3440da704e6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.12470852e2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>opzionale, non gestito da applicativo</t>
+  </si>
+  <si>
+    <t>2023-06-30T10:44:59:00Z</t>
+  </si>
+  <si>
+    <t>7902c75a1629a718</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.3fe7604a40^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-06-30T10:51:01:00Z</t>
+  </si>
+  <si>
+    <t>11bc201a2672a4ea</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.f3bf19cbba^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-06-30T10:53:50:00Z</t>
+  </si>
+  <si>
+    <t>52a6a1ed465a5016</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.ec98ce7dd5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Sezione non gestita da applicativo</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Sezione opzionale non gestita nel CDA</t>
+  </si>
+  <si>
+    <t>2023-07-04T10:39:16:00Z</t>
+  </si>
+  <si>
+    <t>87aae40f4cbb3401</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.1e943af217^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-07-04T17:16:51:00Z</t>
+  </si>
+  <si>
+    <t>8f8e796d00250a1d</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>2023-07-04T17:24:05:00Z</t>
+  </si>
+  <si>
+    <t>1c3e4c1fb46d7a33</t>
+  </si>
+  <si>
+    <t>Errore JWT</t>
+  </si>
+  <si>
+    <t>Errore Timeout</t>
+  </si>
+  <si>
+    <t>Viene mostrato un messaggio di errore all'operatore invitandolo a riprovare le operazioni</t>
+  </si>
+  <si>
+    <t>Il sistema attende un numero di millisecondi configurabile (default 30000) Dopo tale tempo viene mostrato un messaggio di errore all'operatore invitandolo a riprovare</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT13_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-07-05T10:06:05:00Z</t>
+  </si>
+  <si>
+    <t>138889c3c182bd62</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.d380d520ad^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>CONTROLLO DATI IMPEGNATIVA</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT14_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-07-05T10:16:08:00Z</t>
+  </si>
+  <si>
+    <t>f5aeef2dcc198113</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.c3c7118c1f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>CONTROLLO DATI ACCETTAZIONE</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT15_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-07-05T10:28:52:00Z</t>
+  </si>
+  <si>
+    <t>cb6c11afffbb4a1b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.affa2ae713^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>CONTROLLO DATI REFERTO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT16_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non vengono gestite le sezioni opzionali
+</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT17_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-07-05T10:41:27:00Z</t>
+  </si>
+  <si>
+    <t>1683e3d5243c1c38</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.ff06e4484b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT18_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Non vengono gestite le sezioni opzionali</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT19_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Non vegono gestite le sezioni opzionali</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT20_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT21_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT22_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT23_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-07-05T11:07:08:00Z</t>
+  </si>
+  <si>
+    <t>9f0746b530ac781e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.238792032b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>2023-07-04T15:55:52:00Z</t>
+  </si>
+  <si>
+    <t>820f59536abf211a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.55c3f0b06d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Precondizioni:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Descrizione di Business del caso di test: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
+    </r>
+  </si>
+  <si>
+    <t>2023-07-05T09:43:23:00Z</t>
+  </si>
+  <si>
+    <t>c3b143ca5d2def78</t>
+  </si>
+  <si>
+    <t>Viene mostrato un messaggio di errore all'operatore invitandolo a riprovare</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Precondizioni:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Descrizione di Business del caso di test: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
+    </r>
+  </si>
+  <si>
     <t>2023-07-05T09:48:23:00Z</t>
   </si>
   <si>
@@ -3398,6 +3416,9 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.848b1e8ead^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>CONTROLLO DELLE PROCEDURE ASSOCIATE ALLE PRESTAZIONI</t>
   </si>
 </sst>
 </file>
@@ -3407,7 +3428,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3426,38 +3447,45 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3465,6 +3493,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3482,14 +3511,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3857,6 +3878,27 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3878,27 +3920,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6361,10 +6382,10 @@
   <dimension ref="A1:T830"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="O10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="K219" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G239" sqref="G239"/>
+      <selection pane="bottomRight" activeCell="P233" sqref="P233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6405,12 +6426,12 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="48"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -6428,14 +6449,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="49" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="41"/>
+      <c r="D3" s="48"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -6453,12 +6474,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="49" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -6477,12 +6498,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="41"/>
+      <c r="D5" s="48"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -6500,8 +6521,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -13867,19 +13888,19 @@
       </c>
     </row>
     <row r="214" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A214" s="50">
+      <c r="A214" s="38">
         <v>32</v>
       </c>
-      <c r="B214" s="51" t="s">
+      <c r="B214" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C214" s="51" t="s">
+      <c r="C214" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D214" s="51" t="s">
+      <c r="D214" s="39" t="s">
         <v>624</v>
       </c>
-      <c r="E214" s="52" t="s">
+      <c r="E214" s="40" t="s">
         <v>625</v>
       </c>
       <c r="F214" s="33" t="s">
@@ -13914,26 +13935,26 @@
         <v>628</v>
       </c>
       <c r="Q214" s="35"/>
-      <c r="R214" s="53"/>
-      <c r="S214" s="54"/>
-      <c r="T214" s="55" t="s">
+      <c r="R214" s="41"/>
+      <c r="S214" s="42"/>
+      <c r="T214" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="215" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A215" s="50">
+      <c r="A215" s="38">
         <v>40</v>
       </c>
-      <c r="B215" s="51" t="s">
+      <c r="B215" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C215" s="51" t="s">
+      <c r="C215" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D215" s="51" t="s">
+      <c r="D215" s="39" t="s">
         <v>629</v>
       </c>
-      <c r="E215" s="52" t="s">
+      <c r="E215" s="40" t="s">
         <v>630</v>
       </c>
       <c r="F215" s="33" t="s">
@@ -13968,26 +13989,26 @@
         <v>628</v>
       </c>
       <c r="Q215" s="35"/>
-      <c r="R215" s="53"/>
-      <c r="S215" s="54"/>
-      <c r="T215" s="55" t="s">
+      <c r="R215" s="41"/>
+      <c r="S215" s="42"/>
+      <c r="T215" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="216" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A216" s="50">
+      <c r="A216" s="38">
         <v>48</v>
       </c>
-      <c r="B216" s="51" t="s">
+      <c r="B216" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C216" s="51" t="s">
+      <c r="C216" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D216" s="51" t="s">
+      <c r="D216" s="39" t="s">
         <v>633</v>
       </c>
-      <c r="E216" s="52" t="s">
+      <c r="E216" s="40" t="s">
         <v>72</v>
       </c>
       <c r="F216" s="33" t="s">
@@ -14018,28 +14039,28 @@
         <v>635</v>
       </c>
       <c r="Q216" s="35"/>
-      <c r="R216" s="53" t="s">
+      <c r="R216" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="S216" s="54"/>
-      <c r="T216" s="55" t="s">
+      <c r="S216" s="42"/>
+      <c r="T216" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="217" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A217" s="50">
+      <c r="A217" s="38">
         <v>147</v>
       </c>
-      <c r="B217" s="51" t="s">
+      <c r="B217" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C217" s="51" t="s">
+      <c r="C217" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D217" s="51" t="s">
+      <c r="D217" s="39" t="s">
         <v>636</v>
       </c>
-      <c r="E217" s="52" t="s">
+      <c r="E217" s="40" t="s">
         <v>637</v>
       </c>
       <c r="F217" s="33" t="s">
@@ -14064,29 +14085,29 @@
       <c r="O217" s="35"/>
       <c r="P217" s="35"/>
       <c r="Q217" s="35"/>
-      <c r="R217" s="53"/>
-      <c r="S217" s="54"/>
-      <c r="T217" s="55" t="s">
+      <c r="R217" s="41"/>
+      <c r="S217" s="42"/>
+      <c r="T217" s="43" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="218" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A218" s="50">
+      <c r="A218" s="38">
         <v>148</v>
       </c>
-      <c r="B218" s="51" t="s">
+      <c r="B218" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C218" s="51" t="s">
+      <c r="C218" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D218" s="51" t="s">
+      <c r="D218" s="39" t="s">
         <v>641</v>
       </c>
-      <c r="E218" s="52" t="s">
+      <c r="E218" s="40" t="s">
         <v>642</v>
       </c>
-      <c r="F218" s="56"/>
+      <c r="F218" s="44"/>
       <c r="G218" s="37"/>
       <c r="H218" s="37"/>
       <c r="I218" s="37"/>
@@ -14102,29 +14123,29 @@
       <c r="O218" s="35"/>
       <c r="P218" s="35"/>
       <c r="Q218" s="35"/>
-      <c r="R218" s="53"/>
-      <c r="S218" s="54"/>
-      <c r="T218" s="55" t="s">
+      <c r="R218" s="41"/>
+      <c r="S218" s="42"/>
+      <c r="T218" s="43" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="219" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A219" s="50">
+      <c r="A219" s="38">
         <v>149</v>
       </c>
-      <c r="B219" s="51" t="s">
+      <c r="B219" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C219" s="51" t="s">
+      <c r="C219" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D219" s="51" t="s">
+      <c r="D219" s="39" t="s">
         <v>643</v>
       </c>
-      <c r="E219" s="52" t="s">
+      <c r="E219" s="40" t="s">
         <v>644</v>
       </c>
-      <c r="F219" s="56"/>
+      <c r="F219" s="44"/>
       <c r="G219" s="37"/>
       <c r="H219" s="37"/>
       <c r="I219" s="37"/>
@@ -14140,29 +14161,29 @@
       <c r="O219" s="35"/>
       <c r="P219" s="35"/>
       <c r="Q219" s="35"/>
-      <c r="R219" s="53"/>
-      <c r="S219" s="54"/>
-      <c r="T219" s="55" t="s">
+      <c r="R219" s="41"/>
+      <c r="S219" s="42"/>
+      <c r="T219" s="43" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="220" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A220" s="50">
+      <c r="A220" s="38">
         <v>150</v>
       </c>
-      <c r="B220" s="51" t="s">
+      <c r="B220" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C220" s="51" t="s">
+      <c r="C220" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D220" s="51" t="s">
+      <c r="D220" s="39" t="s">
         <v>645</v>
       </c>
-      <c r="E220" s="52" t="s">
+      <c r="E220" s="40" t="s">
         <v>646</v>
       </c>
-      <c r="F220" s="56"/>
+      <c r="F220" s="44"/>
       <c r="G220" s="37"/>
       <c r="H220" s="37"/>
       <c r="I220" s="37"/>
@@ -14178,26 +14199,26 @@
       <c r="O220" s="35"/>
       <c r="P220" s="35"/>
       <c r="Q220" s="35"/>
-      <c r="R220" s="53"/>
-      <c r="S220" s="54"/>
-      <c r="T220" s="55" t="s">
+      <c r="R220" s="41"/>
+      <c r="S220" s="42"/>
+      <c r="T220" s="43" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="221" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A221" s="50">
+      <c r="A221" s="38">
         <v>151</v>
       </c>
-      <c r="B221" s="51" t="s">
+      <c r="B221" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C221" s="51" t="s">
+      <c r="C221" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D221" s="51" t="s">
+      <c r="D221" s="39" t="s">
         <v>647</v>
       </c>
-      <c r="E221" s="52" t="s">
+      <c r="E221" s="40" t="s">
         <v>648</v>
       </c>
       <c r="F221" s="33" t="s">
@@ -14232,26 +14253,26 @@
         <v>531</v>
       </c>
       <c r="Q221" s="35"/>
-      <c r="R221" s="53"/>
-      <c r="S221" s="54"/>
-      <c r="T221" s="55" t="s">
+      <c r="R221" s="41"/>
+      <c r="S221" s="42"/>
+      <c r="T221" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="222" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A222" s="50">
+      <c r="A222" s="38">
         <v>152</v>
       </c>
-      <c r="B222" s="51" t="s">
+      <c r="B222" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C222" s="51" t="s">
+      <c r="C222" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D222" s="51" t="s">
+      <c r="D222" s="39" t="s">
         <v>652</v>
       </c>
-      <c r="E222" s="52" t="s">
+      <c r="E222" s="40" t="s">
         <v>653</v>
       </c>
       <c r="F222" s="33" t="s">
@@ -14286,26 +14307,26 @@
         <v>657</v>
       </c>
       <c r="Q222" s="35"/>
-      <c r="R222" s="53"/>
-      <c r="S222" s="54"/>
-      <c r="T222" s="55" t="s">
+      <c r="R222" s="41"/>
+      <c r="S222" s="42"/>
+      <c r="T222" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="223" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A223" s="50">
+      <c r="A223" s="38">
         <v>153</v>
       </c>
-      <c r="B223" s="51" t="s">
+      <c r="B223" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C223" s="51" t="s">
+      <c r="C223" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D223" s="51" t="s">
+      <c r="D223" s="39" t="s">
         <v>658</v>
       </c>
-      <c r="E223" s="52" t="s">
+      <c r="E223" s="40" t="s">
         <v>659</v>
       </c>
       <c r="F223" s="33" t="s">
@@ -14340,26 +14361,26 @@
         <v>531</v>
       </c>
       <c r="Q223" s="35"/>
-      <c r="R223" s="53"/>
-      <c r="S223" s="54"/>
-      <c r="T223" s="55" t="s">
+      <c r="R223" s="41"/>
+      <c r="S223" s="42"/>
+      <c r="T223" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="224" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A224" s="50">
+      <c r="A224" s="38">
         <v>154</v>
       </c>
-      <c r="B224" s="51" t="s">
+      <c r="B224" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C224" s="51" t="s">
+      <c r="C224" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D224" s="51" t="s">
+      <c r="D224" s="39" t="s">
         <v>663</v>
       </c>
-      <c r="E224" s="52" t="s">
+      <c r="E224" s="40" t="s">
         <v>664</v>
       </c>
       <c r="F224" s="33" t="s">
@@ -14394,26 +14415,26 @@
         <v>531</v>
       </c>
       <c r="Q224" s="35"/>
-      <c r="R224" s="53"/>
-      <c r="S224" s="54"/>
-      <c r="T224" s="55" t="s">
+      <c r="R224" s="41"/>
+      <c r="S224" s="42"/>
+      <c r="T224" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="225" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A225" s="50">
+      <c r="A225" s="38">
         <v>155</v>
       </c>
-      <c r="B225" s="51" t="s">
+      <c r="B225" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C225" s="51" t="s">
+      <c r="C225" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D225" s="51" t="s">
+      <c r="D225" s="39" t="s">
         <v>668</v>
       </c>
-      <c r="E225" s="52" t="s">
+      <c r="E225" s="40" t="s">
         <v>669</v>
       </c>
       <c r="F225" s="33" t="s">
@@ -14448,26 +14469,26 @@
         <v>531</v>
       </c>
       <c r="Q225" s="35"/>
-      <c r="R225" s="53"/>
-      <c r="S225" s="54"/>
-      <c r="T225" s="55" t="s">
+      <c r="R225" s="41"/>
+      <c r="S225" s="42"/>
+      <c r="T225" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="226" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A226" s="50">
+      <c r="A226" s="38">
         <v>156</v>
       </c>
-      <c r="B226" s="51" t="s">
+      <c r="B226" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C226" s="51" t="s">
+      <c r="C226" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D226" s="51" t="s">
+      <c r="D226" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="E226" s="52" t="s">
+      <c r="E226" s="40" t="s">
         <v>674</v>
       </c>
       <c r="F226" s="33" t="s">
@@ -14502,29 +14523,29 @@
         <v>531</v>
       </c>
       <c r="Q226" s="35"/>
-      <c r="R226" s="53"/>
-      <c r="S226" s="54"/>
-      <c r="T226" s="55" t="s">
+      <c r="R226" s="41"/>
+      <c r="S226" s="42"/>
+      <c r="T226" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="227" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A227" s="50">
+      <c r="A227" s="38">
         <v>157</v>
       </c>
-      <c r="B227" s="51" t="s">
+      <c r="B227" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C227" s="51" t="s">
+      <c r="C227" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D227" s="51" t="s">
+      <c r="D227" s="39" t="s">
         <v>679</v>
       </c>
-      <c r="E227" s="52" t="s">
+      <c r="E227" s="40" t="s">
         <v>680</v>
       </c>
-      <c r="F227" s="56"/>
+      <c r="F227" s="44"/>
       <c r="G227" s="37"/>
       <c r="H227" s="37"/>
       <c r="I227" s="37"/>
@@ -14540,26 +14561,26 @@
       <c r="O227" s="35"/>
       <c r="P227" s="35"/>
       <c r="Q227" s="35"/>
-      <c r="R227" s="53"/>
-      <c r="S227" s="54"/>
-      <c r="T227" s="55" t="s">
+      <c r="R227" s="41"/>
+      <c r="S227" s="42"/>
+      <c r="T227" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="228" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A228" s="50">
+      <c r="A228" s="38">
         <v>158</v>
       </c>
-      <c r="B228" s="51" t="s">
+      <c r="B228" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C228" s="51" t="s">
+      <c r="C228" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D228" s="51" t="s">
+      <c r="D228" s="39" t="s">
         <v>682</v>
       </c>
-      <c r="E228" s="52" t="s">
+      <c r="E228" s="40" t="s">
         <v>683</v>
       </c>
       <c r="F228" s="33" t="s">
@@ -14594,26 +14615,26 @@
         <v>581</v>
       </c>
       <c r="Q228" s="35"/>
-      <c r="R228" s="53"/>
-      <c r="S228" s="54"/>
-      <c r="T228" s="55" t="s">
+      <c r="R228" s="41"/>
+      <c r="S228" s="42"/>
+      <c r="T228" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="229" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A229" s="50">
+      <c r="A229" s="38">
         <v>159</v>
       </c>
-      <c r="B229" s="51" t="s">
+      <c r="B229" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C229" s="51" t="s">
+      <c r="C229" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D229" s="51" t="s">
+      <c r="D229" s="39" t="s">
         <v>576</v>
       </c>
-      <c r="E229" s="52" t="s">
+      <c r="E229" s="40" t="s">
         <v>577</v>
       </c>
       <c r="F229" s="33" t="s">
@@ -14648,26 +14669,26 @@
         <v>581</v>
       </c>
       <c r="Q229" s="35"/>
-      <c r="R229" s="53"/>
-      <c r="S229" s="54"/>
-      <c r="T229" s="55" t="s">
+      <c r="R229" s="41"/>
+      <c r="S229" s="42"/>
+      <c r="T229" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="230" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A230" s="50">
+      <c r="A230" s="38">
         <v>160</v>
       </c>
-      <c r="B230" s="51" t="s">
+      <c r="B230" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C230" s="51" t="s">
+      <c r="C230" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D230" s="51" t="s">
+      <c r="D230" s="39" t="s">
         <v>582</v>
       </c>
-      <c r="E230" s="52" t="s">
+      <c r="E230" s="40" t="s">
         <v>583</v>
       </c>
       <c r="F230" s="33" t="s">
@@ -14702,26 +14723,26 @@
         <v>587</v>
       </c>
       <c r="Q230" s="35"/>
-      <c r="R230" s="53"/>
-      <c r="S230" s="54"/>
-      <c r="T230" s="55" t="s">
+      <c r="R230" s="41"/>
+      <c r="S230" s="42"/>
+      <c r="T230" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="231" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A231" s="50">
+      <c r="A231" s="38">
         <v>161</v>
       </c>
-      <c r="B231" s="51" t="s">
+      <c r="B231" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C231" s="51" t="s">
+      <c r="C231" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D231" s="51" t="s">
+      <c r="D231" s="39" t="s">
         <v>588</v>
       </c>
-      <c r="E231" s="52" t="s">
+      <c r="E231" s="40" t="s">
         <v>589</v>
       </c>
       <c r="F231" s="33" t="s">
@@ -14756,29 +14777,29 @@
         <v>593</v>
       </c>
       <c r="Q231" s="35"/>
-      <c r="R231" s="53"/>
-      <c r="S231" s="54"/>
-      <c r="T231" s="55" t="s">
+      <c r="R231" s="41"/>
+      <c r="S231" s="42"/>
+      <c r="T231" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="232" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A232" s="50">
+      <c r="A232" s="38">
         <v>162</v>
       </c>
-      <c r="B232" s="51" t="s">
+      <c r="B232" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C232" s="51" t="s">
+      <c r="C232" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D232" s="51" t="s">
+      <c r="D232" s="39" t="s">
         <v>594</v>
       </c>
-      <c r="E232" s="52" t="s">
+      <c r="E232" s="40" t="s">
         <v>595</v>
       </c>
-      <c r="F232" s="56"/>
+      <c r="F232" s="44"/>
       <c r="G232" s="37"/>
       <c r="H232" s="37"/>
       <c r="I232" s="37"/>
@@ -14794,26 +14815,26 @@
       <c r="O232" s="35"/>
       <c r="P232" s="35"/>
       <c r="Q232" s="35"/>
-      <c r="R232" s="53"/>
-      <c r="S232" s="54"/>
-      <c r="T232" s="55" t="s">
+      <c r="R232" s="41"/>
+      <c r="S232" s="42"/>
+      <c r="T232" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="233" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A233" s="50">
+      <c r="A233" s="38">
         <v>163</v>
       </c>
-      <c r="B233" s="51" t="s">
+      <c r="B233" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C233" s="51" t="s">
+      <c r="C233" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D233" s="51" t="s">
+      <c r="D233" s="39" t="s">
         <v>597</v>
       </c>
-      <c r="E233" s="52" t="s">
+      <c r="E233" s="40" t="s">
         <v>598</v>
       </c>
       <c r="F233" s="33" t="s">
@@ -14832,35 +14853,45 @@
         <v>73</v>
       </c>
       <c r="K233" s="35"/>
-      <c r="L233" s="35"/>
-      <c r="M233" s="35"/>
-      <c r="N233" s="35"/>
-      <c r="O233" s="35"/>
-      <c r="P233" s="35"/>
+      <c r="L233" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="M233" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="N233" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="O233" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="P233" s="25" t="s">
+        <v>687</v>
+      </c>
       <c r="Q233" s="35"/>
-      <c r="R233" s="53"/>
-      <c r="S233" s="54"/>
-      <c r="T233" s="55" t="s">
+      <c r="R233" s="41"/>
+      <c r="S233" s="42"/>
+      <c r="T233" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="234" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A234" s="50">
+      <c r="A234" s="38">
         <v>164</v>
       </c>
-      <c r="B234" s="51" t="s">
+      <c r="B234" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C234" s="51" t="s">
+      <c r="C234" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D234" s="51" t="s">
+      <c r="D234" s="39" t="s">
         <v>602</v>
       </c>
-      <c r="E234" s="52" t="s">
+      <c r="E234" s="40" t="s">
         <v>603</v>
       </c>
-      <c r="F234" s="56"/>
+      <c r="F234" s="44"/>
       <c r="G234" s="37"/>
       <c r="H234" s="37"/>
       <c r="I234" s="37"/>
@@ -14876,29 +14907,29 @@
       <c r="O234" s="35"/>
       <c r="P234" s="35"/>
       <c r="Q234" s="35"/>
-      <c r="R234" s="53"/>
-      <c r="S234" s="54"/>
-      <c r="T234" s="55" t="s">
+      <c r="R234" s="41"/>
+      <c r="S234" s="42"/>
+      <c r="T234" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="235" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A235" s="50">
+      <c r="A235" s="38">
         <v>165</v>
       </c>
-      <c r="B235" s="51" t="s">
+      <c r="B235" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C235" s="51" t="s">
+      <c r="C235" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D235" s="51" t="s">
+      <c r="D235" s="39" t="s">
         <v>605</v>
       </c>
-      <c r="E235" s="52" t="s">
+      <c r="E235" s="40" t="s">
         <v>606</v>
       </c>
-      <c r="F235" s="56"/>
+      <c r="F235" s="44"/>
       <c r="G235" s="37"/>
       <c r="H235" s="37"/>
       <c r="I235" s="37"/>
@@ -14914,29 +14945,29 @@
       <c r="O235" s="35"/>
       <c r="P235" s="35"/>
       <c r="Q235" s="35"/>
-      <c r="R235" s="53"/>
-      <c r="S235" s="54"/>
-      <c r="T235" s="55" t="s">
+      <c r="R235" s="41"/>
+      <c r="S235" s="42"/>
+      <c r="T235" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="236" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A236" s="50">
+      <c r="A236" s="38">
         <v>166</v>
       </c>
-      <c r="B236" s="51" t="s">
+      <c r="B236" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C236" s="51" t="s">
+      <c r="C236" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D236" s="51" t="s">
+      <c r="D236" s="39" t="s">
         <v>608</v>
       </c>
-      <c r="E236" s="52" t="s">
+      <c r="E236" s="40" t="s">
         <v>609</v>
       </c>
-      <c r="F236" s="56"/>
+      <c r="F236" s="44"/>
       <c r="G236" s="37"/>
       <c r="H236" s="37"/>
       <c r="I236" s="37"/>
@@ -14952,29 +14983,29 @@
       <c r="O236" s="35"/>
       <c r="P236" s="35"/>
       <c r="Q236" s="35"/>
-      <c r="R236" s="53"/>
-      <c r="S236" s="54"/>
-      <c r="T236" s="55" t="s">
+      <c r="R236" s="41"/>
+      <c r="S236" s="42"/>
+      <c r="T236" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="237" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A237" s="50">
+      <c r="A237" s="38">
         <v>167</v>
       </c>
-      <c r="B237" s="51" t="s">
+      <c r="B237" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C237" s="51" t="s">
+      <c r="C237" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D237" s="51" t="s">
+      <c r="D237" s="39" t="s">
         <v>610</v>
       </c>
-      <c r="E237" s="52" t="s">
+      <c r="E237" s="40" t="s">
         <v>611</v>
       </c>
-      <c r="F237" s="56"/>
+      <c r="F237" s="44"/>
       <c r="G237" s="37"/>
       <c r="H237" s="37"/>
       <c r="I237" s="37"/>
@@ -14990,29 +15021,29 @@
       <c r="O237" s="35"/>
       <c r="P237" s="35"/>
       <c r="Q237" s="35"/>
-      <c r="R237" s="53"/>
-      <c r="S237" s="54"/>
-      <c r="T237" s="55" t="s">
+      <c r="R237" s="41"/>
+      <c r="S237" s="42"/>
+      <c r="T237" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="238" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A238" s="50">
+      <c r="A238" s="38">
         <v>168</v>
       </c>
-      <c r="B238" s="51" t="s">
+      <c r="B238" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C238" s="51" t="s">
+      <c r="C238" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D238" s="51" t="s">
+      <c r="D238" s="39" t="s">
         <v>612</v>
       </c>
-      <c r="E238" s="52" t="s">
+      <c r="E238" s="40" t="s">
         <v>613</v>
       </c>
-      <c r="F238" s="56"/>
+      <c r="F238" s="44"/>
       <c r="G238" s="37"/>
       <c r="H238" s="37"/>
       <c r="I238" s="37"/>
@@ -15028,26 +15059,26 @@
       <c r="O238" s="35"/>
       <c r="P238" s="35"/>
       <c r="Q238" s="35"/>
-      <c r="R238" s="53"/>
-      <c r="S238" s="54"/>
-      <c r="T238" s="55" t="s">
+      <c r="R238" s="41"/>
+      <c r="S238" s="42"/>
+      <c r="T238" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="239" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A239" s="50">
+      <c r="A239" s="38">
         <v>169</v>
       </c>
-      <c r="B239" s="51" t="s">
+      <c r="B239" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C239" s="51" t="s">
+      <c r="C239" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D239" s="51" t="s">
+      <c r="D239" s="39" t="s">
         <v>614</v>
       </c>
-      <c r="E239" s="52" t="s">
+      <c r="E239" s="40" t="s">
         <v>615</v>
       </c>
       <c r="F239" s="33" t="s">
@@ -15082,26 +15113,26 @@
         <v>593</v>
       </c>
       <c r="Q239" s="35"/>
-      <c r="R239" s="53"/>
-      <c r="S239" s="54"/>
-      <c r="T239" s="55" t="s">
+      <c r="R239" s="41"/>
+      <c r="S239" s="42"/>
+      <c r="T239" s="43" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="240" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A240" s="50">
+      <c r="A240" s="38">
         <v>374</v>
       </c>
-      <c r="B240" s="51" t="s">
+      <c r="B240" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C240" s="51" t="s">
+      <c r="C240" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D240" s="51" t="s">
+      <c r="D240" s="39" t="s">
         <v>619</v>
       </c>
-      <c r="E240" s="52" t="s">
+      <c r="E240" s="40" t="s">
         <v>620</v>
       </c>
       <c r="F240" s="33" t="s">
@@ -15126,9 +15157,9 @@
       <c r="O240" s="35"/>
       <c r="P240" s="35"/>
       <c r="Q240" s="35"/>
-      <c r="R240" s="53"/>
-      <c r="S240" s="54"/>
-      <c r="T240" s="55" t="s">
+      <c r="R240" s="41"/>
+      <c r="S240" s="42"/>
+      <c r="T240" s="43" t="s">
         <v>51</v>
       </c>
     </row>

--- a/GATEWAY/A1#111ELIOSSUITEXX/eliossuite/0012023/3/report-checklist.xlsx
+++ b/GATEWAY/A1#111ELIOSSUITEXX/eliossuite/0012023/3/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\FSE2\TEST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fse_git\it-fse-accreditamento\GATEWAY\A1#111ELIOSSUITEXX\eliossuite\0012023\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69296197-5E2E-4CB4-A952-E2D3CC465200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B815D58E-1F72-4A80-B6B2-E1D1BCB4A049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="688">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -3402,6 +3402,15 @@
   </si>
   <si>
     <t>Elios Suite SRL</t>
+  </si>
+  <si>
+    <t>L'utente viene invitato a rigenerare il token attenzionando i parametri inseriti</t>
+  </si>
+  <si>
+    <t>L'utente viene invitato a riprovare dopo errore di timeout</t>
+  </si>
+  <si>
+    <t>L'utente viene inviato a compilare tutti i campi necessari per la validazione del cda2</t>
   </si>
 </sst>
 </file>
@@ -3870,28 +3879,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3918,6 +3905,28 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -6380,10 +6389,10 @@
   <dimension ref="A1:T830"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B223" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6422,14 +6431,14 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="51" t="s">
         <v>684</v>
       </c>
-      <c r="D2" s="41"/>
+      <c r="D2" s="50"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -6447,11 +6456,11 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="49" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="58" t="s">
         <v>681</v>
       </c>
       <c r="D3" s="59"/>
@@ -6472,9 +6481,9 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="49" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="58" t="s">
         <v>682</v>
       </c>
       <c r="D4" s="59"/>
@@ -6496,9 +6505,9 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58" t="s">
         <v>683</v>
       </c>
       <c r="D5" s="59"/>
@@ -6519,8 +6528,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -6867,11 +6876,21 @@
         <v>70</v>
       </c>
       <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
+      <c r="L15" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>685</v>
+      </c>
       <c r="Q15" s="25"/>
       <c r="R15" s="26"/>
       <c r="S15" s="27"/>
@@ -6911,11 +6930,21 @@
         <v>70</v>
       </c>
       <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
+      <c r="L16" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>685</v>
+      </c>
       <c r="Q16" s="25"/>
       <c r="R16" s="26"/>
       <c r="S16" s="27"/>
@@ -6947,11 +6976,21 @@
         <v>70</v>
       </c>
       <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
+      <c r="L17" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="25" t="s">
+        <v>686</v>
+      </c>
       <c r="Q17" s="25"/>
       <c r="R17" s="26" t="s">
         <v>70</v>
@@ -13856,19 +13895,19 @@
       </c>
     </row>
     <row r="214" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A214" s="50">
+      <c r="A214" s="38">
         <v>32</v>
       </c>
-      <c r="B214" s="51" t="s">
+      <c r="B214" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C214" s="51" t="s">
+      <c r="C214" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D214" s="51" t="s">
+      <c r="D214" s="39" t="s">
         <v>569</v>
       </c>
-      <c r="E214" s="52" t="s">
+      <c r="E214" s="40" t="s">
         <v>570</v>
       </c>
       <c r="F214" s="33" t="s">
@@ -13886,7 +13925,7 @@
       <c r="J214" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="K214" s="53"/>
+      <c r="K214" s="41"/>
       <c r="L214" s="25" t="s">
         <v>70</v>
       </c>
@@ -13902,27 +13941,27 @@
       <c r="P214" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="Q214" s="53"/>
-      <c r="R214" s="54"/>
-      <c r="S214" s="55"/>
-      <c r="T214" s="56" t="s">
+      <c r="Q214" s="41"/>
+      <c r="R214" s="42"/>
+      <c r="S214" s="43"/>
+      <c r="T214" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="215" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A215" s="50">
+      <c r="A215" s="38">
         <v>40</v>
       </c>
-      <c r="B215" s="51" t="s">
+      <c r="B215" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C215" s="51" t="s">
+      <c r="C215" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D215" s="51" t="s">
+      <c r="D215" s="39" t="s">
         <v>575</v>
       </c>
-      <c r="E215" s="52" t="s">
+      <c r="E215" s="40" t="s">
         <v>576</v>
       </c>
       <c r="F215" s="33" t="s">
@@ -13940,7 +13979,7 @@
       <c r="J215" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="K215" s="53"/>
+      <c r="K215" s="41"/>
       <c r="L215" s="25" t="s">
         <v>70</v>
       </c>
@@ -13956,37 +13995,37 @@
       <c r="P215" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="Q215" s="53"/>
-      <c r="R215" s="54"/>
-      <c r="S215" s="55"/>
-      <c r="T215" s="56" t="s">
+      <c r="Q215" s="41"/>
+      <c r="R215" s="42"/>
+      <c r="S215" s="43"/>
+      <c r="T215" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="216" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A216" s="50">
+      <c r="A216" s="38">
         <v>48</v>
       </c>
-      <c r="B216" s="51" t="s">
+      <c r="B216" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C216" s="51" t="s">
+      <c r="C216" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D216" s="51" t="s">
+      <c r="D216" s="39" t="s">
         <v>579</v>
       </c>
-      <c r="E216" s="52" t="s">
+      <c r="E216" s="40" t="s">
         <v>69</v>
       </c>
       <c r="F216" s="33"/>
       <c r="G216" s="33"/>
-      <c r="H216" s="57"/>
-      <c r="I216" s="57"/>
+      <c r="H216" s="45"/>
+      <c r="I216" s="45"/>
       <c r="J216" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="K216" s="53"/>
+      <c r="K216" s="41"/>
       <c r="L216" s="25" t="s">
         <v>70</v>
       </c>
@@ -14002,29 +14041,29 @@
       <c r="P216" s="25" t="s">
         <v>581</v>
       </c>
-      <c r="Q216" s="53"/>
-      <c r="R216" s="54" t="s">
+      <c r="Q216" s="41"/>
+      <c r="R216" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="S216" s="55"/>
-      <c r="T216" s="56" t="s">
+      <c r="S216" s="43"/>
+      <c r="T216" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="217" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A217" s="50">
+      <c r="A217" s="38">
         <v>147</v>
       </c>
-      <c r="B217" s="51" t="s">
+      <c r="B217" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C217" s="51" t="s">
+      <c r="C217" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D217" s="51" t="s">
+      <c r="D217" s="39" t="s">
         <v>582</v>
       </c>
-      <c r="E217" s="52" t="s">
+      <c r="E217" s="40" t="s">
         <v>583</v>
       </c>
       <c r="F217" s="33" t="s">
@@ -14042,144 +14081,144 @@
       <c r="J217" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="K217" s="53"/>
-      <c r="L217" s="53"/>
-      <c r="M217" s="53"/>
-      <c r="N217" s="53"/>
-      <c r="O217" s="53"/>
-      <c r="P217" s="53"/>
-      <c r="Q217" s="53"/>
-      <c r="R217" s="54"/>
-      <c r="S217" s="55"/>
-      <c r="T217" s="56" t="s">
+      <c r="K217" s="41"/>
+      <c r="L217" s="41"/>
+      <c r="M217" s="41"/>
+      <c r="N217" s="41"/>
+      <c r="O217" s="41"/>
+      <c r="P217" s="41"/>
+      <c r="Q217" s="41"/>
+      <c r="R217" s="42"/>
+      <c r="S217" s="43"/>
+      <c r="T217" s="44" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="218" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A218" s="50">
+      <c r="A218" s="38">
         <v>148</v>
       </c>
-      <c r="B218" s="51" t="s">
+      <c r="B218" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C218" s="51" t="s">
+      <c r="C218" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D218" s="51" t="s">
+      <c r="D218" s="39" t="s">
         <v>587</v>
       </c>
-      <c r="E218" s="52" t="s">
+      <c r="E218" s="40" t="s">
         <v>588</v>
       </c>
-      <c r="F218" s="58"/>
-      <c r="G218" s="57"/>
-      <c r="H218" s="57"/>
-      <c r="I218" s="57"/>
+      <c r="F218" s="46"/>
+      <c r="G218" s="45"/>
+      <c r="H218" s="45"/>
+      <c r="I218" s="45"/>
       <c r="J218" s="25" t="s">
         <v>515</v>
       </c>
       <c r="K218" s="37" t="s">
         <v>521</v>
       </c>
-      <c r="L218" s="53"/>
-      <c r="M218" s="53"/>
-      <c r="N218" s="53"/>
-      <c r="O218" s="53"/>
-      <c r="P218" s="53"/>
-      <c r="Q218" s="53"/>
-      <c r="R218" s="54"/>
-      <c r="S218" s="55"/>
-      <c r="T218" s="56" t="s">
+      <c r="L218" s="41"/>
+      <c r="M218" s="41"/>
+      <c r="N218" s="41"/>
+      <c r="O218" s="41"/>
+      <c r="P218" s="41"/>
+      <c r="Q218" s="41"/>
+      <c r="R218" s="42"/>
+      <c r="S218" s="43"/>
+      <c r="T218" s="44" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="219" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A219" s="50">
+      <c r="A219" s="38">
         <v>149</v>
       </c>
-      <c r="B219" s="51" t="s">
+      <c r="B219" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C219" s="51" t="s">
+      <c r="C219" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D219" s="51" t="s">
+      <c r="D219" s="39" t="s">
         <v>589</v>
       </c>
-      <c r="E219" s="52" t="s">
+      <c r="E219" s="40" t="s">
         <v>590</v>
       </c>
-      <c r="F219" s="58"/>
-      <c r="G219" s="57"/>
-      <c r="H219" s="57"/>
-      <c r="I219" s="57"/>
+      <c r="F219" s="46"/>
+      <c r="G219" s="45"/>
+      <c r="H219" s="45"/>
+      <c r="I219" s="45"/>
       <c r="J219" s="25" t="s">
         <v>515</v>
       </c>
       <c r="K219" s="37" t="s">
         <v>521</v>
       </c>
-      <c r="L219" s="53"/>
-      <c r="M219" s="53"/>
-      <c r="N219" s="53"/>
-      <c r="O219" s="53"/>
-      <c r="P219" s="53"/>
-      <c r="Q219" s="53"/>
-      <c r="R219" s="54"/>
-      <c r="S219" s="55"/>
-      <c r="T219" s="56" t="s">
+      <c r="L219" s="41"/>
+      <c r="M219" s="41"/>
+      <c r="N219" s="41"/>
+      <c r="O219" s="41"/>
+      <c r="P219" s="41"/>
+      <c r="Q219" s="41"/>
+      <c r="R219" s="42"/>
+      <c r="S219" s="43"/>
+      <c r="T219" s="44" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="220" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A220" s="50">
+      <c r="A220" s="38">
         <v>150</v>
       </c>
-      <c r="B220" s="51" t="s">
+      <c r="B220" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C220" s="51" t="s">
+      <c r="C220" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D220" s="51" t="s">
+      <c r="D220" s="39" t="s">
         <v>591</v>
       </c>
-      <c r="E220" s="52" t="s">
+      <c r="E220" s="40" t="s">
         <v>592</v>
       </c>
-      <c r="F220" s="58"/>
-      <c r="G220" s="57"/>
-      <c r="H220" s="57"/>
-      <c r="I220" s="57"/>
+      <c r="F220" s="46"/>
+      <c r="G220" s="45"/>
+      <c r="H220" s="45"/>
+      <c r="I220" s="45"/>
       <c r="J220" s="25" t="s">
         <v>515</v>
       </c>
       <c r="K220" s="37" t="s">
         <v>521</v>
       </c>
-      <c r="L220" s="53"/>
-      <c r="M220" s="53"/>
-      <c r="N220" s="53"/>
-      <c r="O220" s="53"/>
-      <c r="P220" s="53"/>
-      <c r="Q220" s="53"/>
-      <c r="R220" s="54"/>
-      <c r="S220" s="55"/>
-      <c r="T220" s="56" t="s">
+      <c r="L220" s="41"/>
+      <c r="M220" s="41"/>
+      <c r="N220" s="41"/>
+      <c r="O220" s="41"/>
+      <c r="P220" s="41"/>
+      <c r="Q220" s="41"/>
+      <c r="R220" s="42"/>
+      <c r="S220" s="43"/>
+      <c r="T220" s="44" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="221" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A221" s="50">
+      <c r="A221" s="38">
         <v>151</v>
       </c>
-      <c r="B221" s="51" t="s">
+      <c r="B221" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C221" s="51" t="s">
+      <c r="C221" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D221" s="51" t="s">
+      <c r="D221" s="39" t="s">
         <v>593</v>
       </c>
       <c r="E221" s="22" t="s">
@@ -14200,8 +14239,8 @@
       <c r="J221" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="K221" s="53"/>
-      <c r="L221" s="53" t="s">
+      <c r="K221" s="41"/>
+      <c r="L221" s="41" t="s">
         <v>70</v>
       </c>
       <c r="M221" s="25" t="s">
@@ -14216,27 +14255,27 @@
       <c r="P221" s="25" t="s">
         <v>519</v>
       </c>
-      <c r="Q221" s="53"/>
-      <c r="R221" s="54"/>
-      <c r="S221" s="55"/>
-      <c r="T221" s="56" t="s">
+      <c r="Q221" s="41"/>
+      <c r="R221" s="42"/>
+      <c r="S221" s="43"/>
+      <c r="T221" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="222" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A222" s="50">
+      <c r="A222" s="38">
         <v>152</v>
       </c>
-      <c r="B222" s="51" t="s">
+      <c r="B222" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C222" s="51" t="s">
+      <c r="C222" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D222" s="51" t="s">
+      <c r="D222" s="39" t="s">
         <v>598</v>
       </c>
-      <c r="E222" s="52" t="s">
+      <c r="E222" s="40" t="s">
         <v>599</v>
       </c>
       <c r="F222" s="33" t="s">
@@ -14254,7 +14293,7 @@
       <c r="J222" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="K222" s="53"/>
+      <c r="K222" s="41"/>
       <c r="L222" s="25" t="s">
         <v>70</v>
       </c>
@@ -14270,27 +14309,27 @@
       <c r="P222" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="Q222" s="53"/>
-      <c r="R222" s="54"/>
-      <c r="S222" s="55"/>
-      <c r="T222" s="56" t="s">
+      <c r="Q222" s="41"/>
+      <c r="R222" s="42"/>
+      <c r="S222" s="43"/>
+      <c r="T222" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="223" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A223" s="50">
+      <c r="A223" s="38">
         <v>153</v>
       </c>
-      <c r="B223" s="51" t="s">
+      <c r="B223" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C223" s="51" t="s">
+      <c r="C223" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D223" s="51" t="s">
+      <c r="D223" s="39" t="s">
         <v>604</v>
       </c>
-      <c r="E223" s="52" t="s">
+      <c r="E223" s="40" t="s">
         <v>605</v>
       </c>
       <c r="F223" s="33" t="s">
@@ -14308,7 +14347,7 @@
       <c r="J223" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="K223" s="53"/>
+      <c r="K223" s="41"/>
       <c r="L223" s="25" t="s">
         <v>70</v>
       </c>
@@ -14324,27 +14363,27 @@
       <c r="P223" s="25" t="s">
         <v>519</v>
       </c>
-      <c r="Q223" s="53"/>
-      <c r="R223" s="54"/>
-      <c r="S223" s="55"/>
-      <c r="T223" s="56" t="s">
+      <c r="Q223" s="41"/>
+      <c r="R223" s="42"/>
+      <c r="S223" s="43"/>
+      <c r="T223" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="224" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A224" s="50">
+      <c r="A224" s="38">
         <v>154</v>
       </c>
-      <c r="B224" s="51" t="s">
+      <c r="B224" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C224" s="51" t="s">
+      <c r="C224" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D224" s="51" t="s">
+      <c r="D224" s="39" t="s">
         <v>609</v>
       </c>
-      <c r="E224" s="52" t="s">
+      <c r="E224" s="40" t="s">
         <v>610</v>
       </c>
       <c r="F224" s="33" t="s">
@@ -14362,7 +14401,7 @@
       <c r="J224" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="K224" s="53"/>
+      <c r="K224" s="41"/>
       <c r="L224" s="25" t="s">
         <v>70</v>
       </c>
@@ -14378,27 +14417,27 @@
       <c r="P224" s="25" t="s">
         <v>519</v>
       </c>
-      <c r="Q224" s="53"/>
-      <c r="R224" s="54"/>
-      <c r="S224" s="55"/>
-      <c r="T224" s="56" t="s">
+      <c r="Q224" s="41"/>
+      <c r="R224" s="42"/>
+      <c r="S224" s="43"/>
+      <c r="T224" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="225" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A225" s="50">
+      <c r="A225" s="38">
         <v>155</v>
       </c>
-      <c r="B225" s="51" t="s">
+      <c r="B225" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C225" s="51" t="s">
+      <c r="C225" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D225" s="51" t="s">
+      <c r="D225" s="39" t="s">
         <v>614</v>
       </c>
-      <c r="E225" s="52" t="s">
+      <c r="E225" s="40" t="s">
         <v>615</v>
       </c>
       <c r="F225" s="33" t="s">
@@ -14416,7 +14455,7 @@
       <c r="J225" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="K225" s="53"/>
+      <c r="K225" s="41"/>
       <c r="L225" s="25" t="s">
         <v>70</v>
       </c>
@@ -14432,27 +14471,27 @@
       <c r="P225" s="25" t="s">
         <v>519</v>
       </c>
-      <c r="Q225" s="53"/>
-      <c r="R225" s="54"/>
-      <c r="S225" s="55"/>
-      <c r="T225" s="56" t="s">
+      <c r="Q225" s="41"/>
+      <c r="R225" s="42"/>
+      <c r="S225" s="43"/>
+      <c r="T225" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="226" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A226" s="50">
+      <c r="A226" s="38">
         <v>156</v>
       </c>
-      <c r="B226" s="51" t="s">
+      <c r="B226" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C226" s="51" t="s">
+      <c r="C226" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D226" s="51" t="s">
+      <c r="D226" s="39" t="s">
         <v>619</v>
       </c>
-      <c r="E226" s="52" t="s">
+      <c r="E226" s="40" t="s">
         <v>620</v>
       </c>
       <c r="F226" s="33" t="s">
@@ -14470,7 +14509,7 @@
       <c r="J226" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="K226" s="53"/>
+      <c r="K226" s="41"/>
       <c r="L226" s="25" t="s">
         <v>70</v>
       </c>
@@ -14486,65 +14525,65 @@
       <c r="P226" s="25" t="s">
         <v>519</v>
       </c>
-      <c r="Q226" s="53"/>
-      <c r="R226" s="54"/>
-      <c r="S226" s="55"/>
-      <c r="T226" s="56" t="s">
+      <c r="Q226" s="41"/>
+      <c r="R226" s="42"/>
+      <c r="S226" s="43"/>
+      <c r="T226" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="227" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A227" s="50">
+      <c r="A227" s="38">
         <v>157</v>
       </c>
-      <c r="B227" s="51" t="s">
+      <c r="B227" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C227" s="51" t="s">
+      <c r="C227" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D227" s="51" t="s">
+      <c r="D227" s="39" t="s">
         <v>625</v>
       </c>
-      <c r="E227" s="52" t="s">
+      <c r="E227" s="40" t="s">
         <v>626</v>
       </c>
-      <c r="F227" s="58"/>
-      <c r="G227" s="57"/>
-      <c r="H227" s="57"/>
-      <c r="I227" s="57"/>
+      <c r="F227" s="46"/>
+      <c r="G227" s="45"/>
+      <c r="H227" s="45"/>
+      <c r="I227" s="45"/>
       <c r="J227" s="25" t="s">
         <v>515</v>
       </c>
       <c r="K227" s="25" t="s">
         <v>627</v>
       </c>
-      <c r="L227" s="53"/>
-      <c r="M227" s="53"/>
-      <c r="N227" s="53"/>
-      <c r="O227" s="53"/>
-      <c r="P227" s="53"/>
-      <c r="Q227" s="53"/>
-      <c r="R227" s="54"/>
-      <c r="S227" s="55"/>
-      <c r="T227" s="56" t="s">
+      <c r="L227" s="41"/>
+      <c r="M227" s="41"/>
+      <c r="N227" s="41"/>
+      <c r="O227" s="41"/>
+      <c r="P227" s="41"/>
+      <c r="Q227" s="41"/>
+      <c r="R227" s="42"/>
+      <c r="S227" s="43"/>
+      <c r="T227" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="228" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A228" s="50">
+      <c r="A228" s="38">
         <v>158</v>
       </c>
-      <c r="B228" s="51" t="s">
+      <c r="B228" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C228" s="51" t="s">
+      <c r="C228" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D228" s="51" t="s">
+      <c r="D228" s="39" t="s">
         <v>628</v>
       </c>
-      <c r="E228" s="52" t="s">
+      <c r="E228" s="40" t="s">
         <v>629</v>
       </c>
       <c r="F228" s="33" t="s">
@@ -14562,7 +14601,7 @@
       <c r="J228" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="K228" s="53"/>
+      <c r="K228" s="41"/>
       <c r="L228" s="25" t="s">
         <v>70</v>
       </c>
@@ -14578,27 +14617,27 @@
       <c r="P228" s="25" t="s">
         <v>633</v>
       </c>
-      <c r="Q228" s="53"/>
-      <c r="R228" s="54"/>
-      <c r="S228" s="55"/>
-      <c r="T228" s="56" t="s">
+      <c r="Q228" s="41"/>
+      <c r="R228" s="42"/>
+      <c r="S228" s="43"/>
+      <c r="T228" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="229" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A229" s="50">
+      <c r="A229" s="38">
         <v>159</v>
       </c>
-      <c r="B229" s="51" t="s">
+      <c r="B229" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C229" s="51" t="s">
+      <c r="C229" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D229" s="51" t="s">
+      <c r="D229" s="39" t="s">
         <v>634</v>
       </c>
-      <c r="E229" s="52" t="s">
+      <c r="E229" s="40" t="s">
         <v>635</v>
       </c>
       <c r="F229" s="33" t="s">
@@ -14616,7 +14655,7 @@
       <c r="J229" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="K229" s="53"/>
+      <c r="K229" s="41"/>
       <c r="L229" s="25" t="s">
         <v>70</v>
       </c>
@@ -14632,27 +14671,27 @@
       <c r="P229" s="25" t="s">
         <v>633</v>
       </c>
-      <c r="Q229" s="53"/>
-      <c r="R229" s="54"/>
-      <c r="S229" s="55"/>
-      <c r="T229" s="56" t="s">
+      <c r="Q229" s="41"/>
+      <c r="R229" s="42"/>
+      <c r="S229" s="43"/>
+      <c r="T229" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="230" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A230" s="50">
+      <c r="A230" s="38">
         <v>160</v>
       </c>
-      <c r="B230" s="51" t="s">
+      <c r="B230" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C230" s="51" t="s">
+      <c r="C230" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D230" s="51" t="s">
+      <c r="D230" s="39" t="s">
         <v>639</v>
       </c>
-      <c r="E230" s="52" t="s">
+      <c r="E230" s="40" t="s">
         <v>640</v>
       </c>
       <c r="F230" s="33" t="s">
@@ -14670,7 +14709,7 @@
       <c r="J230" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="K230" s="53"/>
+      <c r="K230" s="41"/>
       <c r="L230" s="25" t="s">
         <v>70</v>
       </c>
@@ -14686,27 +14725,27 @@
       <c r="P230" s="25" t="s">
         <v>644</v>
       </c>
-      <c r="Q230" s="53"/>
-      <c r="R230" s="54"/>
-      <c r="S230" s="55"/>
-      <c r="T230" s="56" t="s">
+      <c r="Q230" s="41"/>
+      <c r="R230" s="42"/>
+      <c r="S230" s="43"/>
+      <c r="T230" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="231" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A231" s="50">
+      <c r="A231" s="38">
         <v>161</v>
       </c>
-      <c r="B231" s="51" t="s">
+      <c r="B231" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C231" s="51" t="s">
+      <c r="C231" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D231" s="51" t="s">
+      <c r="D231" s="39" t="s">
         <v>645</v>
       </c>
-      <c r="E231" s="52" t="s">
+      <c r="E231" s="40" t="s">
         <v>646</v>
       </c>
       <c r="F231" s="33" t="s">
@@ -14724,7 +14763,7 @@
       <c r="J231" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="K231" s="53"/>
+      <c r="K231" s="41"/>
       <c r="L231" s="25" t="s">
         <v>70</v>
       </c>
@@ -14740,65 +14779,65 @@
       <c r="P231" s="25" t="s">
         <v>650</v>
       </c>
-      <c r="Q231" s="53"/>
-      <c r="R231" s="54"/>
-      <c r="S231" s="55"/>
-      <c r="T231" s="56" t="s">
+      <c r="Q231" s="41"/>
+      <c r="R231" s="42"/>
+      <c r="S231" s="43"/>
+      <c r="T231" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="232" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A232" s="50">
+      <c r="A232" s="38">
         <v>162</v>
       </c>
-      <c r="B232" s="51" t="s">
+      <c r="B232" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C232" s="51" t="s">
+      <c r="C232" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D232" s="51" t="s">
+      <c r="D232" s="39" t="s">
         <v>651</v>
       </c>
-      <c r="E232" s="52" t="s">
+      <c r="E232" s="40" t="s">
         <v>652</v>
       </c>
-      <c r="F232" s="58"/>
-      <c r="G232" s="57"/>
-      <c r="H232" s="57"/>
-      <c r="I232" s="57"/>
+      <c r="F232" s="46"/>
+      <c r="G232" s="45"/>
+      <c r="H232" s="45"/>
+      <c r="I232" s="45"/>
       <c r="J232" s="25" t="s">
         <v>515</v>
       </c>
       <c r="K232" s="25" t="s">
         <v>653</v>
       </c>
-      <c r="L232" s="53"/>
-      <c r="M232" s="53"/>
-      <c r="N232" s="53"/>
-      <c r="O232" s="53"/>
-      <c r="P232" s="53"/>
-      <c r="Q232" s="53"/>
-      <c r="R232" s="54"/>
-      <c r="S232" s="55"/>
-      <c r="T232" s="56" t="s">
+      <c r="L232" s="41"/>
+      <c r="M232" s="41"/>
+      <c r="N232" s="41"/>
+      <c r="O232" s="41"/>
+      <c r="P232" s="41"/>
+      <c r="Q232" s="41"/>
+      <c r="R232" s="42"/>
+      <c r="S232" s="43"/>
+      <c r="T232" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="233" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A233" s="50">
+      <c r="A233" s="38">
         <v>163</v>
       </c>
-      <c r="B233" s="51" t="s">
+      <c r="B233" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C233" s="51" t="s">
+      <c r="C233" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D233" s="51" t="s">
+      <c r="D233" s="39" t="s">
         <v>654</v>
       </c>
-      <c r="E233" s="52" t="s">
+      <c r="E233" s="40" t="s">
         <v>655</v>
       </c>
       <c r="F233" s="33" t="s">
@@ -14816,38 +14855,48 @@
       <c r="J233" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="K233" s="53"/>
-      <c r="L233" s="53"/>
-      <c r="M233" s="53"/>
-      <c r="N233" s="53"/>
-      <c r="O233" s="53"/>
-      <c r="P233" s="53"/>
-      <c r="Q233" s="53"/>
-      <c r="R233" s="54"/>
-      <c r="S233" s="55"/>
-      <c r="T233" s="56" t="s">
+      <c r="K233" s="41"/>
+      <c r="L233" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="M233" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="N233" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="O233" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="P233" s="41" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q233" s="41"/>
+      <c r="R233" s="42"/>
+      <c r="S233" s="43"/>
+      <c r="T233" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="234" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A234" s="50">
+      <c r="A234" s="38">
         <v>164</v>
       </c>
-      <c r="B234" s="51" t="s">
+      <c r="B234" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C234" s="51" t="s">
+      <c r="C234" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D234" s="51" t="s">
+      <c r="D234" s="39" t="s">
         <v>659</v>
       </c>
-      <c r="E234" s="52" t="s">
+      <c r="E234" s="40" t="s">
         <v>660</v>
       </c>
-      <c r="F234" s="58"/>
-      <c r="G234" s="57"/>
-      <c r="H234" s="57"/>
+      <c r="F234" s="46"/>
+      <c r="G234" s="45"/>
+      <c r="H234" s="45"/>
       <c r="I234" s="24"/>
       <c r="J234" s="25" t="s">
         <v>515</v>
@@ -14855,184 +14904,184 @@
       <c r="K234" s="25" t="s">
         <v>661</v>
       </c>
-      <c r="L234" s="53"/>
-      <c r="M234" s="53"/>
-      <c r="N234" s="53"/>
-      <c r="O234" s="53"/>
-      <c r="P234" s="53"/>
-      <c r="Q234" s="53"/>
-      <c r="R234" s="54"/>
-      <c r="S234" s="55"/>
-      <c r="T234" s="56" t="s">
+      <c r="L234" s="41"/>
+      <c r="M234" s="41"/>
+      <c r="N234" s="41"/>
+      <c r="O234" s="41"/>
+      <c r="P234" s="41"/>
+      <c r="Q234" s="41"/>
+      <c r="R234" s="42"/>
+      <c r="S234" s="43"/>
+      <c r="T234" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="235" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A235" s="50">
+      <c r="A235" s="38">
         <v>165</v>
       </c>
-      <c r="B235" s="51" t="s">
+      <c r="B235" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C235" s="51" t="s">
+      <c r="C235" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D235" s="51" t="s">
+      <c r="D235" s="39" t="s">
         <v>662</v>
       </c>
-      <c r="E235" s="52" t="s">
+      <c r="E235" s="40" t="s">
         <v>663</v>
       </c>
-      <c r="F235" s="58"/>
-      <c r="G235" s="57"/>
-      <c r="H235" s="57"/>
-      <c r="I235" s="57"/>
+      <c r="F235" s="46"/>
+      <c r="G235" s="45"/>
+      <c r="H235" s="45"/>
+      <c r="I235" s="45"/>
       <c r="J235" s="25" t="s">
         <v>515</v>
       </c>
       <c r="K235" s="25" t="s">
         <v>664</v>
       </c>
-      <c r="L235" s="53"/>
-      <c r="M235" s="53"/>
-      <c r="N235" s="53"/>
-      <c r="O235" s="53"/>
-      <c r="P235" s="53"/>
-      <c r="Q235" s="53"/>
-      <c r="R235" s="54"/>
-      <c r="S235" s="55"/>
-      <c r="T235" s="56" t="s">
+      <c r="L235" s="41"/>
+      <c r="M235" s="41"/>
+      <c r="N235" s="41"/>
+      <c r="O235" s="41"/>
+      <c r="P235" s="41"/>
+      <c r="Q235" s="41"/>
+      <c r="R235" s="42"/>
+      <c r="S235" s="43"/>
+      <c r="T235" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="236" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A236" s="50">
+      <c r="A236" s="38">
         <v>166</v>
       </c>
-      <c r="B236" s="51" t="s">
+      <c r="B236" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C236" s="51" t="s">
+      <c r="C236" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D236" s="51" t="s">
+      <c r="D236" s="39" t="s">
         <v>665</v>
       </c>
-      <c r="E236" s="52" t="s">
+      <c r="E236" s="40" t="s">
         <v>666</v>
       </c>
-      <c r="F236" s="58"/>
-      <c r="G236" s="57"/>
-      <c r="H236" s="57"/>
-      <c r="I236" s="57"/>
+      <c r="F236" s="46"/>
+      <c r="G236" s="45"/>
+      <c r="H236" s="45"/>
+      <c r="I236" s="45"/>
       <c r="J236" s="25" t="s">
         <v>515</v>
       </c>
       <c r="K236" s="25" t="s">
         <v>664</v>
       </c>
-      <c r="L236" s="53"/>
-      <c r="M236" s="53"/>
-      <c r="N236" s="53"/>
-      <c r="O236" s="53"/>
-      <c r="P236" s="53"/>
-      <c r="Q236" s="53"/>
-      <c r="R236" s="54"/>
-      <c r="S236" s="55"/>
-      <c r="T236" s="56" t="s">
+      <c r="L236" s="41"/>
+      <c r="M236" s="41"/>
+      <c r="N236" s="41"/>
+      <c r="O236" s="41"/>
+      <c r="P236" s="41"/>
+      <c r="Q236" s="41"/>
+      <c r="R236" s="42"/>
+      <c r="S236" s="43"/>
+      <c r="T236" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="237" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A237" s="50">
+      <c r="A237" s="38">
         <v>167</v>
       </c>
-      <c r="B237" s="51" t="s">
+      <c r="B237" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C237" s="51" t="s">
+      <c r="C237" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D237" s="51" t="s">
+      <c r="D237" s="39" t="s">
         <v>667</v>
       </c>
-      <c r="E237" s="52" t="s">
+      <c r="E237" s="40" t="s">
         <v>668</v>
       </c>
-      <c r="F237" s="58"/>
-      <c r="G237" s="57"/>
-      <c r="H237" s="57"/>
-      <c r="I237" s="57"/>
+      <c r="F237" s="46"/>
+      <c r="G237" s="45"/>
+      <c r="H237" s="45"/>
+      <c r="I237" s="45"/>
       <c r="J237" s="25" t="s">
         <v>515</v>
       </c>
       <c r="K237" s="25" t="s">
         <v>661</v>
       </c>
-      <c r="L237" s="53"/>
-      <c r="M237" s="53"/>
-      <c r="N237" s="53"/>
-      <c r="O237" s="53"/>
-      <c r="P237" s="53"/>
-      <c r="Q237" s="53"/>
-      <c r="R237" s="54"/>
-      <c r="S237" s="55"/>
-      <c r="T237" s="56" t="s">
+      <c r="L237" s="41"/>
+      <c r="M237" s="41"/>
+      <c r="N237" s="41"/>
+      <c r="O237" s="41"/>
+      <c r="P237" s="41"/>
+      <c r="Q237" s="41"/>
+      <c r="R237" s="42"/>
+      <c r="S237" s="43"/>
+      <c r="T237" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="238" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A238" s="50">
+      <c r="A238" s="38">
         <v>168</v>
       </c>
-      <c r="B238" s="51" t="s">
+      <c r="B238" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C238" s="51" t="s">
+      <c r="C238" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D238" s="51" t="s">
+      <c r="D238" s="39" t="s">
         <v>669</v>
       </c>
-      <c r="E238" s="52" t="s">
+      <c r="E238" s="40" t="s">
         <v>670</v>
       </c>
-      <c r="F238" s="58"/>
-      <c r="G238" s="57"/>
-      <c r="H238" s="57"/>
-      <c r="I238" s="57"/>
+      <c r="F238" s="46"/>
+      <c r="G238" s="45"/>
+      <c r="H238" s="45"/>
+      <c r="I238" s="45"/>
       <c r="J238" s="25" t="s">
         <v>515</v>
       </c>
       <c r="K238" s="25" t="s">
         <v>661</v>
       </c>
-      <c r="L238" s="53"/>
-      <c r="M238" s="53"/>
-      <c r="N238" s="53"/>
-      <c r="O238" s="53"/>
-      <c r="P238" s="53"/>
-      <c r="Q238" s="53"/>
-      <c r="R238" s="54"/>
-      <c r="S238" s="55"/>
-      <c r="T238" s="56" t="s">
+      <c r="L238" s="41"/>
+      <c r="M238" s="41"/>
+      <c r="N238" s="41"/>
+      <c r="O238" s="41"/>
+      <c r="P238" s="41"/>
+      <c r="Q238" s="41"/>
+      <c r="R238" s="42"/>
+      <c r="S238" s="43"/>
+      <c r="T238" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="239" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A239" s="50">
+      <c r="A239" s="38">
         <v>169</v>
       </c>
-      <c r="B239" s="51" t="s">
+      <c r="B239" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C239" s="51" t="s">
+      <c r="C239" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D239" s="51" t="s">
+      <c r="D239" s="39" t="s">
         <v>671</v>
       </c>
-      <c r="E239" s="52" t="s">
+      <c r="E239" s="40" t="s">
         <v>672</v>
       </c>
       <c r="F239" s="33" t="s">
@@ -15050,7 +15099,7 @@
       <c r="J239" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="K239" s="53"/>
+      <c r="K239" s="41"/>
       <c r="L239" s="25" t="s">
         <v>70</v>
       </c>
@@ -15066,27 +15115,27 @@
       <c r="P239" s="25" t="s">
         <v>650</v>
       </c>
-      <c r="Q239" s="53"/>
-      <c r="R239" s="54"/>
-      <c r="S239" s="55"/>
-      <c r="T239" s="56" t="s">
+      <c r="Q239" s="41"/>
+      <c r="R239" s="42"/>
+      <c r="S239" s="43"/>
+      <c r="T239" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="240" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A240" s="50">
+      <c r="A240" s="38">
         <v>374</v>
       </c>
-      <c r="B240" s="51" t="s">
+      <c r="B240" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C240" s="51" t="s">
+      <c r="C240" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D240" s="51" t="s">
+      <c r="D240" s="39" t="s">
         <v>676</v>
       </c>
-      <c r="E240" s="52" t="s">
+      <c r="E240" s="40" t="s">
         <v>677</v>
       </c>
       <c r="F240" s="33" t="s">
@@ -15101,19 +15150,19 @@
       <c r="I240" s="34" t="s">
         <v>680</v>
       </c>
-      <c r="J240" s="53" t="s">
+      <c r="J240" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="K240" s="53"/>
-      <c r="L240" s="53"/>
-      <c r="M240" s="53"/>
-      <c r="N240" s="53"/>
-      <c r="O240" s="53"/>
-      <c r="P240" s="53"/>
-      <c r="Q240" s="53"/>
-      <c r="R240" s="54"/>
-      <c r="S240" s="55"/>
-      <c r="T240" s="56" t="s">
+      <c r="K240" s="41"/>
+      <c r="L240" s="41"/>
+      <c r="M240" s="41"/>
+      <c r="N240" s="41"/>
+      <c r="O240" s="41"/>
+      <c r="P240" s="41"/>
+      <c r="Q240" s="41"/>
+      <c r="R240" s="42"/>
+      <c r="S240" s="43"/>
+      <c r="T240" s="44" t="s">
         <v>48</v>
       </c>
     </row>

--- a/GATEWAY/A1#111ELIOSSUITEXX/eliossuite/0012023/3/report-checklist.xlsx
+++ b/GATEWAY/A1#111ELIOSSUITEXX/eliossuite/0012023/3/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fse_git\it-fse-accreditamento\GATEWAY\A1#111ELIOSSUITEXX\eliossuite\0012023\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B815D58E-1F72-4A80-B6B2-E1D1BCB4A049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5362E6-1970-4952-BDDF-B9739711F555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$213</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$240</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="680">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2775,17 +2775,11 @@
     <t>Errore di sintassi</t>
   </si>
   <si>
-    <t>CONTROLLO SINTASSI DOCUMENTO</t>
-  </si>
-  <si>
     <t>Errore semantico</t>
   </si>
   <si>
     <t xml:space="preserve">Non vengono gestite le sezioni opzionali.
 </t>
-  </si>
-  <si>
-    <t>CONTROLLO ANAGRAFiCA PAZIENTE</t>
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.190.4.4.7e65708e07d54dd2321731ec5710c9b15c0dd852734415d149e630696dbf64a5.12470852e2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
@@ -2936,6 +2930,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Precondizioni:</t>
     </r>
@@ -2944,6 +2939,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
@@ -2956,6 +2952,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Descrizione di Business del caso di test: </t>
     </r>
@@ -2964,6 +2961,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
@@ -2978,9 +2976,6 @@
   </si>
   <si>
     <t>Errore JWT</t>
-  </si>
-  <si>
-    <t>Viene mostrato un messaggio di errore all'operatore invitandolo a riprovare</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
@@ -2993,6 +2988,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Precondizioni:</t>
     </r>
@@ -3001,6 +2997,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
@@ -3013,6 +3010,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Descrizione di Business del caso di test: </t>
     </r>
@@ -3021,6 +3019,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
@@ -3040,9 +3039,6 @@
     <t>Errore Timeout</t>
   </si>
   <si>
-    <t>Il sistema attende un numero di millisecondi configurabile (default 30000) Dopo tale tempo viene mostrato un messaggio di errore all'operatore</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT1</t>
   </si>
   <si>
@@ -3121,9 +3117,6 @@
     <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.caca4df247^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>CONTROLLO DATI PAZIENTE</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT7_KO</t>
   </si>
   <si>
@@ -3224,9 +3217,6 @@
     <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.d4b91e2ecc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>CONTROLLO DATI IMPEGNATIVA</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT13_KO</t>
   </si>
   <si>
@@ -3257,9 +3247,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.85e09cc537^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>CONTROLLO DATI ACCETTAZIONE</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT15_KO</t>
@@ -3277,9 +3264,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.190.4.4.f5341f2d8f41dcb8fa4adb36e63b5b1b78960468e091c06cba175e468475c2f1.15b496ef6c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>CONTROLLO DATI REFERTO</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT16_KO</t>
@@ -3404,13 +3388,13 @@
     <t>Elios Suite SRL</t>
   </si>
   <si>
-    <t>L'utente viene invitato a rigenerare il token attenzionando i parametri inseriti</t>
-  </si>
-  <si>
-    <t>L'utente viene invitato a riprovare dopo errore di timeout</t>
-  </si>
-  <si>
-    <t>L'utente viene inviato a compilare tutti i campi necessari per la validazione del cda2</t>
+    <t>Da backoffice, viene evidenziata una lista di documenti che sono in errore, quindi per ogni documento entrando nel dettaglio, vengono mostrati i parametri necessari alla creazione del token, e con un sistema predittivo si consiglia di correggere quelli formalmente errati. Una volta corretto, il documento viene reinserito nella coda di invio massiva.</t>
+  </si>
+  <si>
+    <t>In automatico il software effettua 3 ulteriori tentativi a distanza di, rispettivamente, 5-10-15 minuti uno dall'altro. Qualora questi non andassero a buon fine, da backoffice, viene evidenziata una lista di documenti che sono in errore, quindi per ogni documento entrando nel dettaglio, vengono mostrate le motivazioni che impediscono l'invio e trattandosi di errore di timeout, l'utente viene invitato a rimettere in coda i documenti affetti da questa problematica.</t>
+  </si>
+  <si>
+    <t>Da backoffice, viene evidenziata una lista di documenti che sono in errore, quindi per ogni documento entrando nel dettaglio, vengono mostrati i parametri errati e con un sistema predittivo si consiglia di correggere quelli formalmente errati. Una volta corretti, il documento viene automaticamente reinserito nella coda di invio massiva.</t>
   </si>
 </sst>
 </file>
@@ -3420,7 +3404,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3501,17 +3485,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3928,7 +3907,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -6389,10 +6368,10 @@
   <dimension ref="A1:T830"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
+      <selection pane="bottomRight" activeCell="P239" sqref="P239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6436,7 +6415,7 @@
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="51" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="D2" s="50"/>
       <c r="F2" s="12"/>
@@ -6461,7 +6440,7 @@
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="58" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="D3" s="59"/>
       <c r="F3" s="12"/>
@@ -6484,7 +6463,7 @@
       <c r="A4" s="54"/>
       <c r="B4" s="55"/>
       <c r="C4" s="58" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="D4" s="59"/>
       <c r="E4" s="4"/>
@@ -6508,7 +6487,7 @@
       <c r="A5" s="56"/>
       <c r="B5" s="57"/>
       <c r="C5" s="58" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="D5" s="59"/>
       <c r="F5" s="12"/>
@@ -6697,16 +6676,16 @@
         <v>52</v>
       </c>
       <c r="F11" s="33" t="s">
+        <v>527</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>527</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>528</v>
+      </c>
+      <c r="I11" s="34" t="s">
         <v>529</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>530</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>531</v>
       </c>
       <c r="J11" s="35" t="s">
         <v>517</v>
@@ -6741,16 +6720,16 @@
         <v>54</v>
       </c>
       <c r="F12" s="33" t="s">
+        <v>530</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>530</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>531</v>
+      </c>
+      <c r="I12" s="34" t="s">
         <v>532</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>533</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>534</v>
       </c>
       <c r="J12" s="35" t="s">
         <v>517</v>
@@ -6792,7 +6771,7 @@
         <v>515</v>
       </c>
       <c r="K13" s="37" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
@@ -6830,7 +6809,7 @@
         <v>515</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
@@ -6861,16 +6840,16 @@
         <v>65</v>
       </c>
       <c r="F15" s="33" t="s">
+        <v>533</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>533</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>534</v>
+      </c>
+      <c r="I15" s="34" t="s">
         <v>535</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>535</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>536</v>
-      </c>
-      <c r="I15" s="34" t="s">
-        <v>537</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>70</v>
@@ -6883,13 +6862,13 @@
         <v>70</v>
       </c>
       <c r="N15" s="25" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O15" s="25" t="s">
         <v>70</v>
       </c>
       <c r="P15" s="25" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="Q15" s="25"/>
       <c r="R15" s="26"/>
@@ -6915,16 +6894,16 @@
         <v>68</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="J16" s="25" t="s">
         <v>70</v>
@@ -6937,13 +6916,13 @@
         <v>70</v>
       </c>
       <c r="N16" s="25" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O16" s="25" t="s">
         <v>70</v>
       </c>
       <c r="P16" s="25" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="Q16" s="25"/>
       <c r="R16" s="26"/>
@@ -6983,13 +6962,13 @@
         <v>70</v>
       </c>
       <c r="N17" s="25" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="O17" s="25" t="s">
         <v>70</v>
       </c>
       <c r="P17" s="25" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="Q17" s="25"/>
       <c r="R17" s="26" t="s">
@@ -7017,16 +6996,16 @@
         <v>73</v>
       </c>
       <c r="F18" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="I18" s="34" t="s">
         <v>540</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>540</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>541</v>
-      </c>
-      <c r="I18" s="34" t="s">
-        <v>542</v>
       </c>
       <c r="J18" s="35" t="s">
         <v>517</v>
@@ -7041,11 +7020,11 @@
       <c r="N18" s="34" t="s">
         <v>518</v>
       </c>
-      <c r="O18" s="35" t="s">
-        <v>515</v>
-      </c>
-      <c r="P18" s="35" t="s">
-        <v>519</v>
+      <c r="O18" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="25" t="s">
+        <v>679</v>
       </c>
       <c r="Q18" s="25"/>
       <c r="R18" s="26"/>
@@ -7071,16 +7050,16 @@
         <v>75</v>
       </c>
       <c r="F19" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="I19" s="34" t="s">
         <v>543</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>544</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>545</v>
       </c>
       <c r="J19" s="35" t="s">
         <v>517</v>
@@ -7093,13 +7072,13 @@
         <v>70</v>
       </c>
       <c r="N19" s="35" t="s">
-        <v>520</v>
-      </c>
-      <c r="O19" s="35" t="s">
-        <v>515</v>
-      </c>
-      <c r="P19" s="35" t="s">
         <v>519</v>
+      </c>
+      <c r="O19" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" s="25" t="s">
+        <v>679</v>
       </c>
       <c r="Q19" s="25"/>
       <c r="R19" s="26"/>
@@ -7125,16 +7104,16 @@
         <v>77</v>
       </c>
       <c r="F20" s="33" t="s">
+        <v>544</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>544</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>545</v>
+      </c>
+      <c r="I20" s="34" t="s">
         <v>546</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>546</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>547</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>548</v>
       </c>
       <c r="J20" s="35" t="s">
         <v>70</v>
@@ -7147,13 +7126,13 @@
         <v>70</v>
       </c>
       <c r="N20" s="35" t="s">
-        <v>520</v>
-      </c>
-      <c r="O20" s="35" t="s">
-        <v>515</v>
-      </c>
-      <c r="P20" s="35" t="s">
         <v>519</v>
+      </c>
+      <c r="O20" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" s="25" t="s">
+        <v>679</v>
       </c>
       <c r="Q20" s="25"/>
       <c r="R20" s="26"/>
@@ -7179,16 +7158,16 @@
         <v>79</v>
       </c>
       <c r="F21" s="33" t="s">
+        <v>547</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>547</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>548</v>
+      </c>
+      <c r="I21" s="34" t="s">
         <v>549</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>549</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>550</v>
-      </c>
-      <c r="I21" s="34" t="s">
-        <v>551</v>
       </c>
       <c r="J21" s="35" t="s">
         <v>70</v>
@@ -7201,13 +7180,13 @@
         <v>70</v>
       </c>
       <c r="N21" s="35" t="s">
-        <v>520</v>
-      </c>
-      <c r="O21" s="35" t="s">
-        <v>515</v>
-      </c>
-      <c r="P21" s="35" t="s">
-        <v>522</v>
+        <v>519</v>
+      </c>
+      <c r="O21" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" s="25" t="s">
+        <v>679</v>
       </c>
       <c r="Q21" s="25"/>
       <c r="R21" s="26"/>
@@ -7233,16 +7212,16 @@
         <v>81</v>
       </c>
       <c r="F22" s="33" t="s">
+        <v>550</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>550</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>551</v>
+      </c>
+      <c r="I22" s="34" t="s">
         <v>552</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>552</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>553</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>554</v>
       </c>
       <c r="J22" s="35" t="s">
         <v>70</v>
@@ -7255,13 +7234,13 @@
         <v>70</v>
       </c>
       <c r="N22" s="35" t="s">
-        <v>520</v>
-      </c>
-      <c r="O22" s="35" t="s">
-        <v>515</v>
-      </c>
-      <c r="P22" s="35" t="s">
-        <v>522</v>
+        <v>519</v>
+      </c>
+      <c r="O22" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" s="25" t="s">
+        <v>679</v>
       </c>
       <c r="Q22" s="25"/>
       <c r="R22" s="26"/>
@@ -7287,16 +7266,16 @@
         <v>83</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H23" s="34" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="J23" s="35" t="s">
         <v>70</v>
@@ -7309,13 +7288,13 @@
         <v>70</v>
       </c>
       <c r="N23" s="35" t="s">
-        <v>520</v>
-      </c>
-      <c r="O23" s="35" t="s">
-        <v>515</v>
-      </c>
-      <c r="P23" s="35" t="s">
-        <v>522</v>
+        <v>519</v>
+      </c>
+      <c r="O23" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P23" s="25" t="s">
+        <v>679</v>
       </c>
       <c r="Q23" s="25"/>
       <c r="R23" s="26"/>
@@ -7348,7 +7327,7 @@
         <v>515</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
@@ -7386,7 +7365,7 @@
         <v>515</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
@@ -7417,16 +7396,16 @@
         <v>89</v>
       </c>
       <c r="F26" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>556</v>
+      </c>
+      <c r="I26" s="34" t="s">
         <v>557</v>
-      </c>
-      <c r="G26" s="33" t="s">
-        <v>557</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>558</v>
-      </c>
-      <c r="I26" s="34" t="s">
-        <v>559</v>
       </c>
       <c r="J26" s="35" t="s">
         <v>70</v>
@@ -7441,11 +7420,11 @@
       <c r="N26" s="34" t="s">
         <v>518</v>
       </c>
-      <c r="O26" s="35" t="s">
-        <v>515</v>
-      </c>
-      <c r="P26" s="35" t="s">
-        <v>519</v>
+      <c r="O26" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" s="25" t="s">
+        <v>679</v>
       </c>
       <c r="Q26" s="25"/>
       <c r="R26" s="26"/>
@@ -7471,16 +7450,16 @@
         <v>91</v>
       </c>
       <c r="F27" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>559</v>
+      </c>
+      <c r="I27" s="34" t="s">
         <v>560</v>
-      </c>
-      <c r="G27" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>561</v>
-      </c>
-      <c r="I27" s="34" t="s">
-        <v>562</v>
       </c>
       <c r="J27" s="35" t="s">
         <v>70</v>
@@ -7495,11 +7474,11 @@
       <c r="N27" s="34" t="s">
         <v>518</v>
       </c>
-      <c r="O27" s="35" t="s">
-        <v>515</v>
-      </c>
-      <c r="P27" s="35" t="s">
-        <v>519</v>
+      <c r="O27" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" s="25" t="s">
+        <v>679</v>
       </c>
       <c r="Q27" s="25"/>
       <c r="R27" s="26"/>
@@ -7525,16 +7504,16 @@
         <v>93</v>
       </c>
       <c r="F28" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>562</v>
+      </c>
+      <c r="I28" s="34" t="s">
         <v>563</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>563</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>564</v>
-      </c>
-      <c r="I28" s="34" t="s">
-        <v>565</v>
       </c>
       <c r="J28" s="35" t="s">
         <v>70</v>
@@ -7549,11 +7528,11 @@
       <c r="N28" s="34" t="s">
         <v>518</v>
       </c>
-      <c r="O28" s="35" t="s">
-        <v>515</v>
-      </c>
-      <c r="P28" s="35" t="s">
-        <v>519</v>
+      <c r="O28" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" s="25" t="s">
+        <v>679</v>
       </c>
       <c r="Q28" s="25"/>
       <c r="R28" s="26"/>
@@ -7586,7 +7565,7 @@
         <v>515</v>
       </c>
       <c r="K29" s="25" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L29" s="25"/>
       <c r="M29" s="25"/>
@@ -7624,7 +7603,7 @@
         <v>515</v>
       </c>
       <c r="K30" s="25" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L30" s="25"/>
       <c r="M30" s="25"/>
@@ -7659,10 +7638,10 @@
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
       <c r="J31" s="25" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="K31" s="25" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
@@ -7700,7 +7679,7 @@
         <v>515</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
@@ -7735,10 +7714,10 @@
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
       <c r="J33" s="25" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="K33" s="25" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
@@ -7773,10 +7752,10 @@
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
       <c r="J34" s="25" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="K34" s="25" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="L34" s="25"/>
       <c r="M34" s="25"/>
@@ -7814,7 +7793,7 @@
         <v>515</v>
       </c>
       <c r="K35" s="25" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
@@ -7852,7 +7831,7 @@
         <v>515</v>
       </c>
       <c r="K36" s="25" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L36" s="25"/>
       <c r="M36" s="25"/>
@@ -13867,16 +13846,16 @@
         <v>461</v>
       </c>
       <c r="F213" s="33" t="s">
+        <v>564</v>
+      </c>
+      <c r="G213" s="33" t="s">
+        <v>564</v>
+      </c>
+      <c r="H213" s="34" t="s">
+        <v>565</v>
+      </c>
+      <c r="I213" s="34" t="s">
         <v>566</v>
-      </c>
-      <c r="G213" s="33" t="s">
-        <v>566</v>
-      </c>
-      <c r="H213" s="34" t="s">
-        <v>567</v>
-      </c>
-      <c r="I213" s="34" t="s">
-        <v>568</v>
       </c>
       <c r="J213" s="25" t="s">
         <v>70</v>
@@ -13905,22 +13884,22 @@
         <v>66</v>
       </c>
       <c r="D214" s="39" t="s">
+        <v>567</v>
+      </c>
+      <c r="E214" s="40" t="s">
+        <v>568</v>
+      </c>
+      <c r="F214" s="33" t="s">
         <v>569</v>
       </c>
-      <c r="E214" s="40" t="s">
+      <c r="G214" s="33" t="s">
+        <v>569</v>
+      </c>
+      <c r="H214" s="34" t="s">
         <v>570</v>
       </c>
-      <c r="F214" s="33" t="s">
-        <v>571</v>
-      </c>
-      <c r="G214" s="33" t="s">
-        <v>571</v>
-      </c>
-      <c r="H214" s="34" t="s">
-        <v>572</v>
-      </c>
       <c r="I214" s="34" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="J214" s="25" t="s">
         <v>70</v>
@@ -13933,13 +13912,13 @@
         <v>70</v>
       </c>
       <c r="N214" s="25" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O214" s="25" t="s">
         <v>70</v>
       </c>
       <c r="P214" s="25" t="s">
-        <v>574</v>
+        <v>677</v>
       </c>
       <c r="Q214" s="41"/>
       <c r="R214" s="42"/>
@@ -13959,22 +13938,22 @@
         <v>66</v>
       </c>
       <c r="D215" s="39" t="s">
+        <v>572</v>
+      </c>
+      <c r="E215" s="40" t="s">
+        <v>573</v>
+      </c>
+      <c r="F215" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="G215" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="H215" s="34" t="s">
         <v>575</v>
       </c>
-      <c r="E215" s="40" t="s">
-        <v>576</v>
-      </c>
-      <c r="F215" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="G215" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="H215" s="34" t="s">
-        <v>578</v>
-      </c>
       <c r="I215" s="34" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="J215" s="25" t="s">
         <v>70</v>
@@ -13987,13 +13966,13 @@
         <v>70</v>
       </c>
       <c r="N215" s="25" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O215" s="25" t="s">
         <v>70</v>
       </c>
       <c r="P215" s="25" t="s">
-        <v>574</v>
+        <v>677</v>
       </c>
       <c r="Q215" s="41"/>
       <c r="R215" s="42"/>
@@ -14013,7 +13992,7 @@
         <v>66</v>
       </c>
       <c r="D216" s="39" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E216" s="40" t="s">
         <v>69</v>
@@ -14033,13 +14012,13 @@
         <v>70</v>
       </c>
       <c r="N216" s="25" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="O216" s="25" t="s">
         <v>70</v>
       </c>
       <c r="P216" s="25" t="s">
-        <v>581</v>
+        <v>678</v>
       </c>
       <c r="Q216" s="41"/>
       <c r="R216" s="42" t="s">
@@ -14061,22 +14040,22 @@
         <v>66</v>
       </c>
       <c r="D217" s="39" t="s">
+        <v>578</v>
+      </c>
+      <c r="E217" s="40" t="s">
+        <v>579</v>
+      </c>
+      <c r="F217" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="G217" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="H217" s="34" t="s">
+        <v>581</v>
+      </c>
+      <c r="I217" s="34" t="s">
         <v>582</v>
-      </c>
-      <c r="E217" s="40" t="s">
-        <v>583</v>
-      </c>
-      <c r="F217" s="33" t="s">
-        <v>584</v>
-      </c>
-      <c r="G217" s="33" t="s">
-        <v>584</v>
-      </c>
-      <c r="H217" s="34" t="s">
-        <v>585</v>
-      </c>
-      <c r="I217" s="34" t="s">
-        <v>586</v>
       </c>
       <c r="J217" s="25" t="s">
         <v>70</v>
@@ -14105,10 +14084,10 @@
         <v>66</v>
       </c>
       <c r="D218" s="39" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E218" s="40" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F218" s="46"/>
       <c r="G218" s="45"/>
@@ -14118,7 +14097,7 @@
         <v>515</v>
       </c>
       <c r="K218" s="37" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L218" s="41"/>
       <c r="M218" s="41"/>
@@ -14143,10 +14122,10 @@
         <v>66</v>
       </c>
       <c r="D219" s="39" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E219" s="40" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F219" s="46"/>
       <c r="G219" s="45"/>
@@ -14156,7 +14135,7 @@
         <v>515</v>
       </c>
       <c r="K219" s="37" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L219" s="41"/>
       <c r="M219" s="41"/>
@@ -14181,10 +14160,10 @@
         <v>66</v>
       </c>
       <c r="D220" s="39" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E220" s="40" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F220" s="46"/>
       <c r="G220" s="45"/>
@@ -14194,7 +14173,7 @@
         <v>515</v>
       </c>
       <c r="K220" s="37" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L220" s="41"/>
       <c r="M220" s="41"/>
@@ -14219,22 +14198,22 @@
         <v>66</v>
       </c>
       <c r="D221" s="39" t="s">
+        <v>589</v>
+      </c>
+      <c r="E221" s="22" t="s">
+        <v>590</v>
+      </c>
+      <c r="F221" s="33" t="s">
+        <v>591</v>
+      </c>
+      <c r="G221" s="33" t="s">
+        <v>591</v>
+      </c>
+      <c r="H221" s="34" t="s">
+        <v>592</v>
+      </c>
+      <c r="I221" s="34" t="s">
         <v>593</v>
-      </c>
-      <c r="E221" s="22" t="s">
-        <v>594</v>
-      </c>
-      <c r="F221" s="33" t="s">
-        <v>595</v>
-      </c>
-      <c r="G221" s="33" t="s">
-        <v>595</v>
-      </c>
-      <c r="H221" s="34" t="s">
-        <v>596</v>
-      </c>
-      <c r="I221" s="34" t="s">
-        <v>597</v>
       </c>
       <c r="J221" s="25" t="s">
         <v>70</v>
@@ -14250,10 +14229,10 @@
         <v>518</v>
       </c>
       <c r="O221" s="25" t="s">
-        <v>515</v>
+        <v>70</v>
       </c>
       <c r="P221" s="25" t="s">
-        <v>519</v>
+        <v>679</v>
       </c>
       <c r="Q221" s="41"/>
       <c r="R221" s="42"/>
@@ -14273,22 +14252,22 @@
         <v>66</v>
       </c>
       <c r="D222" s="39" t="s">
+        <v>594</v>
+      </c>
+      <c r="E222" s="40" t="s">
+        <v>595</v>
+      </c>
+      <c r="F222" s="33" t="s">
+        <v>596</v>
+      </c>
+      <c r="G222" s="33" t="s">
+        <v>596</v>
+      </c>
+      <c r="H222" s="34" t="s">
+        <v>597</v>
+      </c>
+      <c r="I222" s="34" t="s">
         <v>598</v>
-      </c>
-      <c r="E222" s="40" t="s">
-        <v>599</v>
-      </c>
-      <c r="F222" s="33" t="s">
-        <v>600</v>
-      </c>
-      <c r="G222" s="33" t="s">
-        <v>600</v>
-      </c>
-      <c r="H222" s="34" t="s">
-        <v>601</v>
-      </c>
-      <c r="I222" s="34" t="s">
-        <v>602</v>
       </c>
       <c r="J222" s="25" t="s">
         <v>70</v>
@@ -14301,13 +14280,13 @@
         <v>70</v>
       </c>
       <c r="N222" s="25" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O222" s="25" t="s">
-        <v>515</v>
+        <v>70</v>
       </c>
       <c r="P222" s="25" t="s">
-        <v>603</v>
+        <v>679</v>
       </c>
       <c r="Q222" s="41"/>
       <c r="R222" s="42"/>
@@ -14327,22 +14306,22 @@
         <v>66</v>
       </c>
       <c r="D223" s="39" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="E223" s="40" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F223" s="33" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G223" s="33" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="H223" s="34" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="I223" s="34" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="J223" s="25" t="s">
         <v>70</v>
@@ -14358,10 +14337,10 @@
         <v>518</v>
       </c>
       <c r="O223" s="25" t="s">
-        <v>515</v>
+        <v>70</v>
       </c>
       <c r="P223" s="25" t="s">
-        <v>519</v>
+        <v>679</v>
       </c>
       <c r="Q223" s="41"/>
       <c r="R223" s="42"/>
@@ -14381,22 +14360,22 @@
         <v>66</v>
       </c>
       <c r="D224" s="39" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="E224" s="40" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="F224" s="33" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G224" s="33" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="H224" s="34" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="I224" s="34" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J224" s="25" t="s">
         <v>70</v>
@@ -14412,10 +14391,10 @@
         <v>518</v>
       </c>
       <c r="O224" s="25" t="s">
-        <v>515</v>
+        <v>70</v>
       </c>
       <c r="P224" s="25" t="s">
-        <v>519</v>
+        <v>679</v>
       </c>
       <c r="Q224" s="41"/>
       <c r="R224" s="42"/>
@@ -14435,22 +14414,22 @@
         <v>66</v>
       </c>
       <c r="D225" s="39" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="E225" s="40" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F225" s="33" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G225" s="33" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="H225" s="34" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="I225" s="34" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="J225" s="25" t="s">
         <v>70</v>
@@ -14466,10 +14445,10 @@
         <v>518</v>
       </c>
       <c r="O225" s="25" t="s">
-        <v>515</v>
+        <v>70</v>
       </c>
       <c r="P225" s="25" t="s">
-        <v>519</v>
+        <v>679</v>
       </c>
       <c r="Q225" s="41"/>
       <c r="R225" s="42"/>
@@ -14489,22 +14468,22 @@
         <v>66</v>
       </c>
       <c r="D226" s="39" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E226" s="40" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="F226" s="33" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="G226" s="33" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="H226" s="34" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="I226" s="34" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="J226" s="25" t="s">
         <v>70</v>
@@ -14517,13 +14496,13 @@
         <v>70</v>
       </c>
       <c r="N226" s="25" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="O226" s="25" t="s">
-        <v>515</v>
+        <v>70</v>
       </c>
       <c r="P226" s="25" t="s">
-        <v>519</v>
+        <v>679</v>
       </c>
       <c r="Q226" s="41"/>
       <c r="R226" s="42"/>
@@ -14543,10 +14522,10 @@
         <v>66</v>
       </c>
       <c r="D227" s="39" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E227" s="40" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="F227" s="46"/>
       <c r="G227" s="45"/>
@@ -14556,7 +14535,7 @@
         <v>515</v>
       </c>
       <c r="K227" s="25" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="L227" s="41"/>
       <c r="M227" s="41"/>
@@ -14581,22 +14560,22 @@
         <v>66</v>
       </c>
       <c r="D228" s="39" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="E228" s="40" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F228" s="33" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G228" s="33" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="H228" s="34" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="I228" s="34" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="J228" s="25" t="s">
         <v>70</v>
@@ -14609,13 +14588,13 @@
         <v>70</v>
       </c>
       <c r="N228" s="25" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O228" s="25" t="s">
-        <v>515</v>
+        <v>70</v>
       </c>
       <c r="P228" s="25" t="s">
-        <v>633</v>
+        <v>679</v>
       </c>
       <c r="Q228" s="41"/>
       <c r="R228" s="42"/>
@@ -14635,22 +14614,22 @@
         <v>66</v>
       </c>
       <c r="D229" s="39" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E229" s="40" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F229" s="33" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="G229" s="33" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="H229" s="34" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="I229" s="34" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="J229" s="25" t="s">
         <v>70</v>
@@ -14666,10 +14645,10 @@
         <v>518</v>
       </c>
       <c r="O229" s="25" t="s">
-        <v>515</v>
+        <v>70</v>
       </c>
       <c r="P229" s="25" t="s">
-        <v>633</v>
+        <v>679</v>
       </c>
       <c r="Q229" s="41"/>
       <c r="R229" s="42"/>
@@ -14689,22 +14668,22 @@
         <v>66</v>
       </c>
       <c r="D230" s="39" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="E230" s="40" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="F230" s="33" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="G230" s="33" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="H230" s="34" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="I230" s="34" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="J230" s="25" t="s">
         <v>70</v>
@@ -14720,10 +14699,10 @@
         <v>518</v>
       </c>
       <c r="O230" s="25" t="s">
-        <v>515</v>
+        <v>70</v>
       </c>
       <c r="P230" s="25" t="s">
-        <v>644</v>
+        <v>679</v>
       </c>
       <c r="Q230" s="41"/>
       <c r="R230" s="42"/>
@@ -14743,22 +14722,22 @@
         <v>66</v>
       </c>
       <c r="D231" s="39" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="E231" s="40" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="F231" s="33" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="G231" s="33" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="H231" s="34" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="I231" s="34" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="J231" s="25" t="s">
         <v>70</v>
@@ -14771,13 +14750,13 @@
         <v>70</v>
       </c>
       <c r="N231" s="25" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O231" s="25" t="s">
-        <v>515</v>
+        <v>70</v>
       </c>
       <c r="P231" s="25" t="s">
-        <v>650</v>
+        <v>679</v>
       </c>
       <c r="Q231" s="41"/>
       <c r="R231" s="42"/>
@@ -14797,10 +14776,10 @@
         <v>66</v>
       </c>
       <c r="D232" s="39" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="E232" s="40" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="F232" s="46"/>
       <c r="G232" s="45"/>
@@ -14810,7 +14789,7 @@
         <v>515</v>
       </c>
       <c r="K232" s="25" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="L232" s="41"/>
       <c r="M232" s="41"/>
@@ -14835,22 +14814,22 @@
         <v>66</v>
       </c>
       <c r="D233" s="39" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="E233" s="40" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F233" s="33" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G233" s="33" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="H233" s="34" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="I233" s="34" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="J233" s="25" t="s">
         <v>70</v>
@@ -14863,13 +14842,13 @@
         <v>70</v>
       </c>
       <c r="N233" s="41" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O233" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="P233" s="41" t="s">
-        <v>687</v>
+      <c r="P233" s="25" t="s">
+        <v>679</v>
       </c>
       <c r="Q233" s="41"/>
       <c r="R233" s="42"/>
@@ -14889,10 +14868,10 @@
         <v>66</v>
       </c>
       <c r="D234" s="39" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="E234" s="40" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="F234" s="46"/>
       <c r="G234" s="45"/>
@@ -14902,7 +14881,7 @@
         <v>515</v>
       </c>
       <c r="K234" s="25" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="L234" s="41"/>
       <c r="M234" s="41"/>
@@ -14927,10 +14906,10 @@
         <v>66</v>
       </c>
       <c r="D235" s="39" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="E235" s="40" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F235" s="46"/>
       <c r="G235" s="45"/>
@@ -14940,7 +14919,7 @@
         <v>515</v>
       </c>
       <c r="K235" s="25" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="L235" s="41"/>
       <c r="M235" s="41"/>
@@ -14965,10 +14944,10 @@
         <v>66</v>
       </c>
       <c r="D236" s="39" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="E236" s="40" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="F236" s="46"/>
       <c r="G236" s="45"/>
@@ -14978,7 +14957,7 @@
         <v>515</v>
       </c>
       <c r="K236" s="25" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="L236" s="41"/>
       <c r="M236" s="41"/>
@@ -15003,10 +14982,10 @@
         <v>66</v>
       </c>
       <c r="D237" s="39" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="E237" s="40" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="F237" s="46"/>
       <c r="G237" s="45"/>
@@ -15016,7 +14995,7 @@
         <v>515</v>
       </c>
       <c r="K237" s="25" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="L237" s="41"/>
       <c r="M237" s="41"/>
@@ -15041,10 +15020,10 @@
         <v>66</v>
       </c>
       <c r="D238" s="39" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="E238" s="40" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F238" s="46"/>
       <c r="G238" s="45"/>
@@ -15054,7 +15033,7 @@
         <v>515</v>
       </c>
       <c r="K238" s="25" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="L238" s="41"/>
       <c r="M238" s="41"/>
@@ -15079,22 +15058,22 @@
         <v>66</v>
       </c>
       <c r="D239" s="39" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="E239" s="40" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="F239" s="33" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="G239" s="33" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="H239" s="34" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="I239" s="34" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="J239" s="25" t="s">
         <v>70</v>
@@ -15107,13 +15086,13 @@
         <v>70</v>
       </c>
       <c r="N239" s="25" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O239" s="25" t="s">
-        <v>515</v>
+        <v>70</v>
       </c>
       <c r="P239" s="25" t="s">
-        <v>650</v>
+        <v>679</v>
       </c>
       <c r="Q239" s="41"/>
       <c r="R239" s="42"/>
@@ -15133,22 +15112,22 @@
         <v>66</v>
       </c>
       <c r="D240" s="39" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="E240" s="40" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="F240" s="33" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="G240" s="33" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="H240" s="34" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="I240" s="34" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="J240" s="41" t="s">
         <v>70</v>
@@ -19359,7 +19338,7 @@
       <c r="T830" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T213" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="A9:T240" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="VALIDAZIONE"/>
